--- a/로스트아크/데이터테이블/Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/Effect_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD63417-C25F-4B55-A06C-0190B0268B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038F2B85-32A8-4A87-9E75-C44F84684BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -2135,6 +2135,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>weakpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이덴티티 게이지 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAUGE_RECOVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이덴티티 게이지 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 ~ 1999 : 피해
+2000 ~ 2999 : 능력치 증가
+3000 ~ 3999 : 능력치 감소
+4000 ~ 4999 : 특수 기능 - 버프 
+5000 ~ 5999 : 특수 기능 - 디버프
+6000 ~ 6999 : 스킬의 속성 변경
+7000 ~ 7499 : 게이지 회복
+7500 ~ 7999 : 게이지 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAUGE_CONSUME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페널티 게이지 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penalty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페널티 게이지 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">효과 세부 분류 </t>
     </r>
@@ -2147,55 +2194,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(메모 참고)</t>
+      <t>(효과 타입에 따라 다름, 메모 참고)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weakpoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이덴티티 게이지 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAUGE_RECOVER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이덴티티 게이지 소모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000 ~ 1999 : 피해
-2000 ~ 2999 : 능력치 증가
-3000 ~ 3999 : 능력치 감소
-4000 ~ 4999 : 특수 기능 - 버프 
-5000 ~ 5999 : 특수 기능 - 디버프
-6000 ~ 6999 : 스킬의 속성 변경
-7000 ~ 7499 : 게이지 회복
-7500 ~ 7999 : 게이지 소모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAUGE_CONSUME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페널티 게이지 획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>penalty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페널티 게이지 소모</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3131,8 +3131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
@@ -3275,7 +3275,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="44"/>
@@ -3530,8 +3530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3745,7 +3745,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="2" t="b">
         <v>0</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="32">
         <v>7000</v>
@@ -4220,10 +4220,10 @@
         <v>29</v>
       </c>
       <c r="D27" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F27" s="2" t="b">
         <v>0</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="32">
         <v>7001</v>
@@ -4240,10 +4240,10 @@
         <v>29</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="b">
         <v>0</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="32">
         <v>7500</v>
@@ -4260,10 +4260,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="b">
         <v>0</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="32">
         <v>7501</v>
@@ -4280,10 +4280,10 @@
         <v>29</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="2" t="b">
         <v>0</v>

--- a/로스트아크/데이터테이블/Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/Effect_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1D73B5-1AB6-4F31-A304-0C2C2B01C8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AB0939-5C5E-4928-86FC-9A6032D3F0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -1179,7 +1179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="238">
   <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2162,6 +2162,22 @@
   </si>
   <si>
     <t>아이덴티티 게이지를 {"gauge"}%만큼 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paralysis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3012,7 +3028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3410,10 +3426,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:AA90"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3427,16 +3443,16 @@
     <col min="7" max="7" width="17.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.8984375" style="32" customWidth="1"/>
     <col min="9" max="9" width="27.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="73.796875" style="35" customWidth="1"/>
-    <col min="15" max="16" width="15.69921875" style="34" customWidth="1"/>
-    <col min="17" max="18" width="15.69921875" style="33" customWidth="1"/>
-    <col min="19" max="19" width="18.69921875" style="33" customWidth="1"/>
-    <col min="20" max="23" width="15.69921875" style="34" customWidth="1"/>
-    <col min="24" max="27" width="18.69921875" style="33" customWidth="1"/>
-    <col min="28" max="16384" width="8.796875" style="3"/>
+    <col min="10" max="10" width="73.796875" style="35" customWidth="1"/>
+    <col min="11" max="12" width="15.69921875" style="34" customWidth="1"/>
+    <col min="13" max="14" width="15.69921875" style="33" customWidth="1"/>
+    <col min="15" max="15" width="18.69921875" style="33" customWidth="1"/>
+    <col min="16" max="19" width="15.69921875" style="34" customWidth="1"/>
+    <col min="20" max="23" width="18.69921875" style="33" customWidth="1"/>
+    <col min="24" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -3464,24 +3480,24 @@
       <c r="I1" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
       <c r="P1" s="30"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="31" t="s">
         <v>61</v>
       </c>
@@ -3509,24 +3525,24 @@
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="J2" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
       <c r="P2" s="30"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="31" t="s">
         <v>62</v>
       </c>
@@ -3554,24 +3570,24 @@
       <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="J3" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
       <c r="P3" s="30"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="31" t="s">
         <v>60</v>
       </c>
@@ -3599,24 +3615,24 @@
       <c r="I4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="J4" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
       <c r="P4" s="30"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="31" t="s">
         <v>63</v>
       </c>
@@ -3644,24 +3660,24 @@
       <c r="I5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="J5" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="O5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
       <c r="P5" s="30"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-    </row>
-    <row r="6" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="31" t="s">
         <v>221</v>
       </c>
@@ -3689,24 +3705,24 @@
       <c r="I6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="N6" s="35" t="s">
+      <c r="J6" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
       <c r="P6" s="30"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="31" t="s">
         <v>223</v>
       </c>
@@ -3734,11 +3750,11 @@
       <c r="I7" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="J7" s="35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="31" t="s">
         <v>222</v>
       </c>
@@ -3766,24 +3782,24 @@
       <c r="I8" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="N8" s="35" t="s">
+      <c r="J8" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="O8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
       <c r="P8" s="30"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-    </row>
-    <row r="9" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="31" t="s">
         <v>224</v>
       </c>
@@ -3811,24 +3827,24 @@
       <c r="I9" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="N9" s="35" t="s">
+      <c r="J9" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-    </row>
-    <row r="10" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="31" t="s">
         <v>51</v>
       </c>
@@ -3856,24 +3872,24 @@
       <c r="I10" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="N10" s="35" t="s">
+      <c r="J10" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="O10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" s="30"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-    </row>
-    <row r="11" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="31" t="s">
         <v>218</v>
       </c>
@@ -3901,24 +3917,24 @@
       <c r="I11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N11" s="35" t="s">
+      <c r="J11" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="O11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-    </row>
-    <row r="12" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="31" t="s">
         <v>219</v>
       </c>
@@ -3946,24 +3962,24 @@
       <c r="I12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="J12" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="O12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" s="30"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-    </row>
-    <row r="13" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="31" t="s">
         <v>217</v>
       </c>
@@ -3991,24 +4007,24 @@
       <c r="I13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="35" t="s">
+      <c r="J13" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="O13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" s="30"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-    </row>
-    <row r="14" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="31" t="s">
         <v>220</v>
       </c>
@@ -4036,24 +4052,24 @@
       <c r="I14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="35" t="s">
+      <c r="J14" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="O14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" s="30"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-    </row>
-    <row r="15" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -4063,22 +4079,22 @@
       <c r="G15" s="2"/>
       <c r="H15" s="32"/>
       <c r="I15" s="2"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="30"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" s="30"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-    </row>
-    <row r="16" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="31" t="s">
         <v>209</v>
       </c>
@@ -4106,24 +4122,24 @@
       <c r="I16" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="N16" s="35" t="s">
+      <c r="J16" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="O16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" s="30"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" s="31" t="s">
         <v>208</v>
       </c>
@@ -4151,24 +4167,24 @@
       <c r="I17" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="N17" s="35" t="s">
+      <c r="J17" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="O17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" s="30"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18" s="31" t="s">
         <v>206</v>
       </c>
@@ -4196,28 +4212,24 @@
       <c r="I18" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="35" t="s">
+      <c r="J18" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="O18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" s="30"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" s="31" t="s">
         <v>207</v>
       </c>
@@ -4245,30 +4257,24 @@
       <c r="I19" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="N19" s="35" t="s">
+      <c r="J19" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="O19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" s="30"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" s="31" t="s">
         <v>100</v>
       </c>
@@ -4296,15 +4302,11 @@
       <c r="I21" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="35" t="s">
+      <c r="J21" s="35" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" s="31" t="s">
         <v>99</v>
       </c>
@@ -4332,15 +4334,11 @@
       <c r="I22" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="35" t="s">
+      <c r="J22" s="35" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="31" t="s">
         <v>101</v>
       </c>
@@ -4368,15 +4366,11 @@
       <c r="I23" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="35" t="s">
+      <c r="J23" s="35" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" s="31" t="s">
         <v>102</v>
       </c>
@@ -4404,15 +4398,11 @@
       <c r="I24" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="35" t="s">
+      <c r="J24" s="35" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" s="31" t="s">
         <v>145</v>
       </c>
@@ -4440,12 +4430,8 @@
       <c r="I25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" s="31" t="s">
         <v>146</v>
       </c>
@@ -4473,12 +4459,8 @@
       <c r="I26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="31" t="s">
         <v>148</v>
       </c>
@@ -4506,15 +4488,11 @@
       <c r="I27" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="35" t="s">
+      <c r="J27" s="35" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" s="31" t="s">
         <v>147</v>
       </c>
@@ -4542,17 +4520,13 @@
       <c r="I28" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="35" t="s">
+      <c r="J28" s="35" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" s="31" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B29" s="32">
         <v>4008</v>
@@ -4564,7 +4538,7 @@
         <v>73</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>164</v>
@@ -4578,26 +4552,22 @@
       <c r="I29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" s="31" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B30" s="32">
         <v>4009</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>164</v>
@@ -4611,59 +4581,22 @@
       <c r="I30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A31" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="32">
-        <v>4010</v>
-      </c>
-      <c r="C31" s="32" t="s">
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A32" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="32">
+        <v>4980</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A32" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="B32" s="32">
-        <v>4011</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>25</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>164</v>
@@ -4677,26 +4610,22 @@
       <c r="I32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="31" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B33" s="32">
-        <v>4012</v>
+        <v>4981</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D33" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>164</v>
@@ -4710,17 +4639,13 @@
       <c r="I33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="31" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B34" s="32">
-        <v>4013</v>
+        <v>4982</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>22</v>
@@ -4729,7 +4654,7 @@
         <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>164</v>
@@ -4743,59 +4668,42 @@
       <c r="I34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36" s="31" t="s">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="32">
+        <v>4983</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B37" s="32">
         <v>4990</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" s="32">
-        <v>4991</v>
       </c>
       <c r="C37" s="32" t="s">
         <v>22</v>
@@ -4818,20 +4726,16 @@
       <c r="I37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="35" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J37" s="35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B38" s="32">
-        <v>4992</v>
+        <v>4991</v>
       </c>
       <c r="C38" s="32" t="s">
         <v>22</v>
@@ -4854,20 +4758,16 @@
       <c r="I38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J38" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" s="32">
-        <v>4993</v>
+        <v>4992</v>
       </c>
       <c r="C39" s="32" t="s">
         <v>22</v>
@@ -4890,20 +4790,16 @@
       <c r="I39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="35" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J39" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B40" s="32">
-        <v>4994</v>
+        <v>4993</v>
       </c>
       <c r="C40" s="32" t="s">
         <v>22</v>
@@ -4926,20 +4822,16 @@
       <c r="I40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="35" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J40" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B41" s="32">
-        <v>4995</v>
+        <v>4994</v>
       </c>
       <c r="C41" s="32" t="s">
         <v>22</v>
@@ -4962,62 +4854,48 @@
       <c r="I41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="35" t="s">
+      <c r="J41" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="32">
+        <v>4995</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="35" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43" s="31" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B43" s="32">
+      <c r="B44" s="32">
         <v>5000</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A44" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" s="32">
-        <v>5001</v>
       </c>
       <c r="C44" s="32" t="s">
         <v>21</v>
@@ -5026,7 +4904,7 @@
         <v>74</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>160</v>
@@ -5038,22 +4916,18 @@
         <v>89</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+      <c r="J44" s="35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="31" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="B45" s="32">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>21</v>
@@ -5062,7 +4936,7 @@
         <v>74</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>160</v>
@@ -5074,64 +4948,50 @@
         <v>89</v>
       </c>
       <c r="I45" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J45" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="32">
+        <v>5002</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="35" t="s">
+      <c r="J46" s="35" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A47" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="32">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B48" s="32">
         <v>5500</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A48" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" s="32">
-        <v>5501</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>21</v>
@@ -5140,7 +5000,7 @@
         <v>74</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>164</v>
@@ -5148,26 +5008,22 @@
       <c r="G48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="J48" s="35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="31" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="B49" s="32">
-        <v>5502</v>
+        <v>5501</v>
       </c>
       <c r="C49" s="32" t="s">
         <v>21</v>
@@ -5176,7 +5032,7 @@
         <v>74</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>164</v>
@@ -5184,26 +5040,22 @@
       <c r="G49" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="J49" s="35" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="31" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="B50" s="32">
-        <v>5503</v>
+        <v>5502</v>
       </c>
       <c r="C50" s="32" t="s">
         <v>21</v>
@@ -5212,7 +5064,7 @@
         <v>74</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>164</v>
@@ -5224,22 +5076,18 @@
         <v>1</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+      <c r="J50" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B51" s="32">
-        <v>5504</v>
+        <v>5503</v>
       </c>
       <c r="C51" s="32" t="s">
         <v>21</v>
@@ -5248,7 +5096,7 @@
         <v>74</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>164</v>
@@ -5260,22 +5108,18 @@
         <v>1</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+        <v>191</v>
+      </c>
+      <c r="J51" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B52" s="32">
-        <v>5505</v>
+        <v>5504</v>
       </c>
       <c r="C52" s="32" t="s">
         <v>21</v>
@@ -5284,7 +5128,7 @@
         <v>74</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>164</v>
@@ -5296,22 +5140,18 @@
         <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+      <c r="J52" s="35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B53" s="32">
-        <v>5506</v>
+        <v>5505</v>
       </c>
       <c r="C53" s="32" t="s">
         <v>21</v>
@@ -5320,7 +5160,7 @@
         <v>74</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>164</v>
@@ -5332,22 +5172,18 @@
         <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="J53" s="35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B54" s="32">
-        <v>5507</v>
+        <v>5506</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>21</v>
@@ -5356,7 +5192,7 @@
         <v>74</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>164</v>
@@ -5368,22 +5204,18 @@
         <v>1</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+        <v>194</v>
+      </c>
+      <c r="J54" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="31" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B55" s="32">
-        <v>5508</v>
+        <v>5507</v>
       </c>
       <c r="C55" s="32" t="s">
         <v>21</v>
@@ -5392,7 +5224,7 @@
         <v>74</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>164</v>
@@ -5404,22 +5236,18 @@
         <v>1</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+      <c r="J55" s="35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B56" s="32">
-        <v>5509</v>
+        <v>5508</v>
       </c>
       <c r="C56" s="32" t="s">
         <v>21</v>
@@ -5428,7 +5256,7 @@
         <v>74</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>164</v>
@@ -5440,247 +5268,242 @@
         <v>1</v>
       </c>
       <c r="I56" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J56" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="32">
+        <v>5509</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J57" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="32">
+        <v>5510</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J58" s="35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="32">
+        <v>5511</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="35" t="s">
+      <c r="J59" s="35" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A59" s="31" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H60" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A62" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="32">
+      <c r="B62" s="32">
         <v>6000</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C62" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="32" t="s">
+      <c r="D62" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H59" s="32" t="s">
+      <c r="G62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="35" t="s">
+      <c r="I62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J62" s="35" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A60" s="31" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A63" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B60" s="32">
+      <c r="B63" s="32">
         <v>6001</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A61" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="32">
-        <v>6002</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H61" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A63" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B63" s="32">
-        <v>7000</v>
       </c>
       <c r="C63" s="32" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H63" s="32" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J63" s="35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="31" t="s">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="B64" s="32">
-        <v>7001</v>
+        <v>6002</v>
       </c>
       <c r="C64" s="32" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J64" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A66" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="32">
+        <v>7000</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H64" s="32" t="s">
+      <c r="F66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A65" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B65" s="32">
+      <c r="I66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J66" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A67" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="B67" s="32">
         <v>7001</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A67" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" s="32">
-        <v>7500</v>
       </c>
       <c r="C67" s="32" t="s">
         <v>22</v>
@@ -5692,22 +5515,24 @@
         <v>30</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H67" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J67" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B68" s="32">
-        <v>7501</v>
+        <v>7001</v>
       </c>
       <c r="C68" s="32" t="s">
         <v>22</v>
@@ -5719,228 +5544,144 @@
         <v>33</v>
       </c>
       <c r="F68" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A70" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" s="32">
+        <v>7500</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A70" s="31" t="s">
+      <c r="I70" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A71" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="32">
+        <v>7501</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A73" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B70" s="32">
+      <c r="B73" s="32">
         <v>8000</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="C73" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D70" s="32" t="s">
+      <c r="D73" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H70" s="32" t="s">
+      <c r="H73" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="I70" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="35" t="s">
+      <c r="I73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J73" s="35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A71" s="31" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A74" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="32">
+      <c r="B74" s="32">
         <v>8001</v>
       </c>
-      <c r="C71" s="32" t="s">
+      <c r="C74" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D74" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H71" s="32" t="s">
+      <c r="H74" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="I71" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="35" t="s">
+      <c r="I74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J74" s="35" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A72" s="31" t="s">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A75" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B72" s="32">
+      <c r="B75" s="32">
         <v>8002</v>
       </c>
-      <c r="C72" s="32" t="s">
+      <c r="C75" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D72" s="32" t="s">
+      <c r="D75" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H72" s="32" t="s">
+      <c r="H75" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="35" t="s">
+      <c r="I75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J75" s="35" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-    </row>
-    <row r="81" spans="10:13" x14ac:dyDescent="0.4">
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="10:13" x14ac:dyDescent="0.4">
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="10:13" x14ac:dyDescent="0.4">
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="10:13" x14ac:dyDescent="0.4">
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="10:13" x14ac:dyDescent="0.4">
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="10:13" x14ac:dyDescent="0.4">
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="10:13" x14ac:dyDescent="0.4">
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="10:13" x14ac:dyDescent="0.4">
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="10:13" x14ac:dyDescent="0.4">
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="10:13" x14ac:dyDescent="0.4">
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/Effect_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AB0939-5C5E-4928-86FC-9A6032D3F0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA3CF96-D5C6-4BE2-A796-6B3395EFD34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -1179,7 +1179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="244">
   <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1242,23 +1242,6 @@
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">스킬 효과 ID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(우측 'Effect Table의 ID 넘버링' 참고)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1488,10 +1471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[damage]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OBJECT_SPAWN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1583,14 +1562,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[damage,hit_cnt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[damage,tick_time]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[cooldown]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2178,6 +2149,59 @@
   </si>
   <si>
     <t>paralysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">스킬 효과 ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(메모 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[dmg,tick_time]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[dmg]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[dmg,hit_cnt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_earth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_holy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3028,7 +3052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3073,13 +3097,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4" s="8"/>
     </row>
@@ -3097,7 +3121,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="G5" s="8"/>
     </row>
@@ -3106,13 +3130,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>36</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>37</v>
       </c>
       <c r="G6" s="8"/>
     </row>
@@ -3121,13 +3145,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="8"/>
     </row>
@@ -3136,13 +3160,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>18</v>
-      </c>
       <c r="F8" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="8"/>
     </row>
@@ -3151,13 +3175,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G9" s="8"/>
     </row>
@@ -3166,13 +3190,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -3181,13 +3205,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="27" t="s">
         <v>41</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>42</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -3196,13 +3220,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G12" s="8"/>
     </row>
@@ -3217,7 +3241,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2"/>
       <c r="F19" s="26"/>
@@ -3428,8 +3452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3460,28 +3484,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="30"/>
       <c r="L1" s="30"/>
@@ -3499,34 +3523,34 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="32">
         <v>1000</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
@@ -3544,34 +3568,34 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="32">
         <v>1001</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
@@ -3589,34 +3613,34 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="32">
         <v>1002</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K4" s="30"/>
       <c r="L4" s="30"/>
@@ -3634,34 +3658,34 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="32">
         <v>1003</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
@@ -3679,34 +3703,34 @@
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="31" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B6" s="32">
         <v>2000</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
@@ -3724,66 +3748,66 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="31" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B7" s="32">
         <v>2001</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J7" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="31" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B8" s="32">
         <v>2002</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -3801,34 +3825,34 @@
     </row>
     <row r="9" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="31" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B9" s="32">
         <v>2003</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
@@ -3846,34 +3870,34 @@
     </row>
     <row r="10" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="32">
         <v>2004</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
@@ -3891,34 +3915,34 @@
     </row>
     <row r="11" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="31" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B11" s="32">
         <v>2005</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>64</v>
+        <v>236</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
@@ -3936,34 +3960,34 @@
     </row>
     <row r="12" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="31" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B12" s="32">
         <v>2006</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>64</v>
+        <v>236</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J12" s="35" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
@@ -3981,34 +4005,34 @@
     </row>
     <row r="13" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B13" s="32">
         <v>2007</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>64</v>
+        <v>236</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J13" s="35" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
@@ -4026,34 +4050,34 @@
     </row>
     <row r="14" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="31" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B14" s="32">
         <v>2008</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>64</v>
+        <v>236</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
@@ -4096,34 +4120,34 @@
     </row>
     <row r="16" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="31" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B16" s="32">
         <v>3000</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J16" s="35" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
@@ -4141,34 +4165,34 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" s="31" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B17" s="32">
         <v>3001</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
@@ -4186,34 +4210,34 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18" s="31" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B18" s="32">
         <v>3002</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J18" s="35" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
@@ -4231,34 +4255,34 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" s="31" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B19" s="32">
         <v>3003</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J19" s="35" t="s">
         <v>210</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>214</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
@@ -4276,150 +4300,150 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" s="31" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B21" s="32">
         <v>4000</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" s="31" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B22" s="32">
         <v>4001</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B23" s="32">
         <v>4002</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" s="31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B24" s="32">
         <v>4003</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" s="31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="32">
         <v>4004</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>1</v>
@@ -4433,22 +4457,22 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" s="31" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B26" s="32">
         <v>4005</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>1</v>
@@ -4462,86 +4486,86 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="31" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B27" s="32">
         <v>4006</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" s="31" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B28" s="32">
         <v>4007</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" s="31" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B29" s="32">
         <v>4008</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>1</v>
@@ -4555,22 +4579,22 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" s="31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B30" s="32">
         <v>4009</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>1</v>
@@ -4584,22 +4608,22 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" s="31" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B32" s="32">
         <v>4980</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>1</v>
@@ -4613,22 +4637,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B33" s="32">
         <v>4981</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>1</v>
@@ -4642,22 +4666,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="31" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B34" s="32">
         <v>4982</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>1</v>
@@ -4671,22 +4695,22 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="31" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B35" s="32">
         <v>4983</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>1</v>
@@ -4700,22 +4724,22 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B37" s="32">
         <v>4990</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>1</v>
@@ -4727,27 +4751,27 @@
         <v>1</v>
       </c>
       <c r="J37" s="35" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B38" s="32">
         <v>4991</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>1</v>
@@ -4759,27 +4783,27 @@
         <v>1</v>
       </c>
       <c r="J38" s="35" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="31" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B39" s="32">
         <v>4992</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>1</v>
@@ -4791,27 +4815,27 @@
         <v>1</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="31" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B40" s="32">
         <v>4993</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>1</v>
@@ -4823,27 +4847,27 @@
         <v>1</v>
       </c>
       <c r="J40" s="35" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B41" s="32">
         <v>4994</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>1</v>
@@ -4855,27 +4879,27 @@
         <v>1</v>
       </c>
       <c r="J41" s="35" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="31" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B42" s="32">
         <v>4995</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>1</v>
@@ -4887,71 +4911,71 @@
         <v>1</v>
       </c>
       <c r="J42" s="35" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="31" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B44" s="32">
         <v>5000</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H44" s="32" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J44" s="35" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="31" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B45" s="32">
         <v>5001</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H45" s="32" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J45" s="35" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
@@ -4962,48 +4986,48 @@
         <v>5002</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J46" s="35" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="31" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B48" s="32">
         <v>5500</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>1</v>
@@ -5015,27 +5039,27 @@
         <v>1</v>
       </c>
       <c r="J48" s="35" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="31" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B49" s="32">
         <v>5501</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>1</v>
@@ -5047,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="35" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
@@ -5058,16 +5082,16 @@
         <v>5502</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>1</v>
@@ -5076,30 +5100,30 @@
         <v>1</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J50" s="35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="31" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B51" s="32">
         <v>5503</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>1</v>
@@ -5108,30 +5132,30 @@
         <v>1</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J51" s="35" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="31" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B52" s="32">
         <v>5504</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>1</v>
@@ -5140,30 +5164,30 @@
         <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J52" s="35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="31" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B53" s="32">
         <v>5505</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>1</v>
@@ -5172,30 +5196,30 @@
         <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J53" s="35" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="31" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B54" s="32">
         <v>5506</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>1</v>
@@ -5204,30 +5228,30 @@
         <v>1</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J54" s="35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B55" s="32">
         <v>5507</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>1</v>
@@ -5236,30 +5260,30 @@
         <v>1</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J55" s="35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B56" s="32">
         <v>5508</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>1</v>
@@ -5268,30 +5292,30 @@
         <v>1</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J56" s="35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="31" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B57" s="32">
         <v>5509</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>1</v>
@@ -5300,30 +5324,30 @@
         <v>1</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J57" s="35" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B58" s="32">
         <v>5510</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>1</v>
@@ -5332,30 +5356,30 @@
         <v>1</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J58" s="35" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="31" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B59" s="32">
         <v>5511</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>1</v>
@@ -5364,10 +5388,10 @@
         <v>1</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J59" s="35" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
@@ -5375,176 +5399,176 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B62" s="32">
         <v>6000</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H62" s="32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J62" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B63" s="32">
         <v>6001</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H63" s="32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J63" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B64" s="32">
         <v>6002</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H64" s="32" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J64" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B66" s="32">
         <v>7000</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H66" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J66" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="31" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B67" s="32">
         <v>7001</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H67" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J67" s="35" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B68" s="32">
         <v>7001</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>1</v>
@@ -5552,22 +5576,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B70" s="32">
         <v>7500</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>1</v>
@@ -5575,22 +5599,22 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B71" s="32">
         <v>7501</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>1</v>
@@ -5598,89 +5622,89 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B73" s="32">
         <v>8000</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H73" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J73" s="35" t="s">
         <v>178</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H73" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J73" s="35" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B74" s="32">
         <v>8001</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H74" s="32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J74" s="35" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B75" s="32">
         <v>8002</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H75" s="32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J75" s="35" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/로스트아크/데이터테이블/Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/Effect_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA3CF96-D5C6-4BE2-A796-6B3395EFD34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2AE809-5D40-4910-B8C1-8C6F736262CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -1179,7 +1179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="248">
   <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2202,6 +2202,22 @@
   </si>
   <si>
     <t>element_holy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부위파괴 수치 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무력화 수치 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션 리소스 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 리소스 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3053,7 +3069,7 @@
   <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3450,10 +3466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:W75"/>
+  <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3701,37 +3717,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" s="32">
-        <v>2000</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>52</v>
-      </c>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
       <c r="M6" s="2"/>
@@ -3748,66 +3734,31 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="31" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="B7" s="32">
-        <v>2001</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>54</v>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="31" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="B8" s="32">
-        <v>2002</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>53</v>
+        <v>1501</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -3823,37 +3774,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="32">
-        <v>2003</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>55</v>
-      </c>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
       <c r="M9" s="2"/>
@@ -3870,13 +3791,13 @@
     </row>
     <row r="10" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="31" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="B10" s="32">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>69</v>
@@ -3888,16 +3809,16 @@
         <v>78</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>198</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
@@ -3913,81 +3834,68 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="31" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B11" s="32">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>236</v>
+        <v>48</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-    </row>
-    <row r="12" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="31" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B12" s="32">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="J12" s="35" t="s">
-        <v>223</v>
+        <v>53</v>
       </c>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
@@ -4005,34 +3913,34 @@
     </row>
     <row r="13" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="31" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B13" s="32">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>236</v>
+        <v>48</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="J13" s="35" t="s">
-        <v>222</v>
+        <v>55</v>
       </c>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
@@ -4050,10 +3958,10 @@
     </row>
     <row r="14" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="31" t="s">
-        <v>216</v>
+        <v>50</v>
       </c>
       <c r="B14" s="32">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>24</v>
@@ -4062,22 +3970,22 @@
         <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
@@ -4094,16 +4002,36 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="35"/>
+      <c r="A15" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="32">
+        <v>2005</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>85</v>
+      </c>
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
       <c r="M15" s="2"/>
@@ -4120,34 +4048,34 @@
     </row>
     <row r="16" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="31" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B16" s="32">
-        <v>3000</v>
+        <v>2006</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>48</v>
+        <v>236</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="J16" s="35" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
@@ -4163,36 +4091,36 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="31" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B17" s="32">
-        <v>3001</v>
+        <v>2007</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>48</v>
+        <v>236</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
@@ -4208,36 +4136,36 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="31" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B18" s="32">
-        <v>3002</v>
+        <v>2008</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="J18" s="35" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
@@ -4253,37 +4181,17 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A19" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="B19" s="32">
-        <v>3003</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>210</v>
-      </c>
+    <row r="19" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
       <c r="M19" s="2"/>
@@ -4298,140 +4206,192 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
+    <row r="20" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="32">
+        <v>3000</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+    </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" s="31" t="s">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="B21" s="32">
-        <v>4000</v>
+        <v>3001</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>94</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" s="31" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="B22" s="32">
-        <v>4001</v>
+        <v>3002</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>105</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="31" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="B23" s="32">
-        <v>4002</v>
+        <v>3003</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A24" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="32">
-        <v>4003</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>106</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" s="31" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="B25" s="32">
-        <v>4004</v>
+        <v>4000</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>21</v>
@@ -4440,88 +4400,94 @@
         <v>71</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>1</v>
+        <v>197</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" s="31" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="B26" s="32">
-        <v>4005</v>
+        <v>4001</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>1</v>
+        <v>197</v>
+      </c>
+      <c r="J26" s="35" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="31" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B27" s="32">
-        <v>4006</v>
+        <v>4002</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" s="31" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="B28" s="32">
-        <v>4007</v>
+        <v>4003</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>24</v>
@@ -4530,30 +4496,30 @@
         <v>71</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H28" s="32" t="s">
         <v>99</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" s="31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B29" s="32">
-        <v>4008</v>
+        <v>4004</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>21</v>
@@ -4562,7 +4528,7 @@
         <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>160</v>
@@ -4579,19 +4545,19 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B30" s="32">
-        <v>4009</v>
+        <v>4005</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>160</v>
@@ -4606,50 +4572,85 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A31" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="32">
+        <v>4006</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J31" s="35" t="s">
+        <v>146</v>
+      </c>
+    </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" s="31" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B32" s="32">
-        <v>4980</v>
+        <v>4007</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="H32" s="32" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>1</v>
+        <v>196</v>
+      </c>
+      <c r="J32" s="35" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="31" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B33" s="32">
-        <v>4981</v>
+        <v>4008</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D33" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>160</v>
@@ -4666,10 +4667,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="31" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B34" s="32">
-        <v>4982</v>
+        <v>4009</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>21</v>
@@ -4678,7 +4679,7 @@
         <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>160</v>
@@ -4693,50 +4694,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" s="32">
-        <v>4983</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="32" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="32">
+        <v>4980</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="G36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="31" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B37" s="32">
-        <v>4990</v>
+        <v>4981</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D37" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>160</v>
@@ -4744,22 +4745,19 @@
       <c r="G37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="J37" s="35" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="31" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B38" s="32">
-        <v>4991</v>
+        <v>4982</v>
       </c>
       <c r="C38" s="32" t="s">
         <v>21</v>
@@ -4768,7 +4766,7 @@
         <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>160</v>
@@ -4776,31 +4774,28 @@
       <c r="G38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="J38" s="35" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="31" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B39" s="32">
-        <v>4992</v>
+        <v>4983</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D39" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>160</v>
@@ -4808,54 +4803,19 @@
       <c r="G39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="J39" s="35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="B40" s="32">
-        <v>4993</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J40" s="35" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B41" s="32">
-        <v>4994</v>
+        <v>4990</v>
       </c>
       <c r="C41" s="32" t="s">
         <v>21</v>
@@ -4864,7 +4824,7 @@
         <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>160</v>
@@ -4879,15 +4839,15 @@
         <v>1</v>
       </c>
       <c r="J41" s="35" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B42" s="32">
-        <v>4995</v>
+        <v>4991</v>
       </c>
       <c r="C42" s="32" t="s">
         <v>21</v>
@@ -4896,7 +4856,7 @@
         <v>71</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>160</v>
@@ -4911,111 +4871,143 @@
         <v>1</v>
       </c>
       <c r="J42" s="35" t="s">
-        <v>173</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="32">
+        <v>4992</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="35" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="31" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="B44" s="32">
-        <v>5000</v>
+        <v>4993</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H44" s="32" t="s">
-        <v>235</v>
+      <c r="H44" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="J44" s="35" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="31" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="B45" s="32">
-        <v>5001</v>
+        <v>4994</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H45" s="32" t="s">
-        <v>235</v>
+      <c r="H45" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="J45" s="35" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="31" t="s">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="B46" s="32">
-        <v>5002</v>
+        <v>4995</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>9</v>
+        <v>242</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H46" s="32" t="s">
-        <v>235</v>
+      <c r="H46" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="J46" s="35" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="31" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="B48" s="32">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>20</v>
@@ -5024,30 +5016,30 @@
         <v>72</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>233</v>
+        <v>137</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H48" s="32" t="s">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="J48" s="35" t="s">
-        <v>232</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="31" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="B49" s="32">
-        <v>5501</v>
+        <v>5001</v>
       </c>
       <c r="C49" s="32" t="s">
         <v>20</v>
@@ -5056,30 +5048,30 @@
         <v>72</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H49" s="32" t="s">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="J49" s="35" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50" s="32">
-        <v>5502</v>
+        <v>5002</v>
       </c>
       <c r="C50" s="32" t="s">
         <v>20</v>
@@ -5088,62 +5080,30 @@
         <v>72</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>1</v>
+      <c r="H50" s="32" t="s">
+        <v>235</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J50" s="35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B51" s="32">
-        <v>5503</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="J51" s="35" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="31" t="s">
-        <v>118</v>
+        <v>232</v>
       </c>
       <c r="B52" s="32">
-        <v>5504</v>
+        <v>5500</v>
       </c>
       <c r="C52" s="32" t="s">
         <v>20</v>
@@ -5152,7 +5112,7 @@
         <v>72</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>127</v>
+        <v>233</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>160</v>
@@ -5160,22 +5120,22 @@
       <c r="G52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="J52" s="35" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="31" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="B53" s="32">
-        <v>5505</v>
+        <v>5501</v>
       </c>
       <c r="C53" s="32" t="s">
         <v>20</v>
@@ -5184,7 +5144,7 @@
         <v>72</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>160</v>
@@ -5192,22 +5152,22 @@
       <c r="G53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="J53" s="35" t="s">
-        <v>110</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="31" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="B54" s="32">
-        <v>5506</v>
+        <v>5502</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>20</v>
@@ -5216,7 +5176,7 @@
         <v>72</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>160</v>
@@ -5228,18 +5188,18 @@
         <v>1</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="J54" s="35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="31" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B55" s="32">
-        <v>5507</v>
+        <v>5503</v>
       </c>
       <c r="C55" s="32" t="s">
         <v>20</v>
@@ -5248,7 +5208,7 @@
         <v>72</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>160</v>
@@ -5260,18 +5220,18 @@
         <v>1</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J55" s="35" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="31" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B56" s="32">
-        <v>5508</v>
+        <v>5504</v>
       </c>
       <c r="C56" s="32" t="s">
         <v>20</v>
@@ -5280,7 +5240,7 @@
         <v>72</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>160</v>
@@ -5292,18 +5252,18 @@
         <v>1</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J56" s="35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="31" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B57" s="32">
-        <v>5509</v>
+        <v>5505</v>
       </c>
       <c r="C57" s="32" t="s">
         <v>20</v>
@@ -5312,7 +5272,7 @@
         <v>72</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>160</v>
@@ -5324,18 +5284,18 @@
         <v>1</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J57" s="35" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="31" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B58" s="32">
-        <v>5510</v>
+        <v>5506</v>
       </c>
       <c r="C58" s="32" t="s">
         <v>20</v>
@@ -5344,7 +5304,7 @@
         <v>72</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>160</v>
@@ -5356,18 +5316,18 @@
         <v>1</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J58" s="35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B59" s="32">
-        <v>5511</v>
+        <v>5507</v>
       </c>
       <c r="C59" s="32" t="s">
         <v>20</v>
@@ -5376,7 +5336,7 @@
         <v>72</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>160</v>
@@ -5388,198 +5348,245 @@
         <v>1</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J59" s="35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="H60" s="2"/>
+      <c r="A60" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="32">
+        <v>5508</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J60" s="35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A61" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="32">
+        <v>5509</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J61" s="35" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="31" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="B62" s="32">
-        <v>6000</v>
+        <v>5510</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H62" s="32" t="s">
-        <v>86</v>
+      <c r="H62" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="J62" s="35" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="31" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B63" s="32">
-        <v>6001</v>
+        <v>5511</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H63" s="32" t="s">
-        <v>86</v>
+      <c r="H63" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="J63" s="35" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A64" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" s="32">
-        <v>6002</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J64" s="35" t="s">
-        <v>90</v>
-      </c>
+      <c r="H64" s="2"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="31" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B66" s="32">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="C66" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H66" s="32" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J66" s="35" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="31" t="s">
-        <v>227</v>
+        <v>47</v>
       </c>
       <c r="B67" s="32">
-        <v>7001</v>
+        <v>6001</v>
       </c>
       <c r="C67" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>228</v>
+        <v>1</v>
       </c>
       <c r="H67" s="32" t="s">
-        <v>66</v>
+        <v>86</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="J67" s="35" t="s">
-        <v>229</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="31" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B68" s="32">
-        <v>7001</v>
+        <v>6002</v>
       </c>
       <c r="C68" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>78</v>
+        <v>160</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="J68" s="35" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B70" s="32">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="C70" s="32" t="s">
         <v>21</v>
@@ -5591,18 +5598,24 @@
         <v>29</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="H70" s="32" t="s">
+        <v>66</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="J70" s="35" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="31" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="B71" s="32">
-        <v>7501</v>
+        <v>7001</v>
       </c>
       <c r="C71" s="32" t="s">
         <v>21</v>
@@ -5611,100 +5624,191 @@
         <v>39</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H71" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J71" s="35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A72" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="32">
+        <v>7001</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A73" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B73" s="32">
-        <v>8000</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D73" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H73" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J73" s="35" t="s">
-        <v>178</v>
+      <c r="F72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="31" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="B74" s="32">
-        <v>8001</v>
+        <v>7500</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H74" s="32" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="J74" s="35" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="32">
+        <v>7501</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A77" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" s="32">
+        <v>8000</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H77" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J77" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A78" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="32">
+        <v>8001</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H78" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J78" s="35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A79" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="32">
+      <c r="B79" s="32">
         <v>8002</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C79" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="D79" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H75" s="32" t="s">
+      <c r="H79" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J75" s="35" t="s">
+      <c r="I79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J79" s="35" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81" s="32">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="B82" s="32">
+        <v>9001</v>
       </c>
     </row>
   </sheetData>

--- a/로스트아크/데이터테이블/Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/Effect_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2AE809-5D40-4910-B8C1-8C6F736262CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC7F83C-A216-458C-A2BC-BE8525A332BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>ID 넘버링</t>
+          <t>[ID 넘버링]</t>
         </r>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>효과 적용 대상
+          <t>[효과 적용 대상]
 NONE</t>
         </r>
         <r>
@@ -1179,11 +1179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="248">
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="227">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1383,10 +1379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>효과에 필요한 매개변수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>투사체 오브젝트 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1770,10 +1762,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icon_res</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>은신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1944,74 +1932,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>special_debuff_fear.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special_debuff_posion.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special_debuff_burn.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special_debuff_bleed.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bleed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>special_debuff_stun.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special_debuff_sleep.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special_debuff_imprison.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special_debuff_electrocution.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special_debuff_freeze.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special_debuff_petrify.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special_debuff_earthquake.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special_debuff_pest.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special_debuff_fascination.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special_buff_shield.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special_buff_heal.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ability_buff_atkpwr.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격력이 {"atk_pwr"}% 감소한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2020,10 +1944,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ability_debuff_atkpwr.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어력 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2048,10 +1968,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ability_debuff_def.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어력이 {"def"} 감소한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2068,38 +1984,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추가 피해 증가 - 자신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적에게 주는 피해량 증가 - 자신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적에게 주는 피해량 증가 - 파티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 피해 증가 - 파티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 증가 - 자신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 % 증가 - 자신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 증가 - 파티원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 % 증가 - 파티원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>outgoing_dmg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2113,10 +1997,6 @@
   </si>
   <si>
     <t>자신 및 파티원의 추가 피해가 {"damage"}% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이콘 파일 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2218,6 +2098,42 @@
   </si>
   <si>
     <t>이펙트 리소스 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 적중률 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 % 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 주는 피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 피해 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 치명타 적중률이 N% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과에 필요한 매개 변수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2681,9 +2597,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2742,6 +2655,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3066,10 +2982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3079,7 +2995,7 @@
     <col min="3" max="3" width="5.69921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.09765625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="63.09765625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="63.09765625" style="24" customWidth="1"/>
     <col min="7" max="7" width="8.69921875" style="3" customWidth="1"/>
     <col min="8" max="9" width="8.796875" style="2"/>
     <col min="10" max="16384" width="8.796875" style="3"/>
@@ -3087,57 +3003,57 @@
   <sheetData>
     <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>3</v>
-      </c>
       <c r="F5" s="16" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="G5" s="8"/>
     </row>
@@ -3146,13 +3062,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>35</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>36</v>
       </c>
       <c r="G6" s="8"/>
     </row>
@@ -3161,13 +3077,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="27" t="s">
         <v>18</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>17</v>
       </c>
       <c r="G7" s="8"/>
     </row>
@@ -3176,13 +3092,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>34</v>
+      <c r="F8" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="G8" s="8"/>
     </row>
@@ -3191,13 +3107,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>180</v>
+        <v>18</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>177</v>
       </c>
       <c r="G9" s="8"/>
     </row>
@@ -3206,13 +3122,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>226</v>
+        <v>16</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>196</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -3221,69 +3137,57 @@
         <v>7</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C12" s="17">
-        <v>8</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
+    <row r="12" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="F18" s="26"/>
+      <c r="A18" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="36" t="s">
-        <v>68</v>
-      </c>
       <c r="C19" s="2"/>
-      <c r="F19" s="26"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C20" s="2"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="33"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C21" s="2"/>
-      <c r="F21" s="26"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C22" s="2"/>
-      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C24" s="2"/>
+      <c r="F24" s="25"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C25" s="2"/>
-      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C26" s="2"/>
@@ -3449,9 +3353,6 @@
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C81" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3466,2352 +3367,2221 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:W82"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" style="32" customWidth="1"/>
-    <col min="3" max="3" width="10.796875" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.8984375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.59765625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" style="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.8984375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.8984375" style="32" customWidth="1"/>
-    <col min="9" max="9" width="27.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="73.796875" style="35" customWidth="1"/>
-    <col min="11" max="12" width="15.69921875" style="34" customWidth="1"/>
-    <col min="13" max="14" width="15.69921875" style="33" customWidth="1"/>
-    <col min="15" max="15" width="18.69921875" style="33" customWidth="1"/>
-    <col min="16" max="19" width="15.69921875" style="34" customWidth="1"/>
-    <col min="20" max="23" width="18.69921875" style="33" customWidth="1"/>
-    <col min="24" max="16384" width="8.796875" style="3"/>
+    <col min="8" max="8" width="20.8984375" style="31" customWidth="1"/>
+    <col min="9" max="9" width="73.796875" style="34" customWidth="1"/>
+    <col min="10" max="11" width="15.69921875" style="33" customWidth="1"/>
+    <col min="12" max="13" width="15.69921875" style="32" customWidth="1"/>
+    <col min="14" max="14" width="18.69921875" style="32" customWidth="1"/>
+    <col min="15" max="18" width="15.69921875" style="33" customWidth="1"/>
+    <col min="19" max="22" width="18.69921875" style="32" customWidth="1"/>
+    <col min="23" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="32">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A2" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="31">
         <v>1000</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>5</v>
+      <c r="C2" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A3" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="32">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A3" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="31">
         <v>1001</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>5</v>
+      <c r="C3" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A4" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="32">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A4" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="31">
         <v>1002</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>5</v>
+      <c r="C4" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A5" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="32">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A5" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="31">
         <v>1003</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>5</v>
+      <c r="C5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
+        <v>80</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A7" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="B7" s="32">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A7" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="31">
         <v>1500</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A8" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="B8" s="32">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A8" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="31">
         <v>1501</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="32">
+    </row>
+    <row r="10" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="31">
         <v>2000</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>69</v>
+      <c r="C10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A11" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" s="32">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A11" s="40"/>
+      <c r="B11" s="31">
         <v>2001</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>69</v>
+      <c r="C11" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A12" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="B12" s="32">
+        <v>0</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A12" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="31">
         <v>2002</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>69</v>
+      <c r="C12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-    </row>
-    <row r="13" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="B13" s="32">
+    </row>
+    <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="40"/>
+      <c r="B13" s="31">
         <v>2003</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>69</v>
+      <c r="C13" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-    </row>
-    <row r="14" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="32">
+    </row>
+    <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="31">
         <v>2004</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>69</v>
+      <c r="C14" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+        <v>81</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-    </row>
-    <row r="15" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="32">
+    </row>
+    <row r="15" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="31">
         <v>2005</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>69</v>
+      <c r="C15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+        <v>192</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-    </row>
-    <row r="16" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="32">
+    </row>
+    <row r="16" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="40"/>
+      <c r="B16" s="31">
         <v>2006</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>69</v>
+      <c r="C16" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+        <v>192</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-    </row>
-    <row r="17" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17" s="32">
+    </row>
+    <row r="17" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="31">
         <v>2007</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>69</v>
+      <c r="C17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+        <v>191</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-    </row>
-    <row r="18" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" s="32">
+    </row>
+    <row r="18" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="40"/>
+      <c r="B18" s="31">
         <v>2008</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>69</v>
+      <c r="C18" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+        <v>191</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-    </row>
-    <row r="19" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+    </row>
+    <row r="19" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="I19" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-    </row>
-    <row r="20" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="B20" s="32">
-        <v>3000</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+    </row>
+    <row r="20" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A21" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="32">
-        <v>3001</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
+    </row>
+    <row r="21" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A22" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="B22" s="32">
-        <v>3002</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>70</v>
+    </row>
+    <row r="22" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>68</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J22" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A23" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="B23" s="32">
-        <v>3003</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>70</v>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A23" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="31">
+        <v>3001</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>68</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A25" s="31" t="s">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A24" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="31">
+        <v>3002</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A25" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="31">
+        <v>3003</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A27" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="31">
+        <v>4000</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A28" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="31">
+        <v>4001</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A29" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="31">
+        <v>4002</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A30" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="32">
-        <v>4000</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A26" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="32">
-        <v>4001</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J26" s="35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A27" s="31" t="s">
+      <c r="B30" s="31">
+        <v>4003</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="32">
-        <v>4002</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J27" s="35" t="s">
+      <c r="I30" s="34" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A28" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="32">
-        <v>4003</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J28" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A29" s="31" t="s">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A31" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="31">
+        <v>4004</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A32" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="31">
+        <v>4005</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="32">
-        <v>4004</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="B33" s="31">
+        <v>4006</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="31">
+        <v>4007</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="31">
+        <v>4008</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A30" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="32">
-        <v>4005</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A31" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="32">
-        <v>4006</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J31" s="35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A32" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="32">
-        <v>4007</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H32" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J32" s="35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" s="32">
-        <v>4008</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B34" s="32">
+      <c r="F35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="31">
         <v>4009</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="B36" s="32">
-        <v>4980</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>71</v>
+      <c r="C36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="31">
+        <v>4980</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="31">
+        <v>4981</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="31">
+        <v>4982</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="31">
+        <v>4983</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="31">
+        <v>4990</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="31">
+        <v>4991</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="32">
-        <v>4981</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" s="32">
-        <v>4982</v>
-      </c>
-      <c r="C38" s="32" t="s">
+      <c r="B45" s="31">
+        <v>4992</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="31">
+        <v>4993</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" s="31">
+        <v>4994</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" s="31">
+        <v>4995</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" s="31">
+        <v>5000</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="I50" s="34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="31">
+        <v>5001</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="I51" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="31">
+        <v>5002</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="I52" s="34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" s="31">
+        <v>5500</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" s="34" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" s="31">
+        <v>5501</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I55" s="34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="31">
+        <v>5502</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I56" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="31">
+        <v>5503</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I57" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="31">
+        <v>5504</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I58" s="34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="31">
+        <v>5505</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I59" s="34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="31">
+        <v>5506</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" s="34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="31">
+        <v>5507</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I61" s="34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="31">
+        <v>5508</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="31">
+        <v>5509</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I63" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="31">
+        <v>5510</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="31">
+        <v>5511</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I65" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H66" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="31">
+        <v>6000</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H68" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I68" s="34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" s="31">
+        <v>6001</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H69" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I69" s="34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H38" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B39" s="32">
-        <v>4983</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" s="32">
-        <v>4990</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J41" s="35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="32">
-        <v>4991</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J42" s="35" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="B43" s="32">
-        <v>4992</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J43" s="35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="B44" s="32">
-        <v>4993</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J44" s="35" t="s">
+      <c r="B70" s="31">
+        <v>6002</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H70" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I70" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="31">
+        <v>7000</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I72" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" s="31">
+        <v>7001</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H73" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I73" s="34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="31">
+        <v>7001</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" s="31">
+        <v>7500</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="31">
+        <v>7501</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="31">
+        <v>8000</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="B45" s="32">
-        <v>4994</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J45" s="35" t="s">
+      <c r="F79" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H79" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I79" s="34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="31">
+        <v>8001</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" s="32">
-        <v>4995</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J46" s="35" t="s">
+      <c r="F80" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H80" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I80" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="31">
+        <v>8002</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="32">
-        <v>5000</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J48" s="35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A49" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" s="32">
-        <v>5001</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J49" s="35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A50" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="32">
-        <v>5002</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J50" s="35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="B52" s="32">
-        <v>5500</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J52" s="35" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A53" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="B53" s="32">
-        <v>5501</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H53" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J53" s="35" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A54" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="32">
-        <v>5502</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J54" s="35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A55" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B55" s="32">
-        <v>5503</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="J55" s="35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" s="32">
-        <v>5504</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J56" s="35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B57" s="32">
-        <v>5505</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J57" s="35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58" s="32">
-        <v>5506</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J58" s="35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" s="32">
-        <v>5507</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J59" s="35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="32">
-        <v>5508</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J60" s="35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A61" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="32">
-        <v>5509</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J61" s="35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A62" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" s="32">
-        <v>5510</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J62" s="35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A63" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" s="32">
-        <v>5511</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J63" s="35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="H64" s="2"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A66" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="32">
-        <v>6000</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H66" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J66" s="35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A67" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B67" s="32">
-        <v>6001</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H67" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J67" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A68" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B68" s="32">
-        <v>6002</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H68" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J68" s="35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A70" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="32">
-        <v>7000</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H70" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J70" s="35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A71" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="B71" s="32">
-        <v>7001</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H71" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="J71" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A72" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B72" s="32">
-        <v>7001</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A74" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B74" s="32">
-        <v>7500</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A75" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B75" s="32">
-        <v>7501</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A77" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77" s="32">
-        <v>8000</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D77" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H77" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J77" s="35" t="s">
+      <c r="F81" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A78" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" s="32">
-        <v>8001</v>
-      </c>
-      <c r="C78" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D78" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H78" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J78" s="35" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A79" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B79" s="32">
-        <v>8002</v>
-      </c>
-      <c r="C79" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D79" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E79" s="2" t="s">
+      <c r="H81" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I81" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H79" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J79" s="35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A81" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="B81" s="32">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B83" s="31">
         <v>9000</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A82" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="B82" s="32">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B84" s="31">
         <v>9001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/로스트아크/데이터테이블/Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/Effect_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC7F83C-A216-458C-A2BC-BE8525A332BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A17A8F7-C2F4-46AE-9E4D-7ED930F9A6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -1179,7 +1179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="232">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2129,11 +2129,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>param</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과에 필요한 매개 변수</t>
+    <t>weak_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[weak_point]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[stagger]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[pos_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과의 전체 매개 변수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2536,7 +2556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2627,9 +2647,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2648,6 +2665,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2655,9 +2675,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2984,8 +3001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3137,13 +3154,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>225</v>
+        <v>39</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -3157,7 +3174,7 @@
       <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="2"/>
@@ -3165,8 +3182,8 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C19" s="2"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="32"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C20" s="2"/>
@@ -3174,7 +3191,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C21" s="2"/>
-      <c r="F21" s="36"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C22" s="2"/>
@@ -3369,26 +3386,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:V84"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" style="31" customWidth="1"/>
-    <col min="3" max="3" width="10.796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.8984375" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.59765625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" style="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.8984375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.8984375" style="31" customWidth="1"/>
-    <col min="9" max="9" width="73.796875" style="34" customWidth="1"/>
-    <col min="10" max="11" width="15.69921875" style="33" customWidth="1"/>
-    <col min="12" max="13" width="15.69921875" style="32" customWidth="1"/>
-    <col min="14" max="14" width="18.69921875" style="32" customWidth="1"/>
-    <col min="15" max="18" width="15.69921875" style="33" customWidth="1"/>
-    <col min="19" max="22" width="18.69921875" style="32" customWidth="1"/>
+    <col min="8" max="8" width="20.8984375" style="30" customWidth="1"/>
+    <col min="9" max="9" width="73.796875" style="33" customWidth="1"/>
+    <col min="10" max="11" width="15.69921875" style="32" customWidth="1"/>
+    <col min="12" max="13" width="15.69921875" style="31" customWidth="1"/>
+    <col min="14" max="14" width="18.69921875" style="31" customWidth="1"/>
+    <col min="15" max="18" width="15.69921875" style="32" customWidth="1"/>
+    <col min="19" max="22" width="18.69921875" style="31" customWidth="1"/>
     <col min="23" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
@@ -3435,16 +3452,16 @@
       <c r="V1" s="2"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="30">
         <v>1000</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3456,10 +3473,10 @@
       <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="33" t="s">
         <v>54</v>
       </c>
       <c r="J2" s="29"/>
@@ -3477,16 +3494,16 @@
       <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="30">
         <v>1001</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -3498,10 +3515,10 @@
       <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="33" t="s">
         <v>55</v>
       </c>
       <c r="J3" s="29"/>
@@ -3519,16 +3536,16 @@
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="30">
         <v>1002</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -3540,10 +3557,10 @@
       <c r="G4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="33" t="s">
         <v>63</v>
       </c>
       <c r="J4" s="29"/>
@@ -3561,16 +3578,16 @@
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="30">
         <v>1003</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -3582,10 +3599,10 @@
       <c r="G5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>101</v>
       </c>
       <c r="J5" s="29"/>
@@ -3617,12 +3634,33 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A7" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" s="31">
-        <v>1500</v>
+    <row r="7" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="30">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
@@ -3639,27 +3677,59 @@
       <c r="V7" s="2"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A8" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="31">
-        <v>1501</v>
-      </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
+      <c r="B8" s="30">
+        <v>2001</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A9" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="30">
+        <v>2002</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>51</v>
+      </c>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="2"/>
@@ -3675,32 +3745,30 @@
       <c r="V9" s="2"/>
     </row>
     <row r="10" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="31">
-        <v>2000</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="31" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="30">
+        <v>2003</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="34" t="s">
-        <v>50</v>
+      <c r="I10" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -3716,15 +3784,17 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A11" s="40"/>
-      <c r="B11" s="31">
-        <v>2001</v>
-      </c>
-      <c r="C11" s="31" t="s">
+    <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="30">
+        <v>2004</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -3734,42 +3804,55 @@
         <v>76</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A12" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="B12" s="31">
-        <v>2002</v>
-      </c>
-      <c r="C12" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="30">
+        <v>2005</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="30" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>51</v>
+        <v>192</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>83</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
@@ -3786,30 +3869,30 @@
       <c r="V12" s="2"/>
     </row>
     <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="40"/>
-      <c r="B13" s="31">
-        <v>2003</v>
-      </c>
-      <c r="C13" s="31" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="30">
+        <v>2006</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>53</v>
+        <v>192</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -3826,32 +3909,32 @@
       <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="31">
-        <v>2004</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="31" t="s">
+      <c r="A14" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="30">
+        <v>2007</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>99</v>
+        <v>191</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>193</v>
       </c>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
@@ -3868,32 +3951,30 @@
       <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="B15" s="31">
-        <v>2005</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="31" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="30">
+        <v>2008</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H15" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="I15" s="34" t="s">
-        <v>83</v>
+      <c r="I15" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
@@ -3910,30 +3991,28 @@
       <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="40"/>
-      <c r="B16" s="31">
-        <v>2006</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="31" t="s">
+      <c r="A16" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>194</v>
+        <v>223</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="33" t="s">
+        <v>224</v>
       </c>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
@@ -3950,33 +4029,15 @@
       <c r="V16" s="2"/>
     </row>
     <row r="17" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="B17" s="31">
-        <v>2007</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>193</v>
-      </c>
+      <c r="A17" s="36"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="2"/>
@@ -3991,32 +4052,7 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="40"/>
-      <c r="B18" s="31">
-        <v>2008</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>195</v>
-      </c>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="2"/>
@@ -4032,28 +4068,32 @@
       <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>67</v>
+      <c r="A19" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="30">
+        <v>3000</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>223</v>
+        <v>25</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="34" t="s">
-        <v>224</v>
+        <v>0</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>181</v>
       </c>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
@@ -4069,16 +4109,34 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="34"/>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A20" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="30">
+        <v>3001</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>180</v>
+      </c>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="2"/>
@@ -4093,16 +4151,34 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="34"/>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A21" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="30">
+        <v>3002</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>188</v>
+      </c>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="2"/>
@@ -4117,33 +4193,33 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="B22" s="31">
-        <v>3000</v>
-      </c>
-      <c r="C22" s="31" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A22" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="30">
+        <v>3003</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="30" t="s">
         <v>68</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>181</v>
+      <c r="H22" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>189</v>
       </c>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
@@ -4159,143 +4235,104 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A23" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" s="31">
-        <v>3001</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-    </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A24" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="B24" s="31">
-        <v>3002</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>68</v>
+      <c r="A24" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="30">
+        <v>4000</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A25" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" s="31">
-        <v>3003</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>68</v>
+      <c r="A25" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="30">
+        <v>4001</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A26" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="30">
+        <v>4002</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A27" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="31">
-        <v>4000</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="31" t="s">
+      <c r="A27" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="30">
+        <v>4003</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -4307,141 +4344,138 @@
       <c r="G27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H27" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="34" t="s">
-        <v>92</v>
+      <c r="H27" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A28" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="31">
-        <v>4001</v>
-      </c>
-      <c r="C28" s="31" t="s">
+      <c r="A28" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="30">
+        <v>4004</v>
+      </c>
+      <c r="C28" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="34" t="s">
-        <v>103</v>
+        <v>0</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A29" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="31">
-        <v>4002</v>
-      </c>
-      <c r="C29" s="31" t="s">
+      <c r="A29" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="30">
+        <v>4005</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="34" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A30" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="31">
-        <v>4003</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="31" t="s">
+      <c r="A30" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="30">
+        <v>4006</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="I30" s="34" t="s">
-        <v>104</v>
+      <c r="I30" s="33" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A31" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" s="31">
-        <v>4004</v>
-      </c>
-      <c r="C31" s="31" t="s">
+      <c r="A31" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="30">
+        <v>4007</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A32" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="30">
+        <v>4008</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D32" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A32" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B32" s="31">
-        <v>4005</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>69</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>157</v>
@@ -4449,83 +4483,51 @@
       <c r="G32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="30" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="31">
-        <v>4006</v>
-      </c>
-      <c r="C33" s="31" t="s">
+      <c r="A33" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="30">
+        <v>4009</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="I33" s="34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="B34" s="31">
-        <v>4007</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="30">
+        <v>4980</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" s="34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B35" s="31">
-        <v>4008</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>69</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>157</v>
@@ -4533,25 +4535,25 @@
       <c r="G35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H35" s="31" t="s">
+      <c r="H35" s="30" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="31">
-        <v>4009</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="31" t="s">
+      <c r="A36" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="30">
+        <v>4981</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>157</v>
@@ -4559,25 +4561,51 @@
       <c r="G36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="31" t="s">
+      <c r="H36" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="30">
+        <v>4982</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="30" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38" s="31">
-        <v>4980</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="31" t="s">
+      <c r="A38" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="30">
+        <v>4983</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>157</v>
@@ -4585,51 +4613,25 @@
       <c r="G38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H38" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="31">
-        <v>4981</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="31" t="s">
+      <c r="H38" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="30">
+        <v>4990</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" s="31">
-        <v>4982</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>69</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>157</v>
@@ -4637,25 +4639,28 @@
       <c r="G40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H40" s="31" t="s">
-        <v>0</v>
+      <c r="H40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" s="31">
-        <v>4983</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="31" t="s">
+      <c r="A41" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="30">
+        <v>4991</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>157</v>
@@ -4663,25 +4668,57 @@
       <c r="G41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="31" t="s">
-        <v>0</v>
+      <c r="H41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="30">
+        <v>4992</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B43" s="31">
-        <v>4990</v>
-      </c>
-      <c r="C43" s="31" t="s">
+      <c r="A43" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="30">
+        <v>4993</v>
+      </c>
+      <c r="C43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>157</v>
@@ -4692,25 +4729,25 @@
       <c r="H43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I43" s="34" t="s">
-        <v>165</v>
+      <c r="I43" s="33" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B44" s="31">
-        <v>4991</v>
-      </c>
-      <c r="C44" s="31" t="s">
+      <c r="A44" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="30">
+        <v>4994</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>157</v>
@@ -4721,25 +4758,25 @@
       <c r="H44" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I44" s="34" t="s">
-        <v>166</v>
+      <c r="I44" s="33" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B45" s="31">
-        <v>4992</v>
-      </c>
-      <c r="C45" s="31" t="s">
+      <c r="A45" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="30">
+        <v>4995</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>157</v>
@@ -4750,199 +4787,228 @@
       <c r="H45" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I45" s="34" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B46" s="31">
-        <v>4993</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="I45" s="33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="30">
+        <v>5000</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I47" s="33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="30">
+        <v>5001</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I48" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="30">
+        <v>5002</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I49" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="30">
+        <v>5100</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I46" s="34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B47" s="31">
-        <v>4994</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="G50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="30">
+        <v>5101</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I47" s="34" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="B48" s="31">
-        <v>4995</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="G51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="30">
+        <v>5102</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B50" s="31">
-        <v>5000</v>
-      </c>
-      <c r="C50" s="31" t="s">
+      <c r="G52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I52" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="30">
+        <v>5103</v>
+      </c>
+      <c r="C53" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D53" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="I50" s="34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" s="31">
-        <v>5001</v>
-      </c>
-      <c r="C51" s="31" t="s">
+      <c r="E53" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="30">
+        <v>5104</v>
+      </c>
+      <c r="C54" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D54" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H51" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="I51" s="34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A52" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="31">
-        <v>5002</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H52" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="I52" s="34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A54" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="B54" s="31">
-        <v>5500</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>70</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>157</v>
@@ -4950,28 +5016,28 @@
       <c r="G54" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H54" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I54" s="34" t="s">
-        <v>202</v>
+      <c r="H54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" s="33" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A55" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B55" s="31">
-        <v>5501</v>
-      </c>
-      <c r="C55" s="31" t="s">
+      <c r="A55" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="30">
+        <v>5105</v>
+      </c>
+      <c r="C55" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="30" t="s">
         <v>70</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>157</v>
@@ -4979,28 +5045,28 @@
       <c r="G55" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H55" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I55" s="34" t="s">
-        <v>200</v>
+      <c r="H55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I55" s="33" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A56" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="31">
-        <v>5502</v>
-      </c>
-      <c r="C56" s="31" t="s">
+      <c r="A56" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="30">
+        <v>5106</v>
+      </c>
+      <c r="C56" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="30" t="s">
         <v>70</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>157</v>
@@ -5011,25 +5077,25 @@
       <c r="H56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I56" s="34" t="s">
-        <v>105</v>
+      <c r="I56" s="33" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A57" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="31">
-        <v>5503</v>
-      </c>
-      <c r="C57" s="31" t="s">
+      <c r="A57" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="30">
+        <v>5107</v>
+      </c>
+      <c r="C57" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="30" t="s">
         <v>70</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>157</v>
@@ -5040,25 +5106,25 @@
       <c r="H57" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I57" s="34" t="s">
-        <v>106</v>
+      <c r="I57" s="33" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="31">
-        <v>5504</v>
-      </c>
-      <c r="C58" s="31" t="s">
+      <c r="A58" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="30">
+        <v>5108</v>
+      </c>
+      <c r="C58" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="30" t="s">
         <v>70</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>157</v>
@@ -5069,25 +5135,25 @@
       <c r="H58" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I58" s="34" t="s">
-        <v>107</v>
+      <c r="I58" s="33" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="31">
-        <v>5505</v>
-      </c>
-      <c r="C59" s="31" t="s">
+      <c r="A59" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="30">
+        <v>5109</v>
+      </c>
+      <c r="C59" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="30" t="s">
         <v>70</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>157</v>
@@ -5098,54 +5164,25 @@
       <c r="H59" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I59" s="34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A60" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="31">
-        <v>5506</v>
-      </c>
-      <c r="C60" s="31" t="s">
+      <c r="I59" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B61" s="30">
+        <v>5500</v>
+      </c>
+      <c r="C61" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D61" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I60" s="34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" s="31">
-        <v>5507</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="31" t="s">
-        <v>70</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>157</v>
@@ -5153,28 +5190,28 @@
       <c r="G61" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I61" s="34" t="s">
-        <v>110</v>
+      <c r="H61" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I61" s="33" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A62" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="31">
-        <v>5508</v>
-      </c>
-      <c r="C62" s="31" t="s">
+      <c r="A62" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B62" s="30">
+        <v>5501</v>
+      </c>
+      <c r="C62" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="30" t="s">
         <v>70</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>157</v>
@@ -5182,201 +5219,192 @@
       <c r="G62" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I62" s="34" t="s">
-        <v>111</v>
+      <c r="H62" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="I62" s="33" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A63" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="31">
-        <v>5509</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="H63" s="2"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A65" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="30">
+        <v>6000</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I65" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A66" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="30">
+        <v>6001</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H66" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I66" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="30">
+        <v>6002</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I63" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A64" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="31">
-        <v>5510</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I64" s="34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B65" s="31">
-        <v>5511</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I65" s="34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H66" s="2"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" s="31">
-        <v>6000</v>
-      </c>
-      <c r="C68" s="31" t="s">
+      <c r="G67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I67" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A69" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B69" s="30">
+        <v>6500</v>
+      </c>
+      <c r="C69" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="31" t="s">
+      <c r="D69" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H68" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="I68" s="34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A69" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B69" s="31">
-        <v>6001</v>
-      </c>
-      <c r="C69" s="31" t="s">
+      <c r="E69" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H69" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A70" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" s="30">
+        <v>6501</v>
+      </c>
+      <c r="C70" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D70" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H69" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="I69" s="34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A70" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70" s="31">
-        <v>6002</v>
-      </c>
-      <c r="C70" s="31" t="s">
+      <c r="E70" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A72" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="30">
+        <v>7000</v>
+      </c>
+      <c r="C72" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H70" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="I70" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A72" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B72" s="31">
-        <v>7000</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="31" t="s">
+      <c r="D72" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -5385,24 +5413,24 @@
       <c r="F72" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H72" s="31" t="s">
+      <c r="H72" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="I72" s="34" t="s">
+      <c r="I72" s="33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A73" s="30" t="s">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A73" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="B73" s="31">
+      <c r="B73" s="30">
         <v>7001</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E73" s="2" t="s">
@@ -5414,24 +5442,24 @@
       <c r="G73" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H73" s="31" t="s">
+      <c r="H73" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="I73" s="34" t="s">
+      <c r="I73" s="33" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A74" s="30" t="s">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A74" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B74" s="31">
+      <c r="B74" s="30">
         <v>7001</v>
       </c>
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="31" t="s">
+      <c r="D74" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -5441,17 +5469,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A76" s="30" t="s">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A76" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B76" s="31">
+      <c r="B76" s="30">
         <v>7500</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -5461,17 +5489,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" s="30" t="s">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A77" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="31">
+      <c r="B77" s="30">
         <v>7501</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="31" t="s">
+      <c r="D77" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -5481,17 +5509,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A79" s="30" t="s">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A79" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B79" s="31">
+      <c r="B79" s="30">
         <v>8000</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="31" t="s">
+      <c r="D79" s="30" t="s">
         <v>61</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -5500,24 +5528,24 @@
       <c r="F79" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H79" s="31" t="s">
+      <c r="H79" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I79" s="34" t="s">
+      <c r="I79" s="33" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A80" s="30" t="s">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A80" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B80" s="31">
+      <c r="B80" s="30">
         <v>8001</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="31" t="s">
+      <c r="D80" s="30" t="s">
         <v>61</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -5526,24 +5554,24 @@
       <c r="F80" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H80" s="31" t="s">
+      <c r="H80" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I80" s="34" t="s">
+      <c r="I80" s="33" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B81" s="31">
+      <c r="B81" s="30">
         <v>8002</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="31" t="s">
+      <c r="D81" s="30" t="s">
         <v>61</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -5552,36 +5580,30 @@
       <c r="F81" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H81" s="31" t="s">
+      <c r="H81" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I81" s="34" t="s">
+      <c r="I81" s="33" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="B83" s="31">
+      <c r="B83" s="30">
         <v>9000</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="B84" s="31">
+      <c r="B84" s="30">
         <v>9001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/로스트아크/데이터테이블/Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/Effect_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F064C4E1-9144-4059-9E7C-BF18E5EAD628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F81184-7DE9-4CB0-9171-60DEE50449D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="9216" yWindow="0" windowWidth="13920" windowHeight="12336" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -1179,7 +1179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="182">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1340,10 +1340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>percent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[atk_pwr]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1356,54 +1352,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신의 공격력이 {"atk_pwr"} 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신의 공격력이 {"atk_pwr"}% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신 및 파티원의 공격력이 {"atk_pwr"} 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신 및 파티원의 공격력이 {"atk_pwr"}% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"damage"}의 피해를 {"hit_cnt"}번 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"damage"}의 고정 피해를 {"hit_cnt"}번 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TICK 대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정 대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 체력 비례 대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OBJECT_SPAWN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1412,18 +1364,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"tick_time"}마다 {"damage"}의 피해를 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[gauge]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이덴티티 게이지를 {"gauge"}만큼 회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1491,30 +1435,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적에게 주는 피해가 {"damage"}% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[cooldown]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전체 스킬의 재사용 대기 시간을 {"cooldown"}초 감소시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 스킬의 재사용 대기 시간을 {"cooldown"}% 감소시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[element]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬에 {"element"}속성을 부여한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cur_hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1527,10 +1455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자신의 생명력을 {"hp"}만큼 회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[max_hp_ratio]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1539,70 +1463,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자신 및 파티원의 파티원의 공격력에 자신의 기본 공격력의 {"base_atk_pwr_ratio"}%만큼 더한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[max_hp_ratio,hit_cnt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상 최대 체력의 {"max_hp_ratio"}%에 해당하는 피해를 {"hit_cnt"}번 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신 및 파티원의 생명력을 {"hp"}만큼 회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신의 생명력을 최대 생명력의 {"max_hp_ratio"}%만큼 회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신 및 파티원의 생명력을 최대 생명력의 {"max_hp_ratio"}%만큼 회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공포에 걸려 행동 불가 상태가 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기절에 걸려 행동 불가 상태가 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수면에 걸려 행동 불가 상태가 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감금 상태가 되어 행동 불가 상태가 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감전에 걸려 행동 불가 상태가 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동결에 걸려 행동 불가 상태가 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>석화에 걸려 행동 불가 상태가 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지진에 걸려 행동 불가 상태가 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해충에 걸려 행동 불가 상태가 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매혹 상태에 빠져 적대적 상태가 되며, 시간이 다 되면 정기가 모두 빠져 사망한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상태이상 - 기절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1695,14 +1555,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자신 및 파티원에게 자신의 최대 생명력의 {"hp_ratio"}%만큼 피해를 흡수하는 보호막을 부여한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신의 최대 생명력의 {"hp_ratio"}%만큼 피해를 흡수하는 보호막을 부여한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>invincibility</t>
   </si>
   <si>
@@ -1725,18 +1577,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>중독 - {"tick_time"}마다 {"damage"}의 피해를 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출혈 - {"tick_time"}마다 {"damage"}의 피해를 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화상 - {"tick_time"}마다 {"damage"}의 [화]속성 마법 피해를 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GRANT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1769,30 +1609,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격 속성을 [성]속성으로 변환한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 속성을 [암]속성으로 변환한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 속성을 [화]속성으로 변환한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 속성을 [수]속성으로 변환한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 속성을 [토]속성으로 변환한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 속성을 [뇌]속성으로 변환한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>projectile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1805,18 +1621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해당 지점에 id = {"obj_id"}인 오브젝트를 생성한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id = {"obj_id"}인 오브젝트를 생성하여 발사한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id = {"obj_id"}인 소환수를 소환한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>효과가 적용되는 방식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1829,14 +1633,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력이 {"atk_pwr"}% 감소한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력이 {"atk_pwr"} 감소한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어력 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1861,14 +1657,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력이 {"def"} 감소한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력이 {"def"}% 감소한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>outgoing_damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1881,18 +1669,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추가 피해가 {"damage"}% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신 및 파티원의 적에게 주는 피해가 {"damage"}% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신 및 파티원의 추가 피해가 {"damage"}% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비율 연산의 기준 스탯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1905,10 +1681,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이덴티티 게이지를 {"gauge"}%만큼 회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피격 이상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1933,10 +1705,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[dmg,hit_cnt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>element_fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2001,10 +1769,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자신의 치명타 적중률이 N% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weak_point</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2026,10 +1790,6 @@
   </si>
   <si>
     <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과의 전체 매개 변수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2170,6 +1930,30 @@
   </si>
   <si>
     <t>상태 이상 면역 (파티)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 적용에 필요한 전체 매개 변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력 비례 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2572,7 +2356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2677,9 +2461,6 @@
     </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -3020,8 +2801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -3039,11 +2820,11 @@
   <sheetData>
     <row r="1" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="5" t="s">
@@ -3065,13 +2846,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G4" s="8"/>
     </row>
@@ -3090,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="G5" s="8"/>
     </row>
@@ -3106,7 +2887,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G6" s="8"/>
     </row>
@@ -3122,7 +2903,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="G7" s="8"/>
     </row>
@@ -3138,7 +2919,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="G8" s="8"/>
     </row>
@@ -3148,13 +2929,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="G9" s="8"/>
     </row>
@@ -3164,13 +2945,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -3183,10 +2964,10 @@
         <v>36</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -3201,7 +2982,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="26" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2"/>
       <c r="F18" s="25"/>
@@ -3409,34 +3190,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.796875" style="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.3984375" style="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.3984375" style="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.19921875" style="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.296875" style="32" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.09765625" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.19921875" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="62.796875" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.69921875" style="36" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.296875" style="35" customWidth="1"/>
+    <col min="10" max="11" width="15.69921875" style="35" customWidth="1"/>
     <col min="12" max="13" width="15.69921875" style="33" customWidth="1"/>
     <col min="14" max="14" width="18.69921875" style="33" customWidth="1"/>
-    <col min="15" max="18" width="15.69921875" style="36" customWidth="1"/>
+    <col min="15" max="18" width="15.69921875" style="35" customWidth="1"/>
     <col min="19" max="22" width="18.69921875" style="33" customWidth="1"/>
     <col min="23" max="16384" width="8.796875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>1</v>
@@ -3451,17 +3232,15 @@
         <v>15</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>44</v>
-      </c>
+      <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
       <c r="L1" s="2"/>
@@ -3477,8 +3256,8 @@
       <c r="V1" s="2"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
-        <v>53</v>
+      <c r="A2" s="36" t="s">
+        <v>177</v>
       </c>
       <c r="B2" s="34">
         <v>1000</v>
@@ -3493,17 +3272,12 @@
         <v>21</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>49</v>
-      </c>
+      <c r="I2" s="31"/>
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
       <c r="L2" s="32"/>
@@ -3519,8 +3293,8 @@
       <c r="V2" s="32"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A3" s="37" t="s">
-        <v>54</v>
+      <c r="A3" s="36" t="s">
+        <v>178</v>
       </c>
       <c r="B3" s="34">
         <v>1001</v>
@@ -3535,17 +3309,12 @@
         <v>23</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>50</v>
-      </c>
+      <c r="I3" s="31"/>
       <c r="J3" s="31"/>
       <c r="K3" s="31"/>
       <c r="L3" s="32"/>
@@ -3561,8 +3330,8 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A4" s="37" t="s">
-        <v>52</v>
+      <c r="A4" s="36" t="s">
+        <v>179</v>
       </c>
       <c r="B4" s="34">
         <v>1002</v>
@@ -3574,20 +3343,15 @@
         <v>4</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="G4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>58</v>
-      </c>
+      <c r="I4" s="31"/>
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
       <c r="L4" s="32"/>
@@ -3603,8 +3367,8 @@
       <c r="V4" s="32"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
-        <v>55</v>
+      <c r="A5" s="36" t="s">
+        <v>180</v>
       </c>
       <c r="B5" s="34">
         <v>1003</v>
@@ -3616,20 +3380,15 @@
         <v>4</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>92</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="I5" s="31"/>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="32"/>
@@ -3645,6 +3404,7 @@
       <c r="V5" s="32"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="I6" s="31"/>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
       <c r="L6" s="32"/>
@@ -3659,130 +3419,99 @@
       <c r="U6" s="32"/>
       <c r="V6" s="32"/>
     </row>
-    <row r="7" spans="1:22" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="B7" s="34">
-        <v>2000</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>45</v>
-      </c>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="I7" s="31"/>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
       <c r="O7" s="31"/>
       <c r="P7" s="31"/>
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A8" s="37" t="s">
-        <v>220</v>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+    </row>
+    <row r="8" spans="1:22" s="32" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="36" t="s">
+        <v>143</v>
       </c>
       <c r="B8" s="34">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G8" s="32" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A9" s="37" t="s">
-        <v>202</v>
+      <c r="A9" s="36" t="s">
+        <v>160</v>
       </c>
       <c r="B9" s="34">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-    </row>
-    <row r="10" spans="1:22" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="37" t="s">
-        <v>221</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10" s="36" t="s">
+        <v>144</v>
       </c>
       <c r="B10" s="34">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>0</v>
@@ -3790,44 +3519,47 @@
       <c r="H10" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="35" t="s">
-        <v>48</v>
-      </c>
+      <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
       <c r="O10" s="31"/>
       <c r="P10" s="31"/>
       <c r="Q10" s="31"/>
       <c r="R10" s="31"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
     </row>
     <row r="11" spans="1:22" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="37" t="s">
-        <v>43</v>
+      <c r="A11" s="36" t="s">
+        <v>161</v>
       </c>
       <c r="B11" s="34">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>90</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I11" s="31"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
       <c r="O11" s="31"/>
@@ -3836,33 +3568,31 @@
       <c r="R11" s="31"/>
     </row>
     <row r="12" spans="1:22" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="37" t="s">
-        <v>203</v>
+      <c r="A12" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="B12" s="34">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D12" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>175</v>
-      </c>
       <c r="H12" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I12" s="31"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
       <c r="O12" s="31"/>
@@ -3871,33 +3601,31 @@
       <c r="R12" s="31"/>
     </row>
     <row r="13" spans="1:22" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="37" t="s">
-        <v>222</v>
+      <c r="A13" s="36" t="s">
+        <v>145</v>
       </c>
       <c r="B13" s="34">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>177</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
       <c r="O13" s="31"/>
@@ -3906,33 +3634,31 @@
       <c r="R13" s="31"/>
     </row>
     <row r="14" spans="1:22" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="37" t="s">
-        <v>204</v>
+      <c r="A14" s="36" t="s">
+        <v>162</v>
       </c>
       <c r="B14" s="34">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>176</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
       <c r="O14" s="31"/>
@@ -3941,33 +3667,31 @@
       <c r="R14" s="31"/>
     </row>
     <row r="15" spans="1:22" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="37" t="s">
-        <v>223</v>
+      <c r="A15" s="36" t="s">
+        <v>146</v>
       </c>
       <c r="B15" s="34">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>178</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="I15" s="31"/>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="O15" s="31"/>
@@ -3976,29 +3700,31 @@
       <c r="R15" s="31"/>
     </row>
     <row r="16" spans="1:22" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="B16" s="34"/>
+      <c r="A16" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="34">
+        <v>2008</v>
+      </c>
       <c r="C16" s="34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35" t="s">
-        <v>206</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="31"/>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
       <c r="O16" s="31"/>
@@ -4007,12 +3733,27 @@
       <c r="R16" s="31"/>
     </row>
     <row r="17" spans="1:22" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="37"/>
+      <c r="A17" s="36" t="s">
+        <v>142</v>
+      </c>
       <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
+      <c r="C17" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>147</v>
+      </c>
       <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
       <c r="O17" s="31"/>
@@ -4020,126 +3761,95 @@
       <c r="Q17" s="31"/>
       <c r="R17" s="31"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" s="32" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="36"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
       <c r="O18" s="31"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="31"/>
       <c r="R18" s="31"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-    </row>
-    <row r="19" spans="1:22" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" s="34">
-        <v>3000</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>164</v>
-      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="I19" s="31"/>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
       <c r="O19" s="31"/>
       <c r="P19" s="31"/>
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A20" s="37" t="s">
-        <v>167</v>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+    </row>
+    <row r="20" spans="1:22" s="32" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="36" t="s">
+        <v>117</v>
       </c>
       <c r="B20" s="34">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G20" s="32" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>163</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
       <c r="O20" s="31"/>
       <c r="P20" s="31"/>
       <c r="Q20" s="31"/>
       <c r="R20" s="31"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A21" s="37" t="s">
-        <v>165</v>
+      <c r="A21" s="36" t="s">
+        <v>116</v>
       </c>
       <c r="B21" s="34">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G21" s="32" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>171</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I21" s="31"/>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
       <c r="L21" s="32"/>
@@ -4155,33 +3865,31 @@
       <c r="V21" s="32"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A22" s="37" t="s">
-        <v>166</v>
+      <c r="A22" s="36" t="s">
+        <v>114</v>
       </c>
       <c r="B22" s="34">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G22" s="32" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>172</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="I22" s="31"/>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" s="32"/>
@@ -4196,276 +3904,272 @@
       <c r="U22" s="32"/>
       <c r="V22" s="32"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A24" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="B24" s="34">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A23" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="34">
+        <v>3003</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A25" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="34">
         <v>4000</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C25" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A25" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="B25" s="34">
+      <c r="D25" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A26" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="34">
         <v>4001</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C26" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A26" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="B26" s="34">
+      <c r="D26" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A27" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="34">
         <v>4002</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C27" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="I26" s="35" t="s">
+      <c r="D27" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A28" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="34">
+        <v>4003</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A29" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="34">
+        <v>4004</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="32" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A27" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="B27" s="34">
-        <v>4003</v>
-      </c>
-      <c r="C27" s="34" t="s">
+      <c r="F29" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A30" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="34">
+        <v>4005</v>
+      </c>
+      <c r="C30" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" s="35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A28" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="B28" s="34">
-        <v>4004</v>
-      </c>
-      <c r="C28" s="34" t="s">
+      <c r="D30" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A31" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="34">
+        <v>4006</v>
+      </c>
+      <c r="C31" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A29" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="B29" s="34">
-        <v>4005</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A30" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="B30" s="34">
-        <v>4006</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A31" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="B31" s="34">
-        <v>4007</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>22</v>
-      </c>
       <c r="D31" s="34" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E31" s="32" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="I31" s="35" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A32" s="37" t="s">
-        <v>127</v>
+      <c r="A32" s="36" t="s">
+        <v>171</v>
       </c>
       <c r="B32" s="34">
+        <v>4007</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="34">
         <v>4008</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" s="34">
-        <v>4009</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>0</v>
@@ -4474,157 +4178,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="B35" s="34">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="34">
+        <v>4009</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="34">
         <v>4980</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="B36" s="34">
+      <c r="D36" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" s="34">
         <v>4981</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C37" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="B37" s="34">
+      <c r="D37" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="34">
         <v>4982</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C38" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="B38" s="34">
+      <c r="D38" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="34">
         <v>4983</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C39" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="F38" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B40" s="34">
+      <c r="D39" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="34">
         <v>4990</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I40" s="35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B41" s="34">
-        <v>4991</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G41" s="32" t="s">
         <v>0</v>
@@ -4632,28 +4333,25 @@
       <c r="H41" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I41" s="35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="37" t="s">
-        <v>143</v>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="B42" s="34">
-        <v>4992</v>
+        <v>4991</v>
       </c>
       <c r="C42" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>0</v>
@@ -4661,28 +4359,25 @@
       <c r="H42" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I42" s="35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" s="37" t="s">
-        <v>144</v>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="B43" s="34">
-        <v>4993</v>
+        <v>4992</v>
       </c>
       <c r="C43" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G43" s="32" t="s">
         <v>0</v>
@@ -4690,28 +4385,25 @@
       <c r="H43" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I43" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="37" t="s">
-        <v>145</v>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="36" t="s">
+        <v>104</v>
       </c>
       <c r="B44" s="34">
-        <v>4994</v>
+        <v>4993</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G44" s="32" t="s">
         <v>0</v>
@@ -4719,28 +4411,25 @@
       <c r="H44" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I44" s="35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="37" t="s">
-        <v>146</v>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="36" t="s">
+        <v>105</v>
       </c>
       <c r="B45" s="34">
-        <v>4995</v>
+        <v>4994</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>0</v>
@@ -4748,144 +4437,129 @@
       <c r="H45" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I45" s="35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" s="34">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="34">
+        <v>4995</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="34">
         <v>5000</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H47" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="I47" s="35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" s="34">
-        <v>5001</v>
       </c>
       <c r="C48" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>0</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="I48" s="35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="37" t="s">
-        <v>5</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" s="36" t="s">
+        <v>90</v>
       </c>
       <c r="B49" s="34">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="C49" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>0</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="I49" s="35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="37" t="s">
-        <v>6</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" s="36" t="s">
+        <v>5</v>
       </c>
       <c r="B50" s="34">
-        <v>5100</v>
+        <v>5002</v>
       </c>
       <c r="C50" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H50" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I50" s="35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="37" t="s">
-        <v>106</v>
+      <c r="H50" s="34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" s="36" t="s">
+        <v>6</v>
       </c>
       <c r="B51" s="34">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="C51" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G51" s="32" t="s">
         <v>0</v>
@@ -4893,28 +4567,25 @@
       <c r="H51" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I51" s="35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A52" s="37" t="s">
-        <v>107</v>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" s="36" t="s">
+        <v>71</v>
       </c>
       <c r="B52" s="34">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="C52" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G52" s="32" t="s">
         <v>0</v>
@@ -4922,28 +4593,25 @@
       <c r="H52" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I52" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A53" s="37" t="s">
-        <v>108</v>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" s="36" t="s">
+        <v>72</v>
       </c>
       <c r="B53" s="34">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="C53" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G53" s="32" t="s">
         <v>0</v>
@@ -4951,28 +4619,25 @@
       <c r="H53" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I53" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A54" s="37" t="s">
-        <v>109</v>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="B54" s="34">
-        <v>5104</v>
+        <v>5103</v>
       </c>
       <c r="C54" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G54" s="32" t="s">
         <v>0</v>
@@ -4980,28 +4645,25 @@
       <c r="H54" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I54" s="35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A55" s="37" t="s">
-        <v>110</v>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="B55" s="34">
-        <v>5105</v>
+        <v>5104</v>
       </c>
       <c r="C55" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>0</v>
@@ -5009,28 +4671,25 @@
       <c r="H55" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I55" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A56" s="37" t="s">
-        <v>111</v>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" s="36" t="s">
+        <v>75</v>
       </c>
       <c r="B56" s="34">
-        <v>5106</v>
+        <v>5105</v>
       </c>
       <c r="C56" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>0</v>
@@ -5038,28 +4697,25 @@
       <c r="H56" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I56" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A57" s="37" t="s">
-        <v>112</v>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" s="36" t="s">
+        <v>76</v>
       </c>
       <c r="B57" s="34">
-        <v>5107</v>
+        <v>5106</v>
       </c>
       <c r="C57" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G57" s="32" t="s">
         <v>0</v>
@@ -5067,28 +4723,25 @@
       <c r="H57" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I57" s="35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58" s="37" t="s">
-        <v>113</v>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" s="36" t="s">
+        <v>77</v>
       </c>
       <c r="B58" s="34">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="C58" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G58" s="32" t="s">
         <v>0</v>
@@ -5096,28 +4749,25 @@
       <c r="H58" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I58" s="35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" s="37" t="s">
-        <v>114</v>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" s="36" t="s">
+        <v>78</v>
       </c>
       <c r="B59" s="34">
-        <v>5109</v>
+        <v>5108</v>
       </c>
       <c r="C59" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G59" s="32" t="s">
         <v>0</v>
@@ -5125,106 +4775,94 @@
       <c r="H59" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I59" s="35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="B61" s="34">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="34">
+        <v>5109</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="34">
         <v>5500</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E61" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G61" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H61" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I61" s="35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A62" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="B62" s="34">
-        <v>5501</v>
       </c>
       <c r="C62" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D62" s="34" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G62" s="32" t="s">
         <v>0</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="I62" s="35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H63" s="32"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A65" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="B65" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="34">
+        <v>5501</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63" s="34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H64" s="32"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A66" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B66" s="34">
         <v>6000</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F65" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G65" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H65" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="I65" s="35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A66" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="B66" s="34">
-        <v>6001</v>
       </c>
       <c r="C66" s="34" t="s">
         <v>19</v>
@@ -5233,27 +4871,24 @@
         <v>34</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G66" s="32" t="s">
         <v>0</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="I66" s="35" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A67" s="37" t="s">
-        <v>20</v>
+      <c r="A67" s="36" t="s">
+        <v>159</v>
       </c>
       <c r="B67" s="34">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="C67" s="34" t="s">
         <v>19</v>
@@ -5262,66 +4897,50 @@
         <v>34</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="G67" s="32" t="s">
         <v>0</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="I67" s="35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A69" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="B69" s="34">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="34">
+        <v>6002</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H68" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A70" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="34">
         <v>6500</v>
-      </c>
-      <c r="C69" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="F69" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G69" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H69" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="J69" s="31"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="31"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="31"/>
-      <c r="S69" s="32"/>
-      <c r="T69" s="32"/>
-      <c r="U69" s="32"/>
-      <c r="V69" s="32"/>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A70" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="B70" s="34">
-        <v>6501</v>
       </c>
       <c r="C70" s="34" t="s">
         <v>19</v>
@@ -5330,17 +4949,18 @@
         <v>34</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G70" s="32" t="s">
         <v>0</v>
       </c>
       <c r="H70" s="34" t="s">
-        <v>210</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="I70" s="31"/>
       <c r="J70" s="31"/>
       <c r="K70" s="31"/>
       <c r="L70" s="32"/>
@@ -5355,38 +4975,52 @@
       <c r="U70" s="32"/>
       <c r="V70" s="32"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A72" s="37" t="s">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A71" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="34">
+        <v>6501</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F71" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G71" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H71" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="32"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="31"/>
+      <c r="Q71" s="31"/>
+      <c r="R71" s="31"/>
+      <c r="S71" s="32"/>
+      <c r="T71" s="32"/>
+      <c r="U71" s="32"/>
+      <c r="V71" s="32"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A73" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B72" s="34">
+      <c r="B73" s="34">
         <v>7000</v>
-      </c>
-      <c r="C72" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E72" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F72" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="H72" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="I72" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A73" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="B73" s="34">
-        <v>7001</v>
       </c>
       <c r="C73" s="34" t="s">
         <v>19</v>
@@ -5398,21 +5032,15 @@
         <v>27</v>
       </c>
       <c r="F73" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G73" s="32" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="H73" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="I73" s="35" t="s">
-        <v>182</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A74" s="37" t="s">
-        <v>29</v>
+      <c r="A74" s="36" t="s">
+        <v>124</v>
       </c>
       <c r="B74" s="34">
         <v>7001</v>
@@ -5424,38 +5052,44 @@
         <v>35</v>
       </c>
       <c r="E74" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G74" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="H74" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A75" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="34">
+        <v>7001</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F74" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A76" s="37" t="s">
+      <c r="F75" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A77" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B76" s="34">
+      <c r="B77" s="34">
         <v>7500</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E76" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A77" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77" s="34">
-        <v>7501</v>
       </c>
       <c r="C77" s="34" t="s">
         <v>19</v>
@@ -5464,103 +5098,135 @@
         <v>35</v>
       </c>
       <c r="E77" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G77" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H77" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A78" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="34">
+        <v>7501</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F77" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A79" s="37" t="s">
+      <c r="F78" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G78" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H78" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A80" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B79" s="34">
+      <c r="B80" s="34">
         <v>8000</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D79" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E79" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="F79" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="H79" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I79" s="35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A80" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B80" s="34">
-        <v>8001</v>
       </c>
       <c r="C80" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D80" s="34" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E80" s="32" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="F80" s="32" t="s">
-        <v>161</v>
+        <v>112</v>
+      </c>
+      <c r="G80" s="32" t="s">
+        <v>0</v>
       </c>
       <c r="H80" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I80" s="35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A81" s="37" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A81" s="36" t="s">
+        <v>54</v>
       </c>
       <c r="B81" s="34">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C81" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D81" s="34" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="F81" s="32" t="s">
-        <v>161</v>
+        <v>112</v>
+      </c>
+      <c r="G81" s="32" t="s">
+        <v>0</v>
       </c>
       <c r="H81" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I81" s="35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A83" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B83" s="34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A82" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" s="34">
+        <v>8002</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F82" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G82" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H82" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A84" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="34">
         <v>9000</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A84" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="B84" s="34">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A85" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" s="34">
         <v>9001</v>
       </c>
     </row>

--- a/로스트아크/데이터테이블/Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/Effect_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEC9AFE-393F-4D62-AADE-7AE86F110D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8751881E-010B-4023-B7CD-C436528655EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="0" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -36,8 +36,167 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>홍진선</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{8DE77F51-34DD-4EC2-80C4-37C3B42042DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[효과의 유형]
+0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: 피해형</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: 능력치 증가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: 능력치 감소</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: 특수 기능-버프</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: 특수 기능-디버프</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">: 제어
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="104">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,24 +248,6 @@
     <t>[ID 넘버링]</t>
   </si>
   <si>
-    <t>1000 ~ 1999 : 피해형</t>
-  </si>
-  <si>
-    <t>2000 ~ 2999 : 능력치 증가</t>
-  </si>
-  <si>
-    <t>3000 ~ 3999 : 능력치 감소</t>
-  </si>
-  <si>
-    <t>4000 ~ 4999 : 특수기능 - 버프</t>
-  </si>
-  <si>
-    <t>5000 ~ 5999 : 특수기능 - 디버프</t>
-  </si>
-  <si>
-    <t>6000 ~ 6999 : 시너지 효과</t>
-  </si>
-  <si>
     <t>효과 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,7 +260,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>category</t>
+    <t>sub_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 세부 유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -148,7 +293,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 피해형(DAMAGE)</t>
+      <t>: 피해형</t>
     </r>
     <r>
       <rPr>
@@ -193,7 +338,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 능력치 조절(ABILITY)</t>
+      <t>: 능력치 증가</t>
     </r>
     <r>
       <rPr>
@@ -227,7 +372,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 특수 기능(SPECIAL) </t>
+      <t>: 능력치 감소</t>
     </r>
     <r>
       <rPr>
@@ -238,7 +383,75 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/</t>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 특수 기능-버프 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 특수 기능-디버프</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
     </r>
     <r>
       <rPr>
@@ -261,7 +474,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -272,124 +485,348 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 제어 (CONTROL)</t>
+      <t>: 제어</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sub_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">효과 세부 유형 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과 분류   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 해당없음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 버프 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 디버프</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 ~ 19 : 피해형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 ~ 199 : 능력치 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 ~ 299 : 능력치 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300 ~ 399 : 특수기능 - 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400 ~ 499 : 특수기능 - 디버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500 ~ 599 : 제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>direct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과에 필요한 전체 매개 변수 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비례 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_pwr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 고정 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 비율 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[base_dmg, hit_cnt, hit_interval, stagger, weak_point, identity_gauge_recover]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[base_dmg, hit_cnt, hit_interval]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[value, duration]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[percent, duration]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[base_dmg, source_target, source_stat, percent, hit_cnt, hit_interval]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 고정 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 비율 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 이상 면역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 이상 면역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경직 면역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push_immune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_immune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[heal, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[atk_pwr, duration]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imprison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electrocution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petrify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earthquake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fascination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매혹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bleed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[tick_dmg, tick_time, duration]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[duration]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paralysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paralysis_immune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이덴티티 게이지 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity_gauge_recover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이덴티티 게이지 % 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페널티 게이지 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penalty_gauge_gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무력화 수치 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부위 파괴 레벨 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weak_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[gauge_type, gauge_recover]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[gauge_type, percent]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +838,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +940,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -772,7 +1226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -881,6 +1335,12 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -890,11 +1350,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1237,15 +1697,15 @@
     <col min="10" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="36" t="s">
+    <row r="1" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1260,7 +1720,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
@@ -1275,7 +1735,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
@@ -1289,82 +1749,86 @@
       <c r="E5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="39" t="s">
-        <v>19</v>
+      <c r="F5" s="36" t="s">
+        <v>13</v>
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C6" s="16">
         <f t="shared" ref="C6:C11" si="0">ROW(C6)-4</f>
         <v>2</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="40" t="s">
+      <c r="D6" s="17" t="s">
         <v>20</v>
       </c>
+      <c r="E6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>14</v>
+      </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:12" ht="26.4" x14ac:dyDescent="0.4">
       <c r="C7" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="40" t="s">
-        <v>26</v>
+      <c r="F7" s="37" t="s">
+        <v>18</v>
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:9" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C8" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>17</v>
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C9" s="16">
         <f>ROW(C9)-4</f>
         <v>5</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C10" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="40"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C11" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1374,90 +1838,100 @@
       <c r="F11" s="19"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
       <c r="E12" s="22"/>
       <c r="F12" s="23"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="I16" s="2" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="F16" s="24"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="25" t="s">
-        <v>9</v>
-      </c>
+      <c r="I17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C18" s="2"/>
-      <c r="F18" s="24"/>
-      <c r="I18" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F18" s="26"/>
+      <c r="I18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C19" s="2"/>
-      <c r="F19" s="26"/>
-      <c r="I19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F19" s="24"/>
+      <c r="I19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C20" s="2"/>
-      <c r="F20" s="24"/>
-      <c r="I20" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F20" s="26"/>
+      <c r="I20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C21" s="2"/>
-      <c r="F21" s="26"/>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C22" s="2"/>
-      <c r="I22" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C23" s="2"/>
-      <c r="I23" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F23" s="24"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C24" s="2"/>
-      <c r="F24" s="24"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.4">
@@ -1600,9 +2074,6 @@
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C80" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1615,459 +2086,984 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:V71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
+  <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="B1:K20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.796875" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.3984375" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.296875" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.19921875" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.59765625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.296875" style="34" customWidth="1"/>
-    <col min="10" max="11" width="15.69921875" style="34" customWidth="1"/>
-    <col min="12" max="13" width="15.69921875" style="32" customWidth="1"/>
-    <col min="14" max="14" width="18.69921875" style="32" customWidth="1"/>
-    <col min="15" max="18" width="15.69921875" style="34" customWidth="1"/>
-    <col min="19" max="22" width="18.69921875" style="32" customWidth="1"/>
-    <col min="23" max="16384" width="8.796875" style="32"/>
+    <col min="3" max="3" width="17.3984375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.59765625" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.296875" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.19921875" style="42" customWidth="1"/>
+    <col min="7" max="7" width="5.296875" style="34" customWidth="1"/>
+    <col min="8" max="9" width="15.69921875" style="34" customWidth="1"/>
+    <col min="10" max="11" width="15.69921875" style="32" customWidth="1"/>
+    <col min="12" max="12" width="18.69921875" style="32" customWidth="1"/>
+    <col min="13" max="16" width="15.69921875" style="34" customWidth="1"/>
+    <col min="17" max="20" width="18.69921875" style="32" customWidth="1"/>
+    <col min="21" max="16384" width="8.796875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B2" s="33">
+        <v>10</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="33">
+        <v>0</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
       <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
       <c r="O2" s="30"/>
       <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
       <c r="S2" s="31"/>
       <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B3" s="33">
+        <v>11</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="33">
+        <v>0</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
       <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
       <c r="S3" s="31"/>
       <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B4" s="33">
+        <v>12</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="33">
+        <v>0</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
       <c r="S4" s="31"/>
       <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
       <c r="S5" s="31"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="33">
+        <v>100</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="33">
+        <v>1</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
       <c r="S6" s="31"/>
       <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B7" s="33">
+        <v>101</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="33">
+        <v>1</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
       <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-    </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="35"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C9" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C10" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="33">
+        <v>1</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
       <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
       <c r="S10" s="31"/>
       <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-    </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="35"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-    </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="35"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-    </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="35"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="H13" s="33"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B12" s="33">
+        <v>200</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="33">
+        <v>2</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B13" s="33">
+        <v>201</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="33">
+        <v>2</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-    </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+    </row>
+    <row r="14" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="35"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-    </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="35"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="B15" s="33">
+        <v>300</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="33">
+        <v>3</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-    </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="35"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="H16" s="33"/>
+      <c r="B16" s="33">
+        <v>301</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="33">
+        <v>3</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-    </row>
-    <row r="17" spans="1:22" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="35"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="H17" s="33"/>
+      <c r="B17" s="33">
+        <v>302</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="33">
+        <v>3</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-    </row>
-    <row r="18" spans="1:22" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="35"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="H18" s="33"/>
+      <c r="B18" s="33">
+        <v>303</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="33">
+        <v>3</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="35"/>
+      <c r="B19" s="33">
+        <v>304</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="33">
+        <v>3</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-    </row>
-    <row r="20" spans="1:22" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="35"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="H20" s="33"/>
+      <c r="B20" s="33">
+        <v>305</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="33">
+        <v>3</v>
+      </c>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="35"/>
+      <c r="B21" s="33">
+        <v>306</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="33">
+        <v>3</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="35"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H41" s="31"/>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H42" s="31"/>
-    </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H43" s="31"/>
-    </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H44" s="31"/>
-    </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H45" s="31"/>
-    </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H46" s="31"/>
-    </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H51" s="31"/>
-    </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H52" s="31"/>
-    </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H53" s="31"/>
-    </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H54" s="31"/>
-    </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H55" s="31"/>
-    </row>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H56" s="31"/>
-    </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H57" s="31"/>
-    </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H58" s="31"/>
-    </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H59" s="31"/>
-    </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H60" s="31"/>
-    </row>
-    <row r="64" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H64" s="31"/>
-    </row>
-    <row r="70" spans="9:22" x14ac:dyDescent="0.4">
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="31"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="30"/>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="31"/>
-      <c r="T70" s="31"/>
-      <c r="U70" s="31"/>
-      <c r="V70" s="31"/>
-    </row>
-    <row r="71" spans="9:22" x14ac:dyDescent="0.4">
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="31"/>
-      <c r="M71" s="31"/>
-      <c r="N71" s="31"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="30"/>
-      <c r="Q71" s="30"/>
-      <c r="R71" s="30"/>
-      <c r="S71" s="31"/>
-      <c r="T71" s="31"/>
-      <c r="U71" s="31"/>
-      <c r="V71" s="31"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B23" s="33">
+        <v>400</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="33">
+        <v>4</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B24" s="33">
+        <v>401</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="33">
+        <v>4</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="35"/>
+      <c r="B25" s="33">
+        <v>402</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="33">
+        <v>4</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+    </row>
+    <row r="26" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="35"/>
+      <c r="B26" s="33">
+        <v>403</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="33">
+        <v>4</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+    </row>
+    <row r="27" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="35"/>
+      <c r="B27" s="33">
+        <v>404</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="33">
+        <v>4</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B28" s="33">
+        <v>405</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="33">
+        <v>4</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+    </row>
+    <row r="29" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="35"/>
+      <c r="B29" s="33">
+        <v>406</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="33">
+        <v>4</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B30" s="33">
+        <v>407</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="33">
+        <v>4</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B31" s="33">
+        <v>408</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="33">
+        <v>4</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B32" s="33">
+        <v>409</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="33">
+        <v>4</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" s="33">
+        <v>410</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="33">
+        <v>4</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="33">
+        <v>411</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="33">
+        <v>4</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B35" s="33">
+        <v>412</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="33">
+        <v>4</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="33">
+        <v>413</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="33">
+        <v>4</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B37" s="33">
+        <v>414</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="33">
+        <v>4</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B39" s="33">
+        <v>500</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="33">
+        <v>590</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="33">
+        <v>5</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B46" s="33">
+        <v>591</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="33">
+        <v>5</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="33">
+        <v>592</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="33">
+        <v>5</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="7:20" x14ac:dyDescent="0.4">
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="30"/>
+      <c r="P76" s="30"/>
+      <c r="Q76" s="31"/>
+      <c r="R76" s="31"/>
+      <c r="S76" s="31"/>
+      <c r="T76" s="31"/>
+    </row>
+    <row r="77" spans="7:20" x14ac:dyDescent="0.4">
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="31"/>
+      <c r="R77" s="31"/>
+      <c r="S77" s="31"/>
+      <c r="T77" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/로스트아크/데이터테이블/Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/Effect_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8751881E-010B-4023-B7CD-C436528655EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08929691-76CA-4044-9854-7DC24361CF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="0" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,18 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>: 피해형</t>
+          <t xml:space="preserve">: 피해형 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(DAMAGE)</t>
         </r>
         <r>
           <rPr>
@@ -90,7 +101,18 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>: 능력치 증가</t>
+          <t xml:space="preserve">: 능력치 증가 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(ABILITY_BUFF)</t>
         </r>
         <r>
           <rPr>
@@ -114,7 +136,18 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>: 능력치 감소</t>
+          <t xml:space="preserve">: 능력치 감소 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(ABILITY_DEBUFF)</t>
         </r>
         <r>
           <rPr>
@@ -138,7 +171,18 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>: 특수 기능-버프</t>
+          <t xml:space="preserve">: 특수 기능-버프 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(SPECIAL_BUFF)</t>
         </r>
         <r>
           <rPr>
@@ -162,7 +206,18 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>: 특수 기능-디버프</t>
+          <t xml:space="preserve">: 특수 기능-디버프 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(SPECIAL_DEBUFF)</t>
         </r>
         <r>
           <rPr>
@@ -186,7 +241,167 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">: 제어
+          <t xml:space="preserve">: 스킬 제어 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(SKILL_CONTROL)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>6</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">: 게이지 제어 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(GAUGE_CONTROL)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>7</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">: 오브젝트 인스턴싱 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(OBJECT_INSTANCING)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>8</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">: 리소스 제어 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(RESOURCE_CONTROL)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -196,7 +411,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="119">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,9 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[ID 넘버링]</t>
-  </si>
-  <si>
     <t>효과 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,11 +472,267 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sub_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과 세부 유형</t>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>direct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비례 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_pwr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 고정 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 비율 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 고정 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 비율 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 이상 면역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 이상 면역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경직 면역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push_immune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_immune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imprison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electrocution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petrify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earthquake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fascination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매혹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bleed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paralysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paralysis_immune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이덴티티 게이지 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity_gauge_recover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이덴티티 게이지 % 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페널티 게이지 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penalty_gauge_gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무력화 수치 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부위 파괴 레벨 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weak_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과가 적용되는 데이터 속성 or 효과의 속성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -451,7 +919,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> /</t>
+      <t xml:space="preserve"> 
+/</t>
     </r>
     <r>
       <rPr>
@@ -485,348 +954,269 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 제어</t>
+      <t>: 스킬 제어</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 ~ 19 : 피해형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 ~ 199 : 능력치 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200 ~ 299 : 능력치 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300 ~ 399 : 특수기능 - 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400 ~ 499 : 특수기능 - 디버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500 ~ 599 : 제어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>direct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과에 필요한 전체 매개 변수 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>param_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정 피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비례 피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_pwr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 고정 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 비율 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[base_dmg, hit_cnt, hit_interval, stagger, weak_point, identity_gauge_recover]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[base_dmg, hit_cnt, hit_interval]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[value, duration]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[percent, duration]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[base_dmg, source_target, source_stat, percent, hit_cnt, hit_interval]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 고정 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 비율 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보호막</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 이상 면역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태 이상 면역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경직 면역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>push_immune</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff_immune</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[heal, </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[atk_pwr, duration]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sleep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imprison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>electrocution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>petrify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>earthquake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fascination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기절</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>석화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해충</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매혹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출혈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bleed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>burn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[tick_dmg, tick_time, duration]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[duration]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paralysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paralysis_immune</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>push</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이덴티티 게이지 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identity_gauge_recover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이덴티티 게이지 % 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페널티 게이지 획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>penalty_gauge_gain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성 부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무력화 수치 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부위 파괴 레벨 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stagger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weak_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[gauge_type, gauge_recover]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[gauge_type, percent]</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 게이지 제어 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 오브젝트 인스턴싱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 리소스 제어</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIRECT_DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIXED_DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RATIO_DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACK_POWER_INCREASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACK_POWER_PLUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGGER_PLUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAKPOINT_PLUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACK_POWER_MINUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACK_POWER_DECREASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARALYSIS_IMMUNITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUSH_IMMUNITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_IMMUNITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIELD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEALTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARALYSIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POISON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLEEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPRISON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELECTROCUTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FREEZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PETRIFY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EARTHQUAKE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FASCINATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELEMENT_GRANT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDENTITY_GAUGE_RECOVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVINCIBILITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invincibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_attribute</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,7 +1228,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -957,6 +1347,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1284,9 +1682,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1341,6 +1736,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1350,10 +1751,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1678,10 +2076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1697,15 +2095,15 @@
     <col min="10" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="38" t="s">
+    <row r="1" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1720,7 +2118,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
@@ -1735,7 +2133,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
@@ -1749,189 +2147,148 @@
       <c r="E5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C6" s="16">
+        <f t="shared" ref="C6:C8" si="0">ROW(C6)-4</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C6" s="16">
-        <f t="shared" ref="C6:C11" si="0">ROW(C6)-4</f>
-        <v>2</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>14</v>
-      </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:12" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="39.6" x14ac:dyDescent="0.4">
       <c r="C7" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="37" t="s">
-        <v>18</v>
+      <c r="F7" s="36" t="s">
+        <v>81</v>
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C8" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C9" s="16">
-        <f>ROW(C9)-4</f>
-        <v>5</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C10" s="16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C11" s="16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="L15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="F16" s="24"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="25" t="s">
+    <row r="9" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="F13" s="23"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="24" t="s">
         <v>9</v>
       </c>
+      <c r="C14" s="2"/>
+      <c r="F14" s="23"/>
+      <c r="I14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C15" s="2"/>
+      <c r="F15" s="25"/>
+      <c r="I15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C16" s="2"/>
+      <c r="F16" s="23"/>
+      <c r="I16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C17" s="2"/>
-      <c r="F17" s="24"/>
+      <c r="F17" s="25"/>
       <c r="I17" s="3"/>
-      <c r="L17" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C18" s="2"/>
-      <c r="F18" s="26"/>
       <c r="I18" s="3"/>
-      <c r="L18" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C19" s="2"/>
-      <c r="F19" s="24"/>
       <c r="I19" s="3"/>
-      <c r="L19" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C20" s="2"/>
-      <c r="F20" s="26"/>
+      <c r="F20" s="23"/>
       <c r="I20" s="3"/>
-      <c r="L20" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C21" s="2"/>
-      <c r="I21" s="3"/>
-      <c r="L21" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C22" s="2"/>
-      <c r="I22" s="3"/>
-      <c r="L22" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C23" s="2"/>
-      <c r="F23" s="24"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.4">
@@ -2065,15 +2422,6 @@
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C79" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2087,979 +2435,998 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:T77"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.59765625" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.296875" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.19921875" style="42" customWidth="1"/>
-    <col min="7" max="7" width="5.296875" style="34" customWidth="1"/>
-    <col min="8" max="9" width="15.69921875" style="34" customWidth="1"/>
-    <col min="10" max="11" width="15.69921875" style="32" customWidth="1"/>
-    <col min="12" max="12" width="18.69921875" style="32" customWidth="1"/>
-    <col min="13" max="16" width="15.69921875" style="34" customWidth="1"/>
-    <col min="17" max="20" width="18.69921875" style="32" customWidth="1"/>
-    <col min="21" max="16384" width="8.796875" style="32"/>
+    <col min="1" max="1" width="17.3984375" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="19" style="32" customWidth="1"/>
+    <col min="4" max="4" width="4.59765625" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.796875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="5.296875" style="33" customWidth="1"/>
+    <col min="7" max="8" width="15.69921875" style="33" customWidth="1"/>
+    <col min="9" max="10" width="15.69921875" style="31" customWidth="1"/>
+    <col min="11" max="11" width="18.69921875" style="31" customWidth="1"/>
+    <col min="12" max="15" width="15.69921875" style="33" customWidth="1"/>
+    <col min="16" max="19" width="18.69921875" style="31" customWidth="1"/>
+    <col min="20" max="16384" width="8.796875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="D1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B2" s="33">
-        <v>10</v>
-      </c>
-      <c r="C2" s="33" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="32">
+        <v>100</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="32">
+        <v>0</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="32">
+        <v>101</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A4" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="32">
+        <v>102</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A7" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="32">
+        <v>1</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A9" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A10" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="32">
+        <v>1</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+    </row>
+    <row r="11" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="34"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A12" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="32">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="32">
+        <v>2</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A13" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="33">
-        <v>0</v>
-      </c>
-      <c r="E2" s="42" t="s">
+      <c r="B13" s="32">
+        <v>2001</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="32">
+        <v>2</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+    </row>
+    <row r="14" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="34"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+    </row>
+    <row r="15" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="32">
+        <v>3000</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="32">
+        <v>3</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+    </row>
+    <row r="16" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="32">
+        <v>3001</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="32">
+        <v>3</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+    </row>
+    <row r="17" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="32">
+        <v>3002</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="32">
+        <v>3</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+    </row>
+    <row r="18" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="B18" s="32">
+        <v>3003</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="32">
+        <v>3</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+    </row>
+    <row r="19" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="32">
+        <v>3004</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="32">
+        <v>3</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+    </row>
+    <row r="20" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="32">
+        <v>3005</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="32">
+        <v>3</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+    </row>
+    <row r="21" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="32">
+        <v>3006</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="32">
+        <v>3</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+    </row>
+    <row r="22" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="34"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A23" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="32">
+        <v>4000</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="32">
+        <v>4</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A24" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="32">
+        <v>4001</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="32">
+        <v>4</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="32">
+        <v>4002</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="32">
+        <v>4</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+    </row>
+    <row r="26" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="32">
+        <v>4003</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="32">
+        <v>4</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+    </row>
+    <row r="27" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="32">
+        <v>4004</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="32">
+        <v>4</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A28" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="32">
+        <v>4005</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="32">
+        <v>4</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B3" s="33">
-        <v>11</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="33">
-        <v>0</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="42" t="s">
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+    </row>
+    <row r="29" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="32">
+        <v>4006</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="32">
+        <v>4</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B4" s="33">
-        <v>12</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="33">
-        <v>0</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="42" t="s">
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A30" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="32">
+        <v>4007</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="32">
+        <v>4</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A31" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="32">
+        <v>4008</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="32">
+        <v>4</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A32" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="32">
+        <v>4009</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="32">
+        <v>4</v>
+      </c>
+      <c r="E32" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B6" s="33">
-        <v>100</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="33">
-        <v>1</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="42" t="s">
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="32">
+        <v>4010</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="32">
+        <v>4</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="32">
+        <v>4011</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="32">
+        <v>4</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B7" s="33">
-        <v>101</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="33">
-        <v>1</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="C9" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="33">
-        <v>1</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="C10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="33">
-        <v>1</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-    </row>
-    <row r="11" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="35"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B12" s="33">
-        <v>200</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="33">
-        <v>2</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B13" s="33">
-        <v>201</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="33">
-        <v>2</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-    </row>
-    <row r="14" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="35"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-    </row>
-    <row r="15" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="35"/>
-      <c r="B15" s="33">
-        <v>300</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="33">
-        <v>3</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-    </row>
-    <row r="16" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="35"/>
-      <c r="B16" s="33">
-        <v>301</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="33">
-        <v>3</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-    </row>
-    <row r="17" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="35"/>
-      <c r="B17" s="33">
-        <v>302</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="33">
-        <v>3</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-    </row>
-    <row r="18" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="35"/>
-      <c r="B18" s="33">
-        <v>303</v>
-      </c>
-      <c r="C18" s="33" t="s">
+      <c r="B35" s="32">
+        <v>4012</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="32">
+        <v>4</v>
+      </c>
+      <c r="E35" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="33">
-        <v>3</v>
-      </c>
-      <c r="E18" s="42" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="32">
+        <v>4013</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="32">
+        <v>4</v>
+      </c>
+      <c r="E36" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-    </row>
-    <row r="19" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="35"/>
-      <c r="B19" s="33">
-        <v>304</v>
-      </c>
-      <c r="C19" s="33" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="32">
+        <v>4014</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="32">
+        <v>4</v>
+      </c>
+      <c r="E37" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="33">
-        <v>3</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-    </row>
-    <row r="20" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="35"/>
-      <c r="B20" s="33">
-        <v>305</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="33">
-        <v>3</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-    </row>
-    <row r="21" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="35"/>
-      <c r="B21" s="33">
-        <v>306</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="33">
-        <v>3</v>
-      </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-    </row>
-    <row r="22" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="35"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B23" s="33">
-        <v>400</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="33">
-        <v>4</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B24" s="33">
-        <v>401</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="33">
-        <v>4</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="35"/>
-      <c r="B25" s="33">
-        <v>402</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="33">
-        <v>4</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-    </row>
-    <row r="26" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="35"/>
-      <c r="B26" s="33">
-        <v>403</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="33">
-        <v>4</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-    </row>
-    <row r="27" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="35"/>
-      <c r="B27" s="33">
-        <v>404</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="33">
-        <v>4</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B28" s="33">
-        <v>405</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="33">
-        <v>4</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-    </row>
-    <row r="29" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="35"/>
-      <c r="B29" s="33">
-        <v>406</v>
-      </c>
-      <c r="C29" s="33" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="32">
+        <v>5000</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="32">
+        <v>5</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="33">
-        <v>4</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B30" s="33">
-        <v>407</v>
-      </c>
-      <c r="C30" s="33" t="s">
+      <c r="B45" s="32">
+        <v>6000</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="32">
+        <v>6</v>
+      </c>
+      <c r="E45" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="33">
-        <v>4</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B31" s="33">
-        <v>408</v>
-      </c>
-      <c r="C31" s="33" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="33">
-        <v>4</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B32" s="33">
-        <v>409</v>
-      </c>
-      <c r="C32" s="33" t="s">
+      <c r="B46" s="32">
+        <v>6001</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="32">
+        <v>6</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="33">
-        <v>4</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B33" s="33">
-        <v>410</v>
-      </c>
-      <c r="C33" s="33" t="s">
+      <c r="B47" s="32">
+        <v>6002</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="32">
+        <v>6</v>
+      </c>
+      <c r="E47" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="33">
-        <v>4</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B34" s="33">
-        <v>411</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="33">
-        <v>4</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B35" s="33">
-        <v>412</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="33">
-        <v>4</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B36" s="33">
-        <v>413</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="33">
-        <v>4</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B37" s="33">
-        <v>414</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="33">
-        <v>4</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B39" s="33">
-        <v>500</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B45" s="33">
-        <v>590</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="33">
-        <v>5</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" s="42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B46" s="33">
-        <v>591</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="33">
-        <v>5</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B47" s="33">
-        <v>592</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="33">
-        <v>5</v>
-      </c>
-      <c r="E47" s="42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="7:20" x14ac:dyDescent="0.4">
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
+    </row>
+    <row r="76" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
       <c r="I76" s="30"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="30"/>
-      <c r="N76" s="30"/>
-      <c r="O76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
       <c r="P76" s="30"/>
-      <c r="Q76" s="31"/>
-      <c r="R76" s="31"/>
-      <c r="S76" s="31"/>
-      <c r="T76" s="31"/>
-    </row>
-    <row r="77" spans="7:20" x14ac:dyDescent="0.4">
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
+      <c r="Q76" s="30"/>
+      <c r="R76" s="30"/>
+      <c r="S76" s="30"/>
+    </row>
+    <row r="77" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
       <c r="I77" s="30"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="31"/>
-      <c r="M77" s="30"/>
-      <c r="N77" s="30"/>
-      <c r="O77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
       <c r="P77" s="30"/>
-      <c r="Q77" s="31"/>
-      <c r="R77" s="31"/>
-      <c r="S77" s="31"/>
-      <c r="T77" s="31"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="30"/>
+      <c r="S77" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/Effect_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08929691-76CA-4044-9854-7DC24361CF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF88B5F4-6BF5-43E1-86A6-FF7B2E6761EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <author>홍진선</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{8DE77F51-34DD-4EC2-80C4-37C3B42042DC}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{37742574-7532-4EB4-878F-FE7663E09C58}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>[효과의 유형]
+          <t>[효과 종류]
 0</t>
         </r>
         <r>
@@ -101,7 +101,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">: 능력치 증가 </t>
+          <t xml:space="preserve">: 능력치 조절 </t>
         </r>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>(ABILITY_BUFF)</t>
+          <t>(STAT)</t>
         </r>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">: 능력치 감소 </t>
+          <t xml:space="preserve">: 특수 기능 </t>
         </r>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>(ABILITY_DEBUFF)</t>
+          <t>(SPECIAL)</t>
         </r>
         <r>
           <rPr>
@@ -161,76 +161,6 @@
           </rPr>
           <t xml:space="preserve">
 3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">: 특수 기능-버프 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(SPECIAL_BUFF)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-4</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">: 특수 기능-디버프 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(SPECIAL_DEBUFF)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-5</t>
         </r>
         <r>
           <rPr>
@@ -276,53 +206,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>6</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">: 게이지 제어 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(GAUGE_CONTROL)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>7</t>
+          <t>4</t>
         </r>
         <r>
           <rPr>
@@ -368,7 +252,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>8</t>
+          <t>5</t>
         </r>
         <r>
           <rPr>
@@ -406,12 +290,208 @@
         </r>
       </text>
     </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{2C962809-0302-4021-B11A-351686D4935E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[효과가 적용되는 방식]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">: 대미지 처리 (DEAL)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">: 일정 수치 증가 (PLUS)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>11</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">: 비율 증가 (INCREASE) 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>20</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">: 일정 수치 감소 (MINUS)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>21</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">: 비율 감소 (DECREASE)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>30</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">: 부여 (GRANT)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>31</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">: 변경 (CHANGE) 
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="151">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,9 +529,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>효과 요약 설명 (기획용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,14 +585,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력 고정 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 비율 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격력 고정 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -696,10 +765,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>identity_gauge_recover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이덴티티 게이지 % 회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -708,14 +773,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>penalty_gauge_gain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성 부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>무력화 수치 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -732,12 +789,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>효과가 적용되는 데이터 속성 or 효과의 속성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과의 유형 
+    <t>stealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invincibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dealing_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity_gauge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penalty_gauge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immune_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재사용 대기 시간 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cool_down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_reaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack Power Increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack Power Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stagger Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeakPoint Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과의 유형
 </t>
     </r>
     <r>
@@ -761,7 +906,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 피해형</t>
+      <t>: 피해형(DAMAGE)</t>
     </r>
     <r>
       <rPr>
@@ -806,7 +951,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 능력치 증가</t>
+      <t>: 능력치 조절(STAT)</t>
     </r>
     <r>
       <rPr>
@@ -840,7 +985,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 능력치 감소</t>
+      <t xml:space="preserve">: 특수 기능(SPECIAL) </t>
     </r>
     <r>
       <rPr>
@@ -851,7 +996,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> / </t>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -874,7 +1030,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 특수 기능-버프 </t>
+      <t xml:space="preserve">: 스킬 제어(SKILL_CONTROL) </t>
     </r>
     <r>
       <rPr>
@@ -908,7 +1064,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 특수 기능-디버프</t>
+      <t>: 오브젝트 제어(OBJECT_CONTROL)</t>
     </r>
     <r>
       <rPr>
@@ -919,19 +1075,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 
-/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> / </t>
     </r>
     <r>
       <rPr>
@@ -954,18 +1098,14 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 스킬 제어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
+      <t>: 리소스 제어(RESOURCE_CONTROL)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과의 종류
+</t>
     </r>
     <r>
       <rPr>
@@ -977,7 +1117,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -988,7 +1128,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 게이지 제어 </t>
+      <t>: 일반 효과(DEFAULT)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1011,18 +1162,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1033,7 +1173,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 오브젝트 인스턴싱</t>
+      <t>: 버프(BUFF)</t>
     </r>
     <r>
       <rPr>
@@ -1056,7 +1196,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>8</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1067,156 +1207,457 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 리소스 제어</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIRECT_DAMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIXED_DAMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RATIO_DAMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTACK_POWER_INCREASE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTACK_POWER_PLUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGGER_PLUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEAKPOINT_PLUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTACK_POWER_MINUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTACK_POWER_DECREASE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PARALYSIS_IMMUNITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUSH_IMMUNITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF_IMMUNITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIELD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STEALTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PARALYSIS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUSH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POISON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BURN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FEAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STUN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLEEP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMPRISON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELECTROCUTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FREEZE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PETRIFY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EARTHQUAKE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FASCINATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELEMENT_GRANT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDENTITY_GAUGE_RECOVER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stealth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INVINCIBILITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invincibility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_attribute</t>
+      <t>: 디버프(DEBUFF)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_type_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_type_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type별 상세 효과 유형 key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type별 상세 효과 유형 value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attak Power Minus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attak Power Decrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Identity Gauge Recover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Identity Gauge n% Recover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penalty Gauge Gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paralysis Immunity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push Immunity</t>
+  </si>
+  <si>
+    <t>Debuff Immunity</t>
+  </si>
+  <si>
+    <t>Special Buff - Heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special Buff - Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special Buff - Invincibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special Buff - Stealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitReaction - Paralysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitReaction - Push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special Debuff - Poision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special Debuff - Bleed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special Debuff - Fear</t>
+  </si>
+  <si>
+    <t>Special Debuff - Stun</t>
+  </si>
+  <si>
+    <t>Special Debuff - Sleep</t>
+  </si>
+  <si>
+    <t>Special Debuff - Imprison</t>
+  </si>
+  <si>
+    <t>Special Debuff - Electrocution</t>
+  </si>
+  <si>
+    <t>Special Debuff - Freeze</t>
+  </si>
+  <si>
+    <t>Special Debuff - Petrify</t>
+  </si>
+  <si>
+    <t>Special Debuff - Earthquake</t>
+  </si>
+  <si>
+    <t>Special Debuff - Pest</t>
+  </si>
+  <si>
+    <t>Special Debuff - Fascination</t>
+  </si>
+  <si>
+    <t>Special Debuff - Burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooldown Reduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재사용 대기 시간 &amp; 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooldown Reduction(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 속성 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콤보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 단축키 입력 후 동작이 끝나기 전에 단축키를 재입력하면, 연계 동작이 발생하는 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 최대 연계 동작 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type 별 상세 효과 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과가 적용되는 방식
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 대미지 처리(DEAL)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 고정 수치 증가(PLUS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 비율 증가(INCREASE) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 고정 수치 감소(MINUS) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 비율 감소(DECREASE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 부여(GRANT) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 변경 (CHANGE) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 % 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1228,7 +1669,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1355,8 +1796,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1393,8 +1842,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1618,13 +2079,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1697,12 +2286,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1742,6 +2325,9 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1751,8 +2337,38 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1762,6 +2378,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFB3"/>
       <color rgb="FFFFFFD5"/>
       <color rgb="FFFFFFC5"/>
       <color rgb="FFF9FAFD"/>
@@ -2076,10 +2693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="A1:L76"/>
+  <dimension ref="B1:L75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -2089,21 +2706,21 @@
     <col min="3" max="3" width="3.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.09765625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="63.09765625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="67.296875" style="3" customWidth="1"/>
     <col min="7" max="7" width="8.69921875" style="4" customWidth="1"/>
     <col min="8" max="9" width="8.796875" style="2"/>
     <col min="10" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="39" t="s">
+    <row r="1" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-    </row>
-    <row r="3" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2118,22 +2735,22 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
@@ -2147,96 +2764,150 @@
       <c r="E5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="35" t="s">
-        <v>12</v>
+      <c r="F5" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C6" s="16">
         <f t="shared" ref="C6:C8" si="0">ROW(C6)-4</f>
         <v>2</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>12</v>
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="39.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:12" ht="26.4" x14ac:dyDescent="0.4">
       <c r="C7" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="36" t="s">
-        <v>81</v>
+      <c r="F7" s="34" t="s">
+        <v>98</v>
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12" ht="39.6" x14ac:dyDescent="0.4">
       <c r="C8" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>80</v>
+        <v>2</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="F13" s="23"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="F14" s="23"/>
-      <c r="I14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C15" s="2"/>
-      <c r="F15" s="25"/>
-      <c r="I15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C16" s="2"/>
-      <c r="F16" s="23"/>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C9" s="16">
+        <f>ROW(C9)-4</f>
+        <v>5</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C10" s="16">
+        <f t="shared" ref="C10:C11" si="1">ROW(C10)-4</f>
+        <v>6</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="2:12" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="C11" s="16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="14" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="4"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C16" s="48">
+        <v>1</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>136</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C17" s="2"/>
-      <c r="F17" s="25"/>
+    <row r="17" spans="3:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44" t="s">
+        <v>138</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="L17" s="3"/>
     </row>
@@ -2247,13 +2918,11 @@
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C19" s="2"/>
+      <c r="F19" s="23"/>
       <c r="I19" s="3"/>
-      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C20" s="2"/>
-      <c r="F20" s="23"/>
-      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C21" s="2"/>
@@ -2420,12 +3089,11 @@
     <row r="75" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C76" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2435,998 +3103,1254 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:S77"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="32" customWidth="1"/>
-    <col min="3" max="3" width="19" style="32" customWidth="1"/>
-    <col min="4" max="4" width="4.59765625" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" style="38" customWidth="1"/>
-    <col min="6" max="6" width="5.296875" style="33" customWidth="1"/>
-    <col min="7" max="8" width="15.69921875" style="33" customWidth="1"/>
-    <col min="9" max="10" width="15.69921875" style="31" customWidth="1"/>
-    <col min="11" max="11" width="18.69921875" style="31" customWidth="1"/>
-    <col min="12" max="15" width="15.69921875" style="33" customWidth="1"/>
-    <col min="16" max="19" width="18.69921875" style="31" customWidth="1"/>
-    <col min="20" max="16384" width="8.796875" style="31"/>
+    <col min="1" max="1" width="17.3984375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.09765625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.8984375" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.296875" style="31" customWidth="1"/>
+    <col min="10" max="12" width="15.69921875" style="31" customWidth="1"/>
+    <col min="13" max="16" width="18.69921875" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="8.796875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="37" t="s">
+      <c r="B2" s="30">
+        <v>100</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="30">
+        <v>0</v>
+      </c>
+      <c r="E2" s="30">
+        <v>0</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="30">
+        <v>101</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="30">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30">
+        <v>0</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="30">
+        <v>102</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="30">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="30">
+        <v>1</v>
+      </c>
+      <c r="E6" s="30">
+        <v>1</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="30">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="30">
+        <v>1</v>
+      </c>
+      <c r="E7" s="30">
+        <v>1</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="32"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="30">
+        <v>2000</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="30">
+        <v>1</v>
+      </c>
+      <c r="E10" s="30">
+        <v>2</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="30">
+        <v>2001</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="30">
+        <v>1</v>
+      </c>
+      <c r="E11" s="30">
+        <v>2</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F12" s="30"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+    </row>
+    <row r="13" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="30">
+        <v>2990</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="30">
+        <v>1</v>
+      </c>
+      <c r="E13" s="30">
+        <v>0</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="28">
+        <v>10</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="30">
+        <v>2991</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="30">
+        <v>1</v>
+      </c>
+      <c r="E14" s="30">
+        <v>0</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="28">
+        <v>10</v>
+      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="30">
+        <v>2992</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="30">
+        <v>1</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="28">
+        <v>10</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="32"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="30">
+        <v>3000</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="30">
+        <v>2</v>
+      </c>
+      <c r="E17" s="30">
+        <v>1</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="30">
+        <v>3001</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="30">
+        <v>2</v>
+      </c>
+      <c r="E18" s="30">
+        <v>1</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="30">
+        <v>3002</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="30">
+        <v>2</v>
+      </c>
+      <c r="E19" s="30">
+        <v>1</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A20" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="30">
+        <v>3003</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="30">
+        <v>2</v>
+      </c>
+      <c r="E20" s="30">
+        <v>1</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A21" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="30">
+        <v>3004</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="30">
+        <v>2</v>
+      </c>
+      <c r="E21" s="30">
+        <v>1</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="30">
+        <v>3005</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="30">
+        <v>2</v>
+      </c>
+      <c r="E22" s="30">
+        <v>1</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+    </row>
+    <row r="23" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="30">
+        <v>3006</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="30">
+        <v>2</v>
+      </c>
+      <c r="E23" s="30">
+        <v>1</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+    </row>
+    <row r="24" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="32"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A25" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="30">
+        <v>4000</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="30">
+        <v>2</v>
+      </c>
+      <c r="E25" s="30">
+        <v>0</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+    </row>
+    <row r="26" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="30">
+        <v>4001</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="30">
+        <v>2</v>
+      </c>
+      <c r="E26" s="30">
+        <v>0</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A27" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="30">
+        <v>4002</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="30">
+        <v>2</v>
+      </c>
+      <c r="E27" s="30">
+        <v>2</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A28" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="30">
+        <v>4003</v>
+      </c>
+      <c r="C28" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="32">
-        <v>100</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="32">
+      <c r="D28" s="30">
+        <v>2</v>
+      </c>
+      <c r="E28" s="30">
+        <v>2</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A29" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="30">
+        <v>4004</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="30">
+        <v>2</v>
+      </c>
+      <c r="E29" s="30">
+        <v>2</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A30" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="30">
+        <v>4005</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="30">
+        <v>2</v>
+      </c>
+      <c r="E30" s="30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A31" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="30">
+        <v>4006</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="30">
+        <v>2</v>
+      </c>
+      <c r="E31" s="30">
+        <v>2</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A32" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="30">
+        <v>4007</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="30">
+        <v>2</v>
+      </c>
+      <c r="E32" s="30">
+        <v>2</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A33" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="30">
+        <v>4008</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="30">
+        <v>2</v>
+      </c>
+      <c r="E33" s="30">
+        <v>2</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A34" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="30">
+        <v>4009</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="30">
+        <v>2</v>
+      </c>
+      <c r="E34" s="30">
+        <v>2</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A35" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="30">
+        <v>4010</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="30">
+        <v>2</v>
+      </c>
+      <c r="E35" s="30">
+        <v>2</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A36" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="30">
+        <v>4011</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="30">
+        <v>2</v>
+      </c>
+      <c r="E36" s="30">
+        <v>2</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A37" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="30">
+        <v>4012</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="30">
+        <v>2</v>
+      </c>
+      <c r="E37" s="30">
+        <v>2</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A38" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="30">
+        <v>4013</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="30">
+        <v>2</v>
+      </c>
+      <c r="E38" s="30">
+        <v>2</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A39" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="30">
+        <v>4014</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="30">
+        <v>2</v>
+      </c>
+      <c r="E39" s="30">
+        <v>2</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A41" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="30">
+        <v>5000</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="30">
+        <v>3</v>
+      </c>
+      <c r="E41" s="30">
         <v>0</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="32">
-        <v>101</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="32">
+      <c r="F41" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A42" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="30">
+        <v>5001</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="30">
+        <v>3</v>
+      </c>
+      <c r="E42" s="30">
         <v>0</v>
       </c>
-      <c r="E3" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A4" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="32">
-        <v>102</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="32">
+      <c r="F42" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A43" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="30">
+        <v>5002</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="30">
+        <v>3</v>
+      </c>
+      <c r="E43" s="30">
         <v>0</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A6" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="32">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="32">
+      <c r="F43" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A45" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="30">
+        <v>5100</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="30">
         <v>1</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A7" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="32">
-        <v>1001</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="32">
+      <c r="E45" s="30">
+        <v>0</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="36">
+        <v>10</v>
+      </c>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A46" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="30">
+        <v>5101</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="30">
         <v>1</v>
       </c>
-      <c r="E7" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A9" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="32">
-        <v>1</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A10" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="32" t="s">
+      <c r="E46" s="30">
+        <v>0</v>
+      </c>
+      <c r="F46" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="32">
-        <v>1</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-    </row>
-    <row r="11" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="34"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A12" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="32">
-        <v>2000</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="32">
-        <v>2</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A13" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="32">
-        <v>2001</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="32">
-        <v>2</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-    </row>
-    <row r="14" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="34"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-    </row>
-    <row r="15" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="32">
-        <v>3000</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="32">
-        <v>3</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-    </row>
-    <row r="16" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="32">
-        <v>3001</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="32">
-        <v>3</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-    </row>
-    <row r="17" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="32">
-        <v>3002</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="32">
-        <v>3</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-    </row>
-    <row r="18" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="32">
-        <v>3003</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="32">
-        <v>3</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-    </row>
-    <row r="19" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="32">
-        <v>3004</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="32">
-        <v>3</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-    </row>
-    <row r="20" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="32">
-        <v>3005</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="32">
-        <v>3</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-    </row>
-    <row r="21" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="32">
-        <v>3006</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="32">
-        <v>3</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-    </row>
-    <row r="22" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="34"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A23" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="32">
-        <v>4000</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="32">
-        <v>4</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A24" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="32">
-        <v>4001</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="32">
-        <v>4</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="32">
-        <v>4002</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="32">
-        <v>4</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-    </row>
-    <row r="26" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="32">
-        <v>4003</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="32">
-        <v>4</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-    </row>
-    <row r="27" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="32">
-        <v>4004</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="32">
-        <v>4</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A28" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="32">
-        <v>4005</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="32">
-        <v>4</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-    </row>
-    <row r="29" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="32">
-        <v>4006</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="32">
-        <v>4</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A30" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="32">
-        <v>4007</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="32">
-        <v>4</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A31" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="32">
-        <v>4008</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="32">
-        <v>4</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A32" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="32">
-        <v>4009</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="32">
-        <v>4</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="32">
-        <v>4010</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="32">
-        <v>4</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="32">
-        <v>4011</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="32">
-        <v>4</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="32">
-        <v>4012</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="32">
-        <v>4</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="32">
-        <v>4013</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="32">
-        <v>4</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="32">
-        <v>4014</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="32">
-        <v>4</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="32">
-        <v>5000</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="32">
-        <v>5</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="32">
-        <v>6000</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="32">
-        <v>6</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="32">
-        <v>6001</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="32">
-        <v>6</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="42" t="s">
+      <c r="G46" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="32">
-        <v>6002</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="32">
-        <v>6</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="6:19" x14ac:dyDescent="0.4">
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="29"/>
-      <c r="M76" s="29"/>
-      <c r="N76" s="29"/>
-      <c r="O76" s="29"/>
-      <c r="P76" s="30"/>
-      <c r="Q76" s="30"/>
-      <c r="R76" s="30"/>
-      <c r="S76" s="30"/>
-    </row>
-    <row r="77" spans="6:19" x14ac:dyDescent="0.4">
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="30"/>
-      <c r="Q77" s="30"/>
-      <c r="R77" s="30"/>
-      <c r="S77" s="30"/>
+      <c r="H46" s="36">
+        <v>10</v>
+      </c>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A47" s="37"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C52" s="28"/>
+    </row>
+    <row r="76" spans="9:16" x14ac:dyDescent="0.4">
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="28"/>
+      <c r="P76" s="28"/>
+    </row>
+    <row r="77" spans="9:16" x14ac:dyDescent="0.4">
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
+      <c r="P77" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/Effect_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF88B5F4-6BF5-43E1-86A6-FF7B2E6761EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCD95A8-3B36-4515-AB2E-CE233FDD5BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <author>홍진선</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{37742574-7532-4EB4-878F-FE7663E09C58}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{53DF53D8-8944-48E1-BA62-A8A56CF025C9}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,84 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>[효과 종류]
+          <t>[효과의 종류]
+0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: 일반 효과 (DEFAULT)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: 버프 (BUFF)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">: 디버프 (DEBUFF)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{37742574-7532-4EB4-878F-FE7663E09C58}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[효과의 유형]
 0</t>
         </r>
         <r>
@@ -484,6 +561,29 @@
           <t xml:space="preserve">: 변경 (CHANGE) 
 </t>
         </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>40</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: 인스턴싱 (INSTANCING)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -491,7 +591,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="267">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,14 +685,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력 고정 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 비율 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -881,8 +973,729 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>sub_type_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_type_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type별 상세 효과 유형 key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type별 상세 효과 유형 value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attak Power Minus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attak Power Decrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Identity Gauge Recover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Identity Gauge n% Recover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penalty Gauge Gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paralysis Immunity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push Immunity</t>
+  </si>
+  <si>
+    <t>Debuff Immunity</t>
+  </si>
+  <si>
+    <t>Special Buff - Heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special Buff - Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special Buff - Invincibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special Buff - Stealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitReaction - Paralysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitReaction - Push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special Debuff - Poision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special Debuff - Bleed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special Debuff - Fear</t>
+  </si>
+  <si>
+    <t>Special Debuff - Stun</t>
+  </si>
+  <si>
+    <t>Special Debuff - Sleep</t>
+  </si>
+  <si>
+    <t>Special Debuff - Imprison</t>
+  </si>
+  <si>
+    <t>Special Debuff - Electrocution</t>
+  </si>
+  <si>
+    <t>Special Debuff - Freeze</t>
+  </si>
+  <si>
+    <t>Special Debuff - Petrify</t>
+  </si>
+  <si>
+    <t>Special Debuff - Earthquake</t>
+  </si>
+  <si>
+    <t>Special Debuff - Pest</t>
+  </si>
+  <si>
+    <t>Special Debuff - Fascination</t>
+  </si>
+  <si>
+    <t>Special Debuff - Burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooldown Reduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재사용 대기 시간 &amp; 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooldown Reduction(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 % 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민첩 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strength Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dexterity Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intelligence Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>체력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 % 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 공격력 % 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 적중률 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 피해 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 주는 피해 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 피해 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon Power Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon Power Increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 방어력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 방어력 % 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 방어력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 방어력 % 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack Speed Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move Speed Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical Rate Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical Damage Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outgoing Damage Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Additional Damage Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical Defense Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical Defense Increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magical Defense Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magical Defense Increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 생명력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max HP Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vitality Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vitality Increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vigor Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vigor Increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명 활성력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명 활성력 % 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특화 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신속 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제압 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인내 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙련 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crit Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specialization Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domination Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swiftness Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endurance Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expertise Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialization</t>
+  </si>
+  <si>
+    <t>domination</t>
+  </si>
+  <si>
+    <t>swiftness</t>
+  </si>
+  <si>
+    <t>endurance</t>
+  </si>
+  <si>
+    <t>expertise</t>
+  </si>
+  <si>
+    <t>vitality</t>
+  </si>
+  <si>
+    <t>vigor</t>
+  </si>
+  <si>
+    <t>wp_pwr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phy_def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mag_def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_spd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move_spd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cri_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cri_dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outgoing_dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>additional_dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 % 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 저항률 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical Resistance Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cri_resis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 저항률 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 공격에 받는 피해 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 방어력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical Defense Minus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 방어력 % 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical Defense Decrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 방어력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 방어력 % 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magical Defense Minus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magical Defense Decrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical Resistance Minus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incoming Damage Increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>final_dmg_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical Incoming Damage Increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cri_final_dmg_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 속성 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전 속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cast Speed Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast_spd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill Type Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작 방식 변경 (타입 변경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX 색상 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vfx_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vfx_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animation Resource Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisualEffect Resource Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisualEffect Color Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound Resource Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">효과의 유형
+      <t xml:space="preserve">효과의 종류  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 일반 효과 (DEFAULT)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 버프 등 이로운 효과(BUFF) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 디버프 등 해로운 효과 (DEBUFF)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과의 유형  
 </t>
     </r>
     <r>
@@ -1066,314 +1879,11 @@
       </rPr>
       <t>: 오브젝트 제어(OBJECT_CONTROL)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 리소스 제어(RESOURCE_CONTROL)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과의 종류
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 일반 효과(DEFAULT)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 버프(BUFF)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 디버프(DEBUFF)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_type_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_type_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type별 상세 효과 유형 key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type별 상세 효과 유형 value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attak Power Minus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attak Power Decrease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Identity Gauge Recover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Identity Gauge n% Recover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Penalty Gauge Gain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paralysis Immunity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Push Immunity</t>
-  </si>
-  <si>
-    <t>Debuff Immunity</t>
-  </si>
-  <si>
-    <t>Special Buff - Heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Special Buff - Shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Special Buff - Invincibility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Special Buff - Stealth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitReaction - Paralysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitReaction - Push</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Special Debuff - Poision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Special Debuff - Bleed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Special Debuff - Fear</t>
-  </si>
-  <si>
-    <t>Special Debuff - Stun</t>
-  </si>
-  <si>
-    <t>Special Debuff - Sleep</t>
-  </si>
-  <si>
-    <t>Special Debuff - Imprison</t>
-  </si>
-  <si>
-    <t>Special Debuff - Electrocution</t>
-  </si>
-  <si>
-    <t>Special Debuff - Freeze</t>
-  </si>
-  <si>
-    <t>Special Debuff - Petrify</t>
-  </si>
-  <si>
-    <t>Special Debuff - Earthquake</t>
-  </si>
-  <si>
-    <t>Special Debuff - Pest</t>
-  </si>
-  <si>
-    <t>Special Debuff - Fascination</t>
-  </si>
-  <si>
-    <t>Special Debuff - Burn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cooldown Reduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재사용 대기 시간 &amp; 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cooldown Reduction(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬의 속성 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콤보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 단축키 입력 후 동작이 끝나기 전에 단축키를 재입력하면, 연계 동작이 발생하는 스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 최대 연계 동작 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type 별 상세 효과 유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과가 적용되는 방식
+      <t xml:space="preserve">효과가 적용되는 방식  
 </t>
     </r>
     <r>
@@ -1476,8 +1986,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 비율 증가(INCREASE) 
-</t>
+      <t xml:space="preserve">: 비율 증가(INCREASE) </t>
     </r>
     <r>
       <rPr>
@@ -1629,35 +2138,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 % 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 증가</t>
+    <t>소환수 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영역 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creature Summon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1669,7 +2190,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1804,8 +2325,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1848,14 +2376,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFB3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2080,53 +2602,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color theme="0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2134,77 +2621,12 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2213,7 +2635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2283,12 +2705,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2328,6 +2744,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2337,38 +2756,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2378,9 +2773,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFFFB3"/>
       <color rgb="FFFFFFD5"/>
       <color rgb="FFFFFFC5"/>
+      <color rgb="FFFFFFB3"/>
       <color rgb="FFF9FAFD"/>
       <color rgb="FFD7DFF1"/>
     </mruColors>
@@ -2693,10 +3088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:L75"/>
+  <dimension ref="B1:I66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -2706,21 +3101,21 @@
     <col min="3" max="3" width="3.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.09765625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="67.296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="122" style="3" customWidth="1"/>
     <col min="7" max="7" width="8.69921875" style="4" customWidth="1"/>
     <col min="8" max="9" width="8.796875" style="2"/>
     <col min="10" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="38" t="s">
+    <row r="1" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2735,7 +3130,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
@@ -2750,7 +3145,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
@@ -2764,12 +3159,12 @@
       <c r="E5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="31" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C6" s="16">
         <f t="shared" ref="C6:C8" si="0">ROW(C6)-4</f>
         <v>2</v>
@@ -2780,28 +3175,28 @@
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="32" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:12" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" ht="26.4" x14ac:dyDescent="0.4">
       <c r="C7" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="34" t="s">
-        <v>98</v>
+      <c r="F7" s="32" t="s">
+        <v>253</v>
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:12" ht="39.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" ht="26.4" x14ac:dyDescent="0.4">
       <c r="C8" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2812,152 +3207,120 @@
       <c r="E8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="34" t="s">
-        <v>97</v>
+      <c r="F8" s="32" t="s">
+        <v>254</v>
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C9" s="16">
         <f>ROW(C9)-4</f>
         <v>5</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>101</v>
+      <c r="F9" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C10" s="16">
         <f t="shared" ref="C10:C11" si="1">ROW(C10)-4</f>
         <v>6</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="34" t="s">
-        <v>102</v>
+      <c r="F10" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="2:12" ht="39.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" ht="26.4" x14ac:dyDescent="0.4">
       <c r="C11" s="16">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="34" t="s">
-        <v>142</v>
+      <c r="F11" s="32" t="s">
+        <v>255</v>
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="14" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="4"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C16" s="48">
-        <v>1</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C18" s="2"/>
-      <c r="I18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C19" s="2"/>
-      <c r="F19" s="23"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.4">
@@ -3062,38 +3425,9 @@
     <row r="66" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C75" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3103,1254 +3437,2705 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:P125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.796875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.09765625" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.8984375" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.296875" style="31" customWidth="1"/>
-    <col min="10" max="12" width="15.69921875" style="31" customWidth="1"/>
-    <col min="13" max="16" width="18.69921875" style="29" customWidth="1"/>
-    <col min="17" max="16384" width="8.796875" style="29"/>
+    <col min="1" max="1" width="20.3984375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="25.796875" style="28" customWidth="1"/>
+    <col min="4" max="5" width="9.19921875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="5.296875" style="29" customWidth="1"/>
+    <col min="10" max="12" width="15.69921875" style="29" customWidth="1"/>
+    <col min="13" max="16" width="18.69921875" style="27" customWidth="1"/>
+    <col min="17" max="16384" width="8.796875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="F1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="28">
         <v>100</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="28">
+        <v>0</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="28">
+        <v>101</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="28">
+        <v>102</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="28">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="28">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28">
+        <v>1</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="28">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="28">
+        <v>1</v>
+      </c>
+      <c r="E7" s="28">
+        <v>1</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="28">
+        <v>1002</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="28">
+        <v>1</v>
+      </c>
+      <c r="E8" s="28">
+        <v>1</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="28">
+        <v>1003</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="28">
+        <v>1</v>
+      </c>
+      <c r="E9" s="28">
+        <v>1</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="28">
+        <v>1004</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="28">
+        <v>1</v>
+      </c>
+      <c r="E10" s="28">
+        <v>1</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="28">
+        <v>1005</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="28">
+        <v>1</v>
+      </c>
+      <c r="E11" s="28">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="28">
+        <v>1006</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="28">
+        <v>1</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="28">
+        <v>1007</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="28">
+        <v>1</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="28">
+        <v>1008</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="28">
+        <v>1</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="28">
+        <v>1009</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="28">
+        <v>1</v>
+      </c>
+      <c r="E15" s="28">
+        <v>1</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="28">
+        <v>1010</v>
+      </c>
+      <c r="C16" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D16" s="28">
+        <v>1</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="28">
+        <v>1011</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="28">
+        <v>1</v>
+      </c>
+      <c r="E17" s="28">
+        <v>1</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="28">
+        <v>1012</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="28">
+        <v>1</v>
+      </c>
+      <c r="E18" s="28">
+        <v>1</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="28">
+        <v>1013</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="28">
+        <v>1</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A20" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="28">
+        <v>1014</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="28">
+        <v>1</v>
+      </c>
+      <c r="E20" s="28">
+        <v>1</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A21" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="28">
+        <v>1015</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="28">
+        <v>1</v>
+      </c>
+      <c r="E21" s="28">
+        <v>1</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A22" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="28">
+        <v>1016</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="28">
+        <v>1</v>
+      </c>
+      <c r="E22" s="28">
+        <v>1</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A23" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="28">
+        <v>1017</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="28">
+        <v>1</v>
+      </c>
+      <c r="E23" s="28">
+        <v>1</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A24" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="28">
+        <v>1018</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="28">
+        <v>1</v>
+      </c>
+      <c r="E24" s="28">
+        <v>1</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A25" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="28">
+        <v>1019</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="28">
+        <v>1</v>
+      </c>
+      <c r="E25" s="28">
+        <v>1</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A26" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="28">
+        <v>1020</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="28">
+        <v>1</v>
+      </c>
+      <c r="E26" s="28">
+        <v>1</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A27" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="28">
+        <v>1021</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="28">
+        <v>1</v>
+      </c>
+      <c r="E27" s="28">
+        <v>1</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A28" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="28">
+        <v>1022</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A29" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="28">
+        <v>1023</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="28">
+        <v>1</v>
+      </c>
+      <c r="E29" s="28">
+        <v>1</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A30" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="28">
+        <v>1024</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="28">
+        <v>1</v>
+      </c>
+      <c r="E30" s="28">
+        <v>1</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A31" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="28">
+        <v>1025</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="28">
+        <v>1</v>
+      </c>
+      <c r="E31" s="28">
+        <v>1</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A32" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" s="28">
+        <v>1026</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="28">
+        <v>1</v>
+      </c>
+      <c r="E32" s="28">
+        <v>1</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A33" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="28">
+        <v>1027</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="28">
+        <v>1</v>
+      </c>
+      <c r="E33" s="28">
+        <v>1</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="25"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A34" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="28">
+        <v>1028</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="28">
+        <v>1</v>
+      </c>
+      <c r="E34" s="28">
+        <v>1</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A35" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+    </row>
+    <row r="36" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="28">
+        <v>1990</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="28">
         <v>0</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E36" s="28">
+        <v>1</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="26">
+        <v>10</v>
+      </c>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+    </row>
+    <row r="37" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="28">
+        <v>1991</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="28">
         <v>0</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="30">
-        <v>101</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="30">
+      <c r="E37" s="28">
+        <v>1</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="26">
+        <v>10</v>
+      </c>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A38" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F38" s="28"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A39" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" s="28">
+        <v>2000</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="28">
+        <v>2</v>
+      </c>
+      <c r="E39" s="28">
+        <v>1</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A40" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="28">
+        <v>2001</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="28">
+        <v>2</v>
+      </c>
+      <c r="E40" s="28">
+        <v>1</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A41" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="B41" s="28">
+        <v>2002</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" s="28">
+        <v>2</v>
+      </c>
+      <c r="E41" s="28">
+        <v>1</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A42" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="B42" s="28">
+        <v>2003</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" s="28">
+        <v>2</v>
+      </c>
+      <c r="E42" s="28">
+        <v>1</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="H42" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A43" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" s="28">
+        <v>2004</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" s="28">
+        <v>2</v>
+      </c>
+      <c r="E43" s="28">
+        <v>1</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A44" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" s="28">
+        <v>2005</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" s="28">
+        <v>2</v>
+      </c>
+      <c r="E44" s="28">
+        <v>1</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A45" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" s="28">
+        <v>2006</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" s="28">
+        <v>2</v>
+      </c>
+      <c r="E45" s="28">
+        <v>1</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="H45" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A46" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="28">
+        <v>2007</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="28">
+        <v>2</v>
+      </c>
+      <c r="E46" s="28">
+        <v>1</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="H46" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A47" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" s="28">
+        <v>2008</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D47" s="28">
+        <v>2</v>
+      </c>
+      <c r="E47" s="28">
+        <v>1</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="H47" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A48" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F48" s="28"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+    </row>
+    <row r="49" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="28">
+        <v>2990</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="28">
         <v>0</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E49" s="28">
+        <v>1</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="26">
+        <v>10</v>
+      </c>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A50" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F50" s="28"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+    </row>
+    <row r="51" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="28">
+        <v>3000</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="28">
+        <v>1</v>
+      </c>
+      <c r="E51" s="28">
+        <v>2</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+    </row>
+    <row r="52" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="28">
+        <v>3001</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="28">
+        <v>1</v>
+      </c>
+      <c r="E52" s="28">
+        <v>2</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+    </row>
+    <row r="53" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="28">
+        <v>3002</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="28">
+        <v>1</v>
+      </c>
+      <c r="E53" s="28">
+        <v>2</v>
+      </c>
+      <c r="F53" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A54" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="28">
+        <v>3003</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="28">
+        <v>1</v>
+      </c>
+      <c r="E54" s="28">
+        <v>2</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A55" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="28">
+        <v>3004</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="28">
+        <v>1</v>
+      </c>
+      <c r="E55" s="28">
+        <v>2</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="28">
+        <v>3005</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="28">
+        <v>1</v>
+      </c>
+      <c r="E56" s="28">
+        <v>2</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+    </row>
+    <row r="57" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="28">
+        <v>3006</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="28">
+        <v>1</v>
+      </c>
+      <c r="E57" s="28">
+        <v>2</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H57" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A58" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F58" s="28"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A59" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="28">
+        <v>4000</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="28">
+        <v>2</v>
+      </c>
+      <c r="E59" s="28">
+        <v>2</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G59" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="26"/>
+    </row>
+    <row r="60" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="28">
+        <v>4001</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" s="28">
+        <v>2</v>
+      </c>
+      <c r="E60" s="28">
+        <v>2</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H60" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A61" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="28">
+        <v>4002</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="28">
+        <v>2</v>
+      </c>
+      <c r="E61" s="28">
+        <v>2</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A62" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="28">
+        <v>4003</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="28">
+        <v>2</v>
+      </c>
+      <c r="E62" s="28">
+        <v>2</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A63" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="28">
+        <v>4004</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="28">
+        <v>2</v>
+      </c>
+      <c r="E63" s="28">
+        <v>2</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H63" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="26"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A64" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" s="28">
+        <v>4005</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" s="28">
+        <v>2</v>
+      </c>
+      <c r="E64" s="28">
+        <v>2</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A65" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="28">
+        <v>4006</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="28">
+        <v>2</v>
+      </c>
+      <c r="E65" s="28">
+        <v>2</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A66" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="28">
+        <v>4007</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="28">
+        <v>2</v>
+      </c>
+      <c r="E66" s="28">
+        <v>2</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A67" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="28">
+        <v>4008</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="28">
+        <v>2</v>
+      </c>
+      <c r="E67" s="28">
+        <v>2</v>
+      </c>
+      <c r="F67" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A68" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="28">
+        <v>4009</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="28">
+        <v>2</v>
+      </c>
+      <c r="E68" s="28">
+        <v>2</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H68" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A69" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="28">
+        <v>4010</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="28">
+        <v>2</v>
+      </c>
+      <c r="E69" s="28">
+        <v>2</v>
+      </c>
+      <c r="F69" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A70" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="28">
+        <v>4011</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="28">
+        <v>2</v>
+      </c>
+      <c r="E70" s="28">
+        <v>2</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G70" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A71" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" s="28">
+        <v>4012</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" s="28">
+        <v>2</v>
+      </c>
+      <c r="E71" s="28">
+        <v>2</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G71" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A72" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="28">
+        <v>4013</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="28">
+        <v>2</v>
+      </c>
+      <c r="E72" s="28">
+        <v>2</v>
+      </c>
+      <c r="F72" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H72" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A73" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="28">
+        <v>4014</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" s="28">
+        <v>2</v>
+      </c>
+      <c r="E73" s="28">
+        <v>2</v>
+      </c>
+      <c r="F73" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G73" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H73" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A74" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A75" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B75" s="28">
+        <v>5000</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="D75" s="28">
         <v>0</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="30">
-        <v>102</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="30">
+      <c r="E75" s="28">
+        <v>3</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G75" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="H75" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A76" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B76" s="28">
+        <v>5001</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" s="28">
         <v>0</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E76" s="28">
+        <v>3</v>
+      </c>
+      <c r="F76" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G76" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H76" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A77" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" s="28">
+        <v>5002</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="28">
+        <v>1</v>
+      </c>
+      <c r="E77" s="28">
+        <v>3</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H77" s="34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A78" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="28">
+        <v>5003</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="28">
+        <v>1</v>
+      </c>
+      <c r="E78" s="28">
+        <v>3</v>
+      </c>
+      <c r="F78" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G78" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H78" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A79" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="B79" s="28">
+        <v>5004</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" s="28">
+        <v>1</v>
+      </c>
+      <c r="E79" s="28">
+        <v>3</v>
+      </c>
+      <c r="F79" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H79" s="34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A80" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" s="28">
+        <v>5005</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" s="28">
+        <v>1</v>
+      </c>
+      <c r="E80" s="28">
+        <v>3</v>
+      </c>
+      <c r="F80" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G80" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H80" s="34">
+        <v>10</v>
+      </c>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="26"/>
+      <c r="P80" s="26"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A81" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="28">
+        <v>5006</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81" s="28">
+        <v>1</v>
+      </c>
+      <c r="E81" s="28">
+        <v>3</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H81" s="34">
+        <v>10</v>
+      </c>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="26"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A82" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B82" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F82" s="28"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="26"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A83" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="B83" s="28">
+        <v>5900</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="D83" s="28">
         <v>0</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="30">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="30">
-        <v>1</v>
-      </c>
-      <c r="E6" s="30">
-        <v>1</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="30">
-        <v>1001</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="30">
-        <v>1</v>
-      </c>
-      <c r="E7" s="30">
-        <v>1</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-    </row>
-    <row r="9" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="32"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="30">
-        <v>2000</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="30">
-        <v>1</v>
-      </c>
-      <c r="E10" s="30">
-        <v>2</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="30">
-        <v>2001</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="30">
-        <v>1</v>
-      </c>
-      <c r="E11" s="30">
-        <v>2</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="F12" s="30"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-    </row>
-    <row r="13" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="30">
-        <v>2990</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="30">
-        <v>1</v>
-      </c>
-      <c r="E13" s="30">
+      <c r="E83" s="28">
+        <v>3</v>
+      </c>
+      <c r="F83" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G83" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="H83" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A84" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="B84" s="28">
+        <v>5901</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="D84" s="28">
         <v>0</v>
       </c>
-      <c r="F13" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="28">
-        <v>10</v>
-      </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-    </row>
-    <row r="14" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="30">
-        <v>2991</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="30">
-        <v>1</v>
-      </c>
-      <c r="E14" s="30">
+      <c r="E84" s="28">
+        <v>3</v>
+      </c>
+      <c r="F84" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G84" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="H84" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A85" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="B85" s="28">
+        <v>5902</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D85" s="28">
         <v>0</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="28">
-        <v>10</v>
-      </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-    </row>
-    <row r="15" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="30">
-        <v>2992</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="30">
-        <v>1</v>
-      </c>
-      <c r="E15" s="30">
+      <c r="E85" s="28">
+        <v>3</v>
+      </c>
+      <c r="F85" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G85" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="H85" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A86" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="B86" s="28">
+        <v>5903</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86" s="28">
         <v>0</v>
       </c>
-      <c r="F15" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="28">
-        <v>10</v>
-      </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-    </row>
-    <row r="16" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="32"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-    </row>
-    <row r="17" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="30">
-        <v>3000</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="30">
-        <v>2</v>
-      </c>
-      <c r="E17" s="30">
-        <v>1</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-    </row>
-    <row r="18" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="30">
-        <v>3001</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="30">
-        <v>2</v>
-      </c>
-      <c r="E18" s="30">
-        <v>1</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="30">
-        <v>3002</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="30">
-        <v>2</v>
-      </c>
-      <c r="E19" s="30">
-        <v>1</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A20" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="30">
-        <v>3003</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="30">
-        <v>2</v>
-      </c>
-      <c r="E20" s="30">
-        <v>1</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A21" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="30">
-        <v>3004</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="30">
-        <v>2</v>
-      </c>
-      <c r="E21" s="30">
-        <v>1</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="30">
-        <v>3005</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="30">
-        <v>2</v>
-      </c>
-      <c r="E22" s="30">
-        <v>1</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-    </row>
-    <row r="23" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="30">
-        <v>3006</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="30">
-        <v>2</v>
-      </c>
-      <c r="E23" s="30">
-        <v>1</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-    </row>
-    <row r="24" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="32"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="30">
-        <v>4000</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="30">
-        <v>2</v>
-      </c>
-      <c r="E25" s="30">
+      <c r="E86" s="28">
+        <v>3</v>
+      </c>
+      <c r="F86" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G86" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="H86" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A87" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B87" s="28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A88" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="B88" s="28">
+        <v>6000</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="D88" s="28">
         <v>0</v>
       </c>
-      <c r="F25" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-    </row>
-    <row r="26" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="30">
-        <v>4001</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="30">
-        <v>2</v>
-      </c>
-      <c r="E26" s="30">
+      <c r="E88" s="28">
+        <v>4</v>
+      </c>
+      <c r="F88" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="G88" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="H88" s="34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A89" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="B89" s="28">
+        <v>6001</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D89" s="28">
         <v>0</v>
       </c>
-      <c r="F26" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A27" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="30">
-        <v>4002</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="30">
-        <v>2</v>
-      </c>
-      <c r="E27" s="30">
-        <v>2</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A28" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="30">
-        <v>4003</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="30">
-        <v>2</v>
-      </c>
-      <c r="E28" s="30">
-        <v>2</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A29" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="30">
-        <v>4004</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="30">
-        <v>2</v>
-      </c>
-      <c r="E29" s="30">
-        <v>2</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A30" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="30">
-        <v>4005</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="30">
-        <v>2</v>
-      </c>
-      <c r="E30" s="30">
-        <v>2</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A31" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="30">
-        <v>4006</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="30">
-        <v>2</v>
-      </c>
-      <c r="E31" s="30">
-        <v>2</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A32" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="30">
-        <v>4007</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" s="30">
-        <v>2</v>
-      </c>
-      <c r="E32" s="30">
-        <v>2</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A33" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="30">
-        <v>4008</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="30">
-        <v>2</v>
-      </c>
-      <c r="E33" s="30">
-        <v>2</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A34" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="30">
-        <v>4009</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="30">
-        <v>2</v>
-      </c>
-      <c r="E34" s="30">
-        <v>2</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A35" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="30">
-        <v>4010</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="30">
-        <v>2</v>
-      </c>
-      <c r="E35" s="30">
-        <v>2</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A36" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="30">
-        <v>4011</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="30">
-        <v>2</v>
-      </c>
-      <c r="E36" s="30">
-        <v>2</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A37" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="30">
-        <v>4012</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="30">
-        <v>2</v>
-      </c>
-      <c r="E37" s="30">
-        <v>2</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A38" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="30">
-        <v>4013</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="30">
-        <v>2</v>
-      </c>
-      <c r="E38" s="30">
-        <v>2</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A39" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="30">
-        <v>4014</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="30">
-        <v>2</v>
-      </c>
-      <c r="E39" s="30">
-        <v>2</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A41" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="30">
-        <v>5000</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" s="30">
-        <v>3</v>
-      </c>
-      <c r="E41" s="30">
+      <c r="E89" s="28">
+        <v>4</v>
+      </c>
+      <c r="F89" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="G89" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="H89" s="34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A90" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="B90" s="28">
+        <v>6002</v>
+      </c>
+      <c r="C90" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D90" s="28">
         <v>0</v>
       </c>
-      <c r="F41" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A42" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="30">
-        <v>5001</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="30">
-        <v>3</v>
-      </c>
-      <c r="E42" s="30">
-        <v>0</v>
-      </c>
-      <c r="F42" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="H42" s="36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A43" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="30">
-        <v>5002</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="30">
-        <v>3</v>
-      </c>
-      <c r="E43" s="30">
-        <v>0</v>
-      </c>
-      <c r="F43" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="H43" s="36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A45" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="30">
-        <v>5100</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="30">
-        <v>1</v>
-      </c>
-      <c r="E45" s="30">
-        <v>0</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" s="36">
-        <v>10</v>
-      </c>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A46" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="30">
-        <v>5101</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="30">
-        <v>1</v>
-      </c>
-      <c r="E46" s="30">
-        <v>0</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="G46" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" s="36">
-        <v>10</v>
-      </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A47" s="37"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C52" s="28"/>
-    </row>
-    <row r="76" spans="9:16" x14ac:dyDescent="0.4">
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="28"/>
-    </row>
-    <row r="77" spans="9:16" x14ac:dyDescent="0.4">
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="28"/>
+      <c r="E90" s="28">
+        <v>4</v>
+      </c>
+      <c r="F90" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="G90" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="H90" s="34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A95" s="35"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C100" s="26"/>
+    </row>
+    <row r="124" spans="9:16" x14ac:dyDescent="0.4">
+      <c r="I124" s="25"/>
+      <c r="J124" s="25"/>
+      <c r="K124" s="25"/>
+      <c r="L124" s="25"/>
+      <c r="M124" s="26"/>
+      <c r="N124" s="26"/>
+      <c r="O124" s="26"/>
+      <c r="P124" s="26"/>
+    </row>
+    <row r="125" spans="9:16" x14ac:dyDescent="0.4">
+      <c r="I125" s="25"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="25"/>
+      <c r="L125" s="25"/>
+      <c r="M125" s="26"/>
+      <c r="N125" s="26"/>
+      <c r="O125" s="26"/>
+      <c r="P125" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/Effect_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCD95A8-3B36-4515-AB2E-CE233FDD5BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8353C4-D0B4-423D-BF7F-8C99FDFB3334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -367,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{2C962809-0302-4021-B11A-351686D4935E}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{2C962809-0302-4021-B11A-351686D4935E}">
       <text>
         <r>
           <rPr>
@@ -591,7 +591,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="269">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -978,14 +978,6 @@
   </si>
   <si>
     <t>sub_type_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type별 상세 효과 유형 key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type별 상세 효과 유형 value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2181,6 +2173,71 @@
     <t>40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>sub_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">type별 상세 효과 유형 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(아래의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[비고 1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[비고 1] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type별 상세 효과</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type = 0 (피해형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2190,7 +2247,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2332,8 +2389,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2372,12 +2438,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2603,16 +2675,81 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
-        <color theme="0"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2623,10 +2760,27 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2635,7 +2789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2747,6 +2901,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2756,14 +2919,23 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3088,10 +3260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:I66"/>
+  <dimension ref="B1:I65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -3109,11 +3281,11 @@
   <sheetData>
     <row r="1" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="5" t="s">
@@ -3192,7 +3364,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G7" s="8"/>
     </row>
@@ -3208,69 +3380,68 @@
         <v>2</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C9" s="16">
-        <f>ROW(C9)-4</f>
+        <f t="shared" ref="C9:C10" si="1">ROW(C9)-4</f>
         <v>5</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>95</v>
+        <v>265</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>97</v>
+        <v>266</v>
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" ht="26.4" x14ac:dyDescent="0.4">
       <c r="C10" s="16">
-        <f t="shared" ref="C10:C11" si="1">ROW(C10)-4</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>98</v>
+        <v>253</v>
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="2:7" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="C11" s="16">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C15" s="2"/>
+    <row r="11" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="13" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="46">
+        <v>1</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C16" s="2"/>
@@ -3422,12 +3593,10 @@
     <row r="65" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C66" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3437,10 +3606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:P125"/>
+  <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
@@ -3449,17 +3618,17 @@
     <col min="2" max="2" width="6.59765625" style="28" customWidth="1"/>
     <col min="3" max="3" width="25.796875" style="28" customWidth="1"/>
     <col min="4" max="5" width="9.19921875" style="28" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" style="34" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="5.296875" style="29" customWidth="1"/>
-    <col min="10" max="12" width="15.69921875" style="29" customWidth="1"/>
-    <col min="13" max="16" width="18.69921875" style="27" customWidth="1"/>
-    <col min="17" max="16384" width="8.796875" style="27"/>
+    <col min="6" max="6" width="15.59765625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="5.296875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.09765625" style="34" customWidth="1"/>
+    <col min="10" max="11" width="15.69921875" style="29" customWidth="1"/>
+    <col min="12" max="15" width="18.69921875" style="27" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="23" t="s">
@@ -3474,26 +3643,25 @@
       <c r="E1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="24"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="41" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="28">
@@ -3508,26 +3676,25 @@
       <c r="E2" s="28">
         <v>0</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="L2" s="26"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="41" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="38" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="28">
@@ -3542,26 +3709,25 @@
       <c r="E3" s="28">
         <v>0</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="L3" s="26"/>
       <c r="M3" s="26"/>
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="41" t="s">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="28">
@@ -3576,50 +3742,48 @@
       <c r="E4" s="28">
         <v>0</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
       <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="41" t="s">
-        <v>212</v>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="38" t="s">
+        <v>210</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="I5" s="25"/>
+        <v>210</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
       <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="41" t="s">
-        <v>139</v>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="38" t="s">
+        <v>137</v>
       </c>
       <c r="B6" s="28">
         <v>1000</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" s="28">
         <v>1</v>
@@ -3627,33 +3791,32 @@
       <c r="E6" s="28">
         <v>1</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
       <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="41" t="s">
-        <v>140</v>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="38" t="s">
+        <v>138</v>
       </c>
       <c r="B7" s="28">
         <v>1001</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D7" s="28">
         <v>1</v>
@@ -3661,33 +3824,32 @@
       <c r="E7" s="28">
         <v>1</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="25"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="41" t="s">
-        <v>141</v>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="38" t="s">
+        <v>139</v>
       </c>
       <c r="B8" s="28">
         <v>1002</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="28">
         <v>1</v>
@@ -3695,33 +3857,32 @@
       <c r="E8" s="28">
         <v>1</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="25"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="41" t="s">
-        <v>182</v>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="38" t="s">
+        <v>180</v>
       </c>
       <c r="B9" s="28">
         <v>1003</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D9" s="28">
         <v>1</v>
@@ -3729,33 +3890,32 @@
       <c r="E9" s="28">
         <v>1</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="25"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="41" t="s">
-        <v>183</v>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="38" t="s">
+        <v>181</v>
       </c>
       <c r="B10" s="28">
         <v>1004</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="28">
         <v>1</v>
@@ -3763,33 +3923,32 @@
       <c r="E10" s="28">
         <v>1</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="25"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="41" t="s">
-        <v>185</v>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="38" t="s">
+        <v>183</v>
       </c>
       <c r="B11" s="28">
         <v>1005</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D11" s="28">
         <v>1</v>
@@ -3797,33 +3956,32 @@
       <c r="E11" s="28">
         <v>1</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="25"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="41" t="s">
-        <v>184</v>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="38" t="s">
+        <v>182</v>
       </c>
       <c r="B12" s="28">
         <v>1006</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D12" s="28">
         <v>1</v>
@@ -3831,33 +3989,32 @@
       <c r="E12" s="28">
         <v>1</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="25"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="41" t="s">
-        <v>186</v>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="38" t="s">
+        <v>184</v>
       </c>
       <c r="B13" s="28">
         <v>1007</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D13" s="28">
         <v>1</v>
@@ -3865,33 +4022,32 @@
       <c r="E13" s="28">
         <v>1</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="25"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="41" t="s">
-        <v>187</v>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="38" t="s">
+        <v>185</v>
       </c>
       <c r="B14" s="28">
         <v>1008</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D14" s="28">
         <v>1</v>
@@ -3899,27 +4055,26 @@
       <c r="E14" s="28">
         <v>1</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="25"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="41" t="s">
-        <v>138</v>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="38" t="s">
+        <v>136</v>
       </c>
       <c r="B15" s="28">
         <v>1009</v>
@@ -3933,27 +4088,26 @@
       <c r="E15" s="28">
         <v>1</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="25"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="41" t="s">
-        <v>137</v>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="38" t="s">
+        <v>135</v>
       </c>
       <c r="B16" s="28">
         <v>1010</v>
@@ -3967,33 +4121,32 @@
       <c r="E16" s="28">
         <v>1</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
       <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A17" s="41" t="s">
-        <v>150</v>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="38" t="s">
+        <v>148</v>
       </c>
       <c r="B17" s="28">
         <v>1011</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D17" s="28">
         <v>1</v>
@@ -4001,33 +4154,32 @@
       <c r="E17" s="28">
         <v>1</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" s="41" t="s">
-        <v>151</v>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="38" t="s">
+        <v>149</v>
       </c>
       <c r="B18" s="28">
         <v>1012</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D18" s="28">
         <v>1</v>
@@ -4035,33 +4187,32 @@
       <c r="E18" s="28">
         <v>1</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
       <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A19" s="41" t="s">
-        <v>148</v>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="38" t="s">
+        <v>146</v>
       </c>
       <c r="B19" s="28">
         <v>1013</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D19" s="28">
         <v>1</v>
@@ -4069,33 +4220,32 @@
       <c r="E19" s="28">
         <v>1</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="L19" s="26"/>
       <c r="M19" s="26"/>
       <c r="N19" s="26"/>
       <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A20" s="41" t="s">
-        <v>149</v>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="38" t="s">
+        <v>147</v>
       </c>
       <c r="B20" s="28">
         <v>1014</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D20" s="28">
         <v>1</v>
@@ -4103,33 +4253,32 @@
       <c r="E20" s="28">
         <v>1</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
+      <c r="L20" s="26"/>
       <c r="M20" s="26"/>
       <c r="N20" s="26"/>
       <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A21" s="41" t="s">
-        <v>180</v>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="38" t="s">
+        <v>178</v>
       </c>
       <c r="B21" s="28">
         <v>1015</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D21" s="28">
         <v>1</v>
@@ -4137,33 +4286,32 @@
       <c r="E21" s="28">
         <v>1</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
+      <c r="L21" s="26"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
       <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A22" s="41" t="s">
-        <v>181</v>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="38" t="s">
+        <v>179</v>
       </c>
       <c r="B22" s="28">
         <v>1016</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D22" s="28">
         <v>1</v>
@@ -4171,33 +4319,32 @@
       <c r="E22" s="28">
         <v>1</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
+      <c r="L22" s="26"/>
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A23" s="41" t="s">
-        <v>174</v>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="38" t="s">
+        <v>172</v>
       </c>
       <c r="B23" s="28">
         <v>1017</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D23" s="28">
         <v>1</v>
@@ -4205,33 +4352,32 @@
       <c r="E23" s="28">
         <v>1</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
+      <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" s="41" t="s">
-        <v>160</v>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="38" t="s">
+        <v>158</v>
       </c>
       <c r="B24" s="28">
         <v>1018</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D24" s="28">
         <v>1</v>
@@ -4239,33 +4385,32 @@
       <c r="E24" s="28">
         <v>1</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
+      <c r="L24" s="26"/>
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="41" t="s">
-        <v>161</v>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="38" t="s">
+        <v>159</v>
       </c>
       <c r="B25" s="28">
         <v>1019</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D25" s="28">
         <v>1</v>
@@ -4273,33 +4418,32 @@
       <c r="E25" s="28">
         <v>1</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G25" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
+      <c r="L25" s="26"/>
       <c r="M25" s="26"/>
       <c r="N25" s="26"/>
       <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A26" s="41" t="s">
-        <v>162</v>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="38" t="s">
+        <v>160</v>
       </c>
       <c r="B26" s="28">
         <v>1020</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D26" s="28">
         <v>1</v>
@@ -4307,33 +4451,32 @@
       <c r="E26" s="28">
         <v>1</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="26"/>
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A27" s="41" t="s">
-        <v>163</v>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="38" t="s">
+        <v>161</v>
       </c>
       <c r="B27" s="28">
         <v>1021</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D27" s="28">
         <v>1</v>
@@ -4341,33 +4484,32 @@
       <c r="E27" s="28">
         <v>1</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
       <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A28" s="41" t="s">
-        <v>152</v>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="38" t="s">
+        <v>150</v>
       </c>
       <c r="B28" s="28">
         <v>1022</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D28" s="28">
         <v>1</v>
@@ -4375,33 +4517,32 @@
       <c r="E28" s="28">
         <v>1</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
+      <c r="L28" s="26"/>
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
       <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A29" s="41" t="s">
-        <v>153</v>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="38" t="s">
+        <v>151</v>
       </c>
       <c r="B29" s="28">
         <v>1023</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D29" s="28">
         <v>1</v>
@@ -4409,33 +4550,32 @@
       <c r="E29" s="28">
         <v>1</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I29" s="25"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
+      <c r="L29" s="26"/>
       <c r="M29" s="26"/>
       <c r="N29" s="26"/>
       <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A30" s="41" t="s">
-        <v>154</v>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="38" t="s">
+        <v>152</v>
       </c>
       <c r="B30" s="28">
         <v>1024</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D30" s="28">
         <v>1</v>
@@ -4443,33 +4583,32 @@
       <c r="E30" s="28">
         <v>1</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I30" s="25"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
+      <c r="L30" s="26"/>
       <c r="M30" s="26"/>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A31" s="41" t="s">
-        <v>155</v>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" s="38" t="s">
+        <v>153</v>
       </c>
       <c r="B31" s="28">
         <v>1025</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D31" s="28">
         <v>1</v>
@@ -4477,33 +4616,32 @@
       <c r="E31" s="28">
         <v>1</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="H31" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I31" s="25"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
+      <c r="L31" s="26"/>
       <c r="M31" s="26"/>
       <c r="N31" s="26"/>
       <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A32" s="41" t="s">
-        <v>216</v>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="38" t="s">
+        <v>214</v>
       </c>
       <c r="B32" s="28">
         <v>1026</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D32" s="28">
         <v>1</v>
@@ -4511,33 +4649,32 @@
       <c r="E32" s="28">
         <v>1</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I32" s="25"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
+      <c r="L32" s="26"/>
       <c r="M32" s="26"/>
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A33" s="41" t="s">
-        <v>156</v>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33" s="38" t="s">
+        <v>154</v>
       </c>
       <c r="B33" s="28">
         <v>1027</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D33" s="28">
         <v>1</v>
@@ -4545,33 +4682,32 @@
       <c r="E33" s="28">
         <v>1</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="27"/>
+      <c r="J33" s="25"/>
       <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
+      <c r="L33" s="26"/>
       <c r="M33" s="26"/>
       <c r="N33" s="26"/>
       <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A34" s="41" t="s">
-        <v>157</v>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A34" s="38" t="s">
+        <v>155</v>
       </c>
       <c r="B34" s="28">
         <v>1028</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D34" s="28">
         <v>1</v>
@@ -4579,50 +4715,48 @@
       <c r="E34" s="28">
         <v>1</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="25"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="26"/>
       <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A35" s="41" t="s">
-        <v>212</v>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35" s="38" t="s">
+        <v>210</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="F35" s="28"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="25"/>
+        <v>210</v>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="26"/>
       <c r="M35" s="26"/>
       <c r="N35" s="26"/>
       <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-    </row>
-    <row r="36" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="41" t="s">
+    </row>
+    <row r="36" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B36" s="28">
         <v>1990</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D36" s="28">
         <v>0</v>
@@ -4630,29 +4764,28 @@
       <c r="E36" s="28">
         <v>1</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="26">
+        <v>10</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G36" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H36" s="26">
-        <v>10</v>
-      </c>
-      <c r="I36" s="25"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-    </row>
-    <row r="37" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="41" t="s">
+    </row>
+    <row r="37" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="38" t="s">
         <v>66</v>
       </c>
       <c r="B37" s="28">
         <v>1991</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D37" s="28">
         <v>0</v>
@@ -4660,46 +4793,44 @@
       <c r="E37" s="28">
         <v>1</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="26">
+        <v>10</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H37" s="26">
-        <v>10</v>
-      </c>
-      <c r="I37" s="25"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A38" s="41" t="s">
-        <v>212</v>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A38" s="38" t="s">
+        <v>210</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="F38" s="28"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="25"/>
+        <v>210</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="26"/>
       <c r="M38" s="26"/>
       <c r="N38" s="26"/>
       <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A39" s="41" t="s">
-        <v>213</v>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A39" s="38" t="s">
+        <v>211</v>
       </c>
       <c r="B39" s="28">
         <v>2000</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D39" s="28">
         <v>2</v>
@@ -4707,25 +4838,25 @@
       <c r="E39" s="28">
         <v>1</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I39" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A40" s="41" t="s">
-        <v>214</v>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A40" s="38" t="s">
+        <v>212</v>
       </c>
       <c r="B40" s="28">
         <v>2001</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D40" s="28">
         <v>2</v>
@@ -4733,33 +4864,32 @@
       <c r="E40" s="28">
         <v>1</v>
       </c>
-      <c r="F40" s="28" t="s">
+      <c r="F40" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="25"/>
+      <c r="I40" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="I40" s="25"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
+      <c r="L40" s="26"/>
       <c r="M40" s="26"/>
       <c r="N40" s="26"/>
       <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A41" s="41" t="s">
-        <v>221</v>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A41" s="38" t="s">
+        <v>219</v>
       </c>
       <c r="B41" s="28">
         <v>2002</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D41" s="28">
         <v>2</v>
@@ -4767,33 +4897,32 @@
       <c r="E41" s="28">
         <v>1</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="F41" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41" s="25"/>
+      <c r="I41" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G41" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="H41" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="I41" s="25"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
+      <c r="L41" s="26"/>
       <c r="M41" s="26"/>
       <c r="N41" s="26"/>
       <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A42" s="41" t="s">
-        <v>223</v>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A42" s="38" t="s">
+        <v>221</v>
       </c>
       <c r="B42" s="28">
         <v>2003</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D42" s="28">
         <v>2</v>
@@ -4801,33 +4930,32 @@
       <c r="E42" s="28">
         <v>1</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="H42" s="25"/>
+      <c r="I42" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G42" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="H42" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="I42" s="25"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
+      <c r="L42" s="26"/>
       <c r="M42" s="26"/>
       <c r="N42" s="26"/>
       <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A43" s="41" t="s">
-        <v>225</v>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A43" s="38" t="s">
+        <v>223</v>
       </c>
       <c r="B43" s="28">
         <v>2004</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D43" s="28">
         <v>2</v>
@@ -4835,33 +4963,32 @@
       <c r="E43" s="28">
         <v>1</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G43" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="H43" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="I43" s="25"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
+      <c r="L43" s="26"/>
       <c r="M43" s="26"/>
       <c r="N43" s="26"/>
       <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A44" s="41" t="s">
-        <v>226</v>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A44" s="38" t="s">
+        <v>224</v>
       </c>
       <c r="B44" s="28">
         <v>2005</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D44" s="28">
         <v>2</v>
@@ -4869,33 +4996,32 @@
       <c r="E44" s="28">
         <v>1</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="H44" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="I44" s="25"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
+      <c r="L44" s="26"/>
       <c r="M44" s="26"/>
       <c r="N44" s="26"/>
       <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A45" s="41" t="s">
-        <v>219</v>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A45" s="38" t="s">
+        <v>217</v>
       </c>
       <c r="B45" s="28">
         <v>2006</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D45" s="28">
         <v>2</v>
@@ -4903,33 +5029,32 @@
       <c r="E45" s="28">
         <v>1</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="H45" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="I45" s="25"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
+      <c r="L45" s="26"/>
       <c r="M45" s="26"/>
       <c r="N45" s="26"/>
       <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A46" s="41" t="s">
-        <v>215</v>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A46" s="38" t="s">
+        <v>213</v>
       </c>
       <c r="B46" s="28">
         <v>2007</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D46" s="28">
         <v>2</v>
@@ -4937,33 +5062,32 @@
       <c r="E46" s="28">
         <v>1</v>
       </c>
-      <c r="F46" s="28" t="s">
+      <c r="F46" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="G46" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G46" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="H46" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="I46" s="25"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
+      <c r="L46" s="26"/>
       <c r="M46" s="26"/>
       <c r="N46" s="26"/>
       <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A47" s="41" t="s">
-        <v>220</v>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A47" s="38" t="s">
+        <v>218</v>
       </c>
       <c r="B47" s="28">
         <v>2008</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D47" s="28">
         <v>2</v>
@@ -4971,50 +5095,48 @@
       <c r="E47" s="28">
         <v>1</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" s="25"/>
+      <c r="I47" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G47" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="H47" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="I47" s="25"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
+      <c r="L47" s="26"/>
       <c r="M47" s="26"/>
       <c r="N47" s="26"/>
       <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
-        <v>212</v>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A48" s="38" t="s">
+        <v>210</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="F48" s="28"/>
-      <c r="I48" s="25"/>
+        <v>210</v>
+      </c>
+      <c r="H48" s="25"/>
+      <c r="I48" s="28"/>
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
+      <c r="L48" s="26"/>
       <c r="M48" s="26"/>
       <c r="N48" s="26"/>
       <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-    </row>
-    <row r="49" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="42" t="s">
+    </row>
+    <row r="49" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="39" t="s">
         <v>67</v>
       </c>
       <c r="B49" s="28">
         <v>2990</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D49" s="28">
         <v>0</v>
@@ -5022,46 +5144,44 @@
       <c r="E49" s="28">
         <v>1</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="F49" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" s="26">
+        <v>10</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G49" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" s="26">
-        <v>10</v>
-      </c>
-      <c r="I49" s="25"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A50" s="41" t="s">
-        <v>212</v>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A50" s="38" t="s">
+        <v>210</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="F50" s="28"/>
-      <c r="I50" s="25"/>
+        <v>210</v>
+      </c>
+      <c r="H50" s="25"/>
+      <c r="I50" s="28"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
+      <c r="L50" s="26"/>
       <c r="M50" s="26"/>
       <c r="N50" s="26"/>
       <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
-    </row>
-    <row r="51" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="41" t="s">
+    </row>
+    <row r="51" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="38" t="s">
         <v>29</v>
       </c>
       <c r="B51" s="28">
         <v>3000</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D51" s="28">
         <v>1</v>
@@ -5070,28 +5190,27 @@
         <v>2</v>
       </c>
       <c r="F51" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H51" s="25"/>
+      <c r="I51" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="G51" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="H51" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="I51" s="25"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-    </row>
-    <row r="52" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="41" t="s">
+    </row>
+    <row r="52" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="38" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="28">
         <v>3001</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D52" s="28">
         <v>1</v>
@@ -5100,28 +5219,27 @@
         <v>2</v>
       </c>
       <c r="F52" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52" s="25"/>
+      <c r="I52" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="G52" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H52" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="I52" s="25"/>
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-    </row>
-    <row r="53" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="41" t="s">
+    </row>
+    <row r="53" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="38" t="s">
         <v>28</v>
       </c>
       <c r="B53" s="28">
         <v>3002</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D53" s="28">
         <v>1</v>
@@ -5130,28 +5248,27 @@
         <v>2</v>
       </c>
       <c r="F53" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="G53" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="I53" s="25"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A54" s="41" t="s">
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A54" s="38" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="28">
         <v>3003</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D54" s="28">
         <v>1</v>
@@ -5160,24 +5277,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I54" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="G54" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54" s="34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A55" s="41" t="s">
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A55" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B55" s="28">
         <v>3004</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D55" s="28">
         <v>1</v>
@@ -5186,24 +5303,24 @@
         <v>2</v>
       </c>
       <c r="F55" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I55" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="G55" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" s="34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="41" t="s">
+    </row>
+    <row r="56" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="38" t="s">
         <v>32</v>
       </c>
       <c r="B56" s="28">
         <v>3005</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D56" s="28">
         <v>1</v>
@@ -5212,28 +5329,27 @@
         <v>2</v>
       </c>
       <c r="F56" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" s="25"/>
+      <c r="I56" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G56" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H56" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="I56" s="25"/>
       <c r="J56" s="25"/>
       <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-    </row>
-    <row r="57" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="41" t="s">
+    </row>
+    <row r="57" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="38" t="s">
         <v>33</v>
       </c>
       <c r="B57" s="28">
         <v>3006</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D57" s="28">
         <v>1</v>
@@ -5242,45 +5358,43 @@
         <v>2</v>
       </c>
       <c r="F57" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57" s="25"/>
+      <c r="I57" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G57" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="H57" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="I57" s="25"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A58" s="41" t="s">
-        <v>212</v>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A58" s="38" t="s">
+        <v>210</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="F58" s="28"/>
-      <c r="I58" s="25"/>
+        <v>210</v>
+      </c>
+      <c r="H58" s="25"/>
+      <c r="I58" s="28"/>
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
+      <c r="L58" s="26"/>
       <c r="M58" s="26"/>
       <c r="N58" s="26"/>
       <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A59" s="41" t="s">
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A59" s="38" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="28">
         <v>4000</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D59" s="28">
         <v>2</v>
@@ -5289,32 +5403,31 @@
         <v>2</v>
       </c>
       <c r="F59" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G59" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="G59" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="H59" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="I59" s="25"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
+      <c r="L59" s="26"/>
       <c r="M59" s="26"/>
       <c r="N59" s="26"/>
       <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-    </row>
-    <row r="60" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="41" t="s">
+    </row>
+    <row r="60" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="38" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="28">
         <v>4001</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D60" s="28">
         <v>2</v>
@@ -5323,28 +5436,27 @@
         <v>2</v>
       </c>
       <c r="F60" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="G60" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="H60" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="I60" s="25"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A61" s="41" t="s">
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A61" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B61" s="28">
         <v>4002</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D61" s="28">
         <v>2</v>
@@ -5352,33 +5464,32 @@
       <c r="E61" s="28">
         <v>2</v>
       </c>
-      <c r="F61" s="28" t="s">
+      <c r="F61" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H61" s="25"/>
+      <c r="I61" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="H61" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="I61" s="25"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
+      <c r="L61" s="26"/>
       <c r="M61" s="26"/>
       <c r="N61" s="26"/>
       <c r="O61" s="26"/>
-      <c r="P61" s="26"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A62" s="41" t="s">
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A62" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B62" s="28">
         <v>4003</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D62" s="28">
         <v>2</v>
@@ -5386,33 +5497,32 @@
       <c r="E62" s="28">
         <v>2</v>
       </c>
-      <c r="F62" s="28" t="s">
+      <c r="F62" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H62" s="25"/>
+      <c r="I62" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H62" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="I62" s="25"/>
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
+      <c r="L62" s="26"/>
       <c r="M62" s="26"/>
       <c r="N62" s="26"/>
       <c r="O62" s="26"/>
-      <c r="P62" s="26"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A63" s="41" t="s">
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A63" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B63" s="28">
         <v>4004</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D63" s="28">
         <v>2</v>
@@ -5420,33 +5530,32 @@
       <c r="E63" s="28">
         <v>2</v>
       </c>
-      <c r="F63" s="28" t="s">
+      <c r="F63" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G63" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H63" s="25"/>
+      <c r="I63" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="G63" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="H63" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="I63" s="25"/>
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
+      <c r="L63" s="26"/>
       <c r="M63" s="26"/>
       <c r="N63" s="26"/>
       <c r="O63" s="26"/>
-      <c r="P63" s="26"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A64" s="41" t="s">
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A64" s="38" t="s">
         <v>44</v>
       </c>
       <c r="B64" s="28">
         <v>4005</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D64" s="28">
         <v>2</v>
@@ -5454,25 +5563,25 @@
       <c r="E64" s="28">
         <v>2</v>
       </c>
-      <c r="F64" s="28" t="s">
+      <c r="F64" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I64" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="G64" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H64" s="34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A65" s="41" t="s">
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A65" s="38" t="s">
         <v>45</v>
       </c>
       <c r="B65" s="28">
         <v>4006</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D65" s="28">
         <v>2</v>
@@ -5480,25 +5589,25 @@
       <c r="E65" s="28">
         <v>2</v>
       </c>
-      <c r="F65" s="28" t="s">
+      <c r="F65" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I65" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="G65" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H65" s="34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A66" s="41" t="s">
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A66" s="38" t="s">
         <v>46</v>
       </c>
       <c r="B66" s="28">
         <v>4007</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D66" s="28">
         <v>2</v>
@@ -5506,25 +5615,25 @@
       <c r="E66" s="28">
         <v>2</v>
       </c>
-      <c r="F66" s="28" t="s">
+      <c r="F66" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I66" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="G66" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H66" s="34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A67" s="41" t="s">
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A67" s="38" t="s">
         <v>47</v>
       </c>
       <c r="B67" s="28">
         <v>4008</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D67" s="28">
         <v>2</v>
@@ -5532,25 +5641,25 @@
       <c r="E67" s="28">
         <v>2</v>
       </c>
-      <c r="F67" s="28" t="s">
+      <c r="F67" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G67" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I67" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="G67" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H67" s="34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A68" s="41" t="s">
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A68" s="38" t="s">
         <v>48</v>
       </c>
       <c r="B68" s="28">
         <v>4009</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D68" s="28">
         <v>2</v>
@@ -5558,25 +5667,25 @@
       <c r="E68" s="28">
         <v>2</v>
       </c>
-      <c r="F68" s="28" t="s">
+      <c r="F68" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I68" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="G68" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H68" s="34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A69" s="41" t="s">
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A69" s="38" t="s">
         <v>49</v>
       </c>
       <c r="B69" s="28">
         <v>4010</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D69" s="28">
         <v>2</v>
@@ -5584,25 +5693,25 @@
       <c r="E69" s="28">
         <v>2</v>
       </c>
-      <c r="F69" s="28" t="s">
+      <c r="F69" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I69" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="G69" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="H69" s="34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A70" s="41" t="s">
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A70" s="38" t="s">
         <v>50</v>
       </c>
       <c r="B70" s="28">
         <v>4011</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D70" s="28">
         <v>2</v>
@@ -5610,25 +5719,25 @@
       <c r="E70" s="28">
         <v>2</v>
       </c>
-      <c r="F70" s="28" t="s">
+      <c r="F70" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I70" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="G70" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H70" s="34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A71" s="41" t="s">
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A71" s="38" t="s">
         <v>51</v>
       </c>
       <c r="B71" s="28">
         <v>4012</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D71" s="28">
         <v>2</v>
@@ -5636,25 +5745,25 @@
       <c r="E71" s="28">
         <v>2</v>
       </c>
-      <c r="F71" s="28" t="s">
+      <c r="F71" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G71" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I71" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="G71" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H71" s="34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A72" s="41" t="s">
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A72" s="38" t="s">
         <v>52</v>
       </c>
       <c r="B72" s="28">
         <v>4013</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D72" s="28">
         <v>2</v>
@@ -5662,25 +5771,25 @@
       <c r="E72" s="28">
         <v>2</v>
       </c>
-      <c r="F72" s="28" t="s">
+      <c r="F72" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I72" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="G72" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H72" s="34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A73" s="41" t="s">
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A73" s="38" t="s">
         <v>53</v>
       </c>
       <c r="B73" s="28">
         <v>4014</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D73" s="28">
         <v>2</v>
@@ -5688,33 +5797,33 @@
       <c r="E73" s="28">
         <v>2</v>
       </c>
-      <c r="F73" s="28" t="s">
+      <c r="F73" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G73" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I73" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="G73" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H73" s="34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A74" s="41" t="s">
-        <v>212</v>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A74" s="38" t="s">
+        <v>210</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A75" s="41" t="s">
-        <v>240</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A75" s="38" t="s">
+        <v>238</v>
       </c>
       <c r="B75" s="28">
         <v>5000</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D75" s="28">
         <v>0</v>
@@ -5723,24 +5832,24 @@
         <v>3</v>
       </c>
       <c r="F75" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G75" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I75" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="G75" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="H75" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A76" s="41" t="s">
-        <v>234</v>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A76" s="38" t="s">
+        <v>232</v>
       </c>
       <c r="B76" s="28">
         <v>5001</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D76" s="28">
         <v>0</v>
@@ -5748,25 +5857,25 @@
       <c r="E76" s="28">
         <v>3</v>
       </c>
-      <c r="F76" s="28" t="s">
+      <c r="F76" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G76" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I76" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G76" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H76" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A77" s="41" t="s">
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A77" s="38" t="s">
         <v>84</v>
       </c>
       <c r="B77" s="28">
         <v>5002</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D77" s="28">
         <v>1</v>
@@ -5774,25 +5883,25 @@
       <c r="E77" s="28">
         <v>3</v>
       </c>
-      <c r="F77" s="28" t="s">
+      <c r="F77" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G77" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I77" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G77" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="H77" s="34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A78" s="41" t="s">
-        <v>128</v>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A78" s="38" t="s">
+        <v>126</v>
       </c>
       <c r="B78" s="28">
         <v>5003</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D78" s="28">
         <v>1</v>
@@ -5800,25 +5909,25 @@
       <c r="E78" s="28">
         <v>3</v>
       </c>
-      <c r="F78" s="28" t="s">
+      <c r="F78" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G78" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="I78" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G78" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="H78" s="34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A79" s="41" t="s">
-        <v>235</v>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A79" s="38" t="s">
+        <v>233</v>
       </c>
       <c r="B79" s="28">
         <v>5004</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D79" s="28">
         <v>1</v>
@@ -5826,18 +5935,18 @@
       <c r="E79" s="28">
         <v>3</v>
       </c>
-      <c r="F79" s="28" t="s">
+      <c r="F79" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G79" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="I79" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G79" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="H79" s="34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A80" s="41" t="s">
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A80" s="38" t="s">
         <v>68</v>
       </c>
       <c r="B80" s="28">
@@ -5852,26 +5961,25 @@
       <c r="E80" s="28">
         <v>3</v>
       </c>
-      <c r="F80" s="28" t="s">
+      <c r="F80" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G80" s="34">
+        <v>10</v>
+      </c>
+      <c r="H80" s="25"/>
+      <c r="I80" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G80" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="H80" s="34">
-        <v>10</v>
-      </c>
-      <c r="I80" s="25"/>
       <c r="J80" s="25"/>
       <c r="K80" s="25"/>
-      <c r="L80" s="25"/>
+      <c r="L80" s="26"/>
       <c r="M80" s="26"/>
       <c r="N80" s="26"/>
       <c r="O80" s="26"/>
-      <c r="P80" s="26"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A81" s="41" t="s">
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A81" s="38" t="s">
         <v>69</v>
       </c>
       <c r="B81" s="28">
@@ -5886,50 +5994,48 @@
       <c r="E81" s="28">
         <v>3</v>
       </c>
-      <c r="F81" s="28" t="s">
+      <c r="F81" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G81" s="34">
+        <v>10</v>
+      </c>
+      <c r="H81" s="25"/>
+      <c r="I81" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G81" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="H81" s="34">
-        <v>10</v>
-      </c>
-      <c r="I81" s="25"/>
       <c r="J81" s="25"/>
       <c r="K81" s="25"/>
-      <c r="L81" s="25"/>
+      <c r="L81" s="26"/>
       <c r="M81" s="26"/>
       <c r="N81" s="26"/>
       <c r="O81" s="26"/>
-      <c r="P81" s="26"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A82" s="41" t="s">
-        <v>212</v>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A82" s="38" t="s">
+        <v>210</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="F82" s="28"/>
-      <c r="I82" s="25"/>
+        <v>210</v>
+      </c>
+      <c r="H82" s="25"/>
+      <c r="I82" s="28"/>
       <c r="J82" s="25"/>
       <c r="K82" s="25"/>
-      <c r="L82" s="25"/>
+      <c r="L82" s="26"/>
       <c r="M82" s="26"/>
       <c r="N82" s="26"/>
       <c r="O82" s="26"/>
-      <c r="P82" s="26"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A83" s="41" t="s">
-        <v>241</v>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A83" s="38" t="s">
+        <v>239</v>
       </c>
       <c r="B83" s="28">
         <v>5900</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D83" s="28">
         <v>0</v>
@@ -5937,25 +6043,25 @@
       <c r="E83" s="28">
         <v>3</v>
       </c>
-      <c r="F83" s="28" t="s">
+      <c r="F83" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="G83" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I83" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G83" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="H83" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A84" s="41" t="s">
-        <v>246</v>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A84" s="38" t="s">
+        <v>244</v>
       </c>
       <c r="B84" s="28">
         <v>5901</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D84" s="28">
         <v>0</v>
@@ -5963,25 +6069,25 @@
       <c r="E84" s="28">
         <v>3</v>
       </c>
-      <c r="F84" s="28" t="s">
+      <c r="F84" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="G84" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I84" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G84" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="H84" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A85" s="41" t="s">
-        <v>247</v>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A85" s="38" t="s">
+        <v>245</v>
       </c>
       <c r="B85" s="28">
         <v>5902</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D85" s="28">
         <v>0</v>
@@ -5989,25 +6095,25 @@
       <c r="E85" s="28">
         <v>3</v>
       </c>
-      <c r="F85" s="28" t="s">
+      <c r="F85" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G85" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I85" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G85" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="H85" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A86" s="41" t="s">
-        <v>248</v>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A86" s="38" t="s">
+        <v>246</v>
       </c>
       <c r="B86" s="28">
         <v>5903</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D86" s="28">
         <v>0</v>
@@ -6015,33 +6121,33 @@
       <c r="E86" s="28">
         <v>3</v>
       </c>
-      <c r="F86" s="28" t="s">
+      <c r="F86" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G86" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I86" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G86" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H86" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A87" s="41" t="s">
-        <v>212</v>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A87" s="38" t="s">
+        <v>210</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A88" s="41" t="s">
-        <v>256</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A88" s="38" t="s">
+        <v>254</v>
       </c>
       <c r="B88" s="28">
         <v>6000</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D88" s="28">
         <v>0</v>
@@ -6050,24 +6156,24 @@
         <v>4</v>
       </c>
       <c r="F88" s="34" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G88" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="H88" s="34" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A89" s="41" t="s">
-        <v>257</v>
+      <c r="I88" s="34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A89" s="38" t="s">
+        <v>255</v>
       </c>
       <c r="B89" s="28">
         <v>6001</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D89" s="28">
         <v>0</v>
@@ -6076,24 +6182,24 @@
         <v>4</v>
       </c>
       <c r="F89" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G89" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="H89" s="34" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A90" s="41" t="s">
-        <v>259</v>
+        <v>264</v>
+      </c>
+      <c r="I89" s="34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A90" s="38" t="s">
+        <v>257</v>
       </c>
       <c r="B90" s="28">
         <v>6002</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D90" s="28">
         <v>0</v>
@@ -6102,40 +6208,38 @@
         <v>4</v>
       </c>
       <c r="F90" s="34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="H90" s="34" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+      <c r="I90" s="34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A95" s="35"/>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C100" s="26"/>
     </row>
-    <row r="124" spans="9:16" x14ac:dyDescent="0.4">
-      <c r="I124" s="25"/>
+    <row r="124" spans="8:15" x14ac:dyDescent="0.4">
+      <c r="H124" s="25"/>
       <c r="J124" s="25"/>
       <c r="K124" s="25"/>
-      <c r="L124" s="25"/>
+      <c r="L124" s="26"/>
       <c r="M124" s="26"/>
       <c r="N124" s="26"/>
       <c r="O124" s="26"/>
-      <c r="P124" s="26"/>
-    </row>
-    <row r="125" spans="9:16" x14ac:dyDescent="0.4">
-      <c r="I125" s="25"/>
+    </row>
+    <row r="125" spans="8:15" x14ac:dyDescent="0.4">
+      <c r="H125" s="25"/>
       <c r="J125" s="25"/>
       <c r="K125" s="25"/>
-      <c r="L125" s="25"/>
+      <c r="L125" s="26"/>
       <c r="M125" s="26"/>
       <c r="N125" s="26"/>
       <c r="O125" s="26"/>
-      <c r="P125" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/Effect_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0567FE5F-9E63-40EE-9A93-882980ED2937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08BEE21-AD22-4922-AED7-A2C440193B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="3" r:id="rId1"/>
@@ -591,7 +591,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="317">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1397,10 +1397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격력 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1521,18 +1517,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vfx_res</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anim_res</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound_res</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모션 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1545,14 +1529,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Animation Resource Change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VisualEffect Resource Change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VisualEffect Color Change</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1561,10 +1537,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">효과의 종류  
-</t>
-    </r>
+    <t>소환수 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영역 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creature Summon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">type별 상세 효과 유형 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(아래의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[비고 1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[비고 1] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type별 상세 효과</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 (피해형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 (능력치 조절)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟 능력치 (변수명을 그대로 활용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 (특수 기능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 유형 (category = 1 일때)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 유형 (category = 2 일때)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_type 설명 및 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 (스킬 제어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (오브젝트 제어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1575,7 +1700,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0</t>
+      <t>direct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1586,18 +1722,13 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 일반 효과 (DEFAULT)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>: 일반 피해 (N의 피해로 N회 타격)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fixed</t>
     </r>
     <r>
       <rPr>
@@ -1608,8 +1739,22 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 고정 피해</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1620,7 +1765,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>ratio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1631,19 +1787,11 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 버프 등 이로운 효과(BUFF) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
+      <t>: 비율 피해 (ex: 최대 체력 비례 피해 등)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1654,7 +1802,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2</t>
+      <t>atk_pwr</t>
     </r>
     <r>
       <rPr>
@@ -1665,15 +1813,11 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 디버프 등 해로운 효과 (DEBUFF)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과의 유형  
-</t>
-    </r>
+      <t xml:space="preserve"> : 공격력</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1684,7 +1828,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0</t>
+      <t>move_spd</t>
     </r>
     <r>
       <rPr>
@@ -1695,30 +1839,11 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 피해형(DAMAGE)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
+      <t xml:space="preserve"> : 이동 속도 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1729,7 +1854,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>push_immune</t>
     </r>
     <r>
       <rPr>
@@ -1740,19 +1865,11 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 능력치 조절(STAT)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
+      <t xml:space="preserve"> : 피격 이상 면역</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1763,7 +1880,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2</t>
+      <t>shield</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1774,30 +1902,11 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 특수 기능(SPECIAL) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+      <t>: 보호막</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1808,7 +1917,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
+      <t>heal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1819,19 +1939,11 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 스킬 제어(SKILL_CONTROL) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
+      <t>: 회복</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1842,7 +1954,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4</t>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1853,165 +1976,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 오브젝트 제어(OBJECT_CONTROL)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소환수 소환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projectile Spawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영역 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>object_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Area Spawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>creature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Creature Summon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">type별 상세 효과 유형 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(아래의 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[비고 1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[비고 1] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type별 상세 효과</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 (피해형)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 (능력치 조절)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해 유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등등</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟 능력치 (변수명을 그대로 활용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 (특수 기능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프 유형 (category = 1 일때)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 유형 (category = 2 일때)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_type 설명 및 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 (스킬 제어)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬의 속성(데이터)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 (오브젝트 제어)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 유형</t>
+      <t>: 피격 이상</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2025,18 +1991,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>direct</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>poison</t>
     </r>
     <r>
       <rPr>
@@ -2047,35 +2002,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 일반 피해 (N의 피해로 N회 타격)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>fixed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 고정 피해</t>
+      <t xml:space="preserve"> : 중독</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2090,18 +2017,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ratio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>stun</t>
     </r>
     <r>
       <rPr>
@@ -2112,7 +2028,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 비율 피해 (ex: 최대 체력 비례 피해 등)</t>
+      <t xml:space="preserve"> : 기절</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2127,7 +2043,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>atk_pwr</t>
+      <t>element</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2138,7 +2065,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 공격력</t>
+      <t>: 스킬의 공격 속성</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2153,7 +2080,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>move_spd</t>
+      <t>cooldown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2164,11 +2102,31 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 이동 속도 </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>: 재사용 대기 시간</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motion Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisualEffect Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect Area Reduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과의 유형 
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2179,7 +2137,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>push_immune</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -2190,11 +2148,30 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 피격 이상 면역</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>: 피해형(DAMAGE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2205,7 +2182,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>shield</t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 능력치 조절(STAT)</t>
     </r>
     <r>
       <rPr>
@@ -2216,22 +2204,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 보호막</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> / </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2242,7 +2216,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>heal</t>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 특수 기능(SPECIAL) </t>
     </r>
     <r>
       <rPr>
@@ -2253,7 +2238,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -2264,11 +2249,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 회복</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2279,7 +2261,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>push</t>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 스킬 제어(SKILL_CONTROL) </t>
     </r>
     <r>
       <rPr>
@@ -2290,22 +2283,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 피격 이상</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve">/ </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2316,7 +2295,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>poison</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -2327,11 +2306,19 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 중독</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve">: 오브젝트 제어(OBJECT_CONTROL) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2342,7 +2329,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>stun</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -2353,11 +2340,14 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 기절</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>: 리소스 제어(RESOURCE_CONTROL)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과의 종류  </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2368,7 +2358,29 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>element</t>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 일반 효과 (DEFAULT)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2379,22 +2391,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 스킬의 공격 속성</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve">/ </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2405,7 +2403,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>cooldown</t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 버프 등 이로운 효과(BUFF) </t>
     </r>
     <r>
       <rPr>
@@ -2416,22 +2425,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 재사용 대기 시간</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve">/ </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2442,18 +2437,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>vfx_color</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -2464,11 +2448,14 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 스킬 이펙트 색상</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>: 디버프 등 해로운 효과 (DEBUFF)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>효과가 적용되는 방식</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2479,7 +2466,30 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>anim_res</t>
+      <t xml:space="preserve">
+0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 대미지 처리(DEAL)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2490,22 +2500,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 스킬 모션</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve">/ </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2516,7 +2512,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>summon</t>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -2527,11 +2523,19 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 소환수 (AI NPC)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>: 고정 수치 증가(PLUS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2542,7 +2546,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>projectile</t>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 비율 증가(INCREASE) </t>
     </r>
     <r>
       <rPr>
@@ -2553,7 +2568,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -2564,11 +2579,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 투사체</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2579,7 +2591,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>area</t>
+      <t>20</t>
     </r>
     <r>
       <rPr>
@@ -2590,14 +2602,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 영역</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과가 적용되는 방식
-</t>
+      <t xml:space="preserve">: 고정 수치 감소(MINUS) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
     </r>
     <r>
       <rPr>
@@ -2609,7 +2625,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0</t>
+      <t>21</t>
     </r>
     <r>
       <rPr>
@@ -2620,18 +2636,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 대미지 처리(DEAL)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>: 비율 감소(DECREASE)</t>
     </r>
     <r>
       <rPr>
@@ -2642,7 +2647,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">/ </t>
+      <t xml:space="preserve"> / </t>
     </r>
     <r>
       <rPr>
@@ -2654,7 +2659,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>10</t>
+      <t>30</t>
     </r>
     <r>
       <rPr>
@@ -2665,18 +2670,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 고정 수치 증가(PLUS)</t>
+      <t xml:space="preserve">: 부여(GRANT) </t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
     </r>
     <r>
       <rPr>
@@ -2688,7 +2693,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>11</t>
+      <t>31</t>
     </r>
     <r>
       <rPr>
@@ -2699,30 +2704,19 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 비율 증가(INCREASE) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+      <t xml:space="preserve">: 변경 (CHANGE) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (리소스 제어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2733,7 +2727,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>20</t>
+      <t>projectile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2744,7 +2749,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 고정 수치 감소(MINUS) </t>
+      <t>: 투사체 ID</t>
     </r>
     <r>
       <rPr>
@@ -2755,8 +2760,11 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2767,7 +2775,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>21</t>
+      <t>area</t>
     </r>
     <r>
       <rPr>
@@ -2778,19 +2786,11 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 비율 감소(DECREASE)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
+      <t xml:space="preserve"> : 영역 ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2801,7 +2801,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>30</t>
+      <t>stagger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2812,19 +2823,11 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 부여(GRANT) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
+      <t>: 무력화 수치</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2835,7 +2838,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>31</t>
+      <t>*_scale</t>
     </r>
     <r>
       <rPr>
@@ -2846,8 +2849,269 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 변경 (CHANGE) </t>
-    </r>
+      <t xml:space="preserve"> : 크기 변경 (파일 크기x)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*_color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 색상 변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리소스 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>creature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 소환수 ID (AI NPC)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect Area Increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*_file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 리소스 파일 변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*_play_spd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 재생 속도 변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*_play_time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 재생 시간 변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vfx_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX 크기 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisualEffect Scale Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vfx_scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션 재생 시작 시간 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motion StartTime Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim_play_start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션 재생 속도 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motion PlaySpdeed Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim_play_spd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incoming Damage Decrease</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3565,7 +3829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3611,9 +3875,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3627,6 +3888,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3647,11 +3965,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3662,86 +3983,29 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3749,10 +4013,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3761,17 +4028,11 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4096,10 +4357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37A1609-374E-41E5-A884-CAD8C506CD05}">
-  <dimension ref="B1:N62"/>
+  <dimension ref="B1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -4117,207 +4378,207 @@
   <sheetData>
     <row r="1" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="63"/>
     </row>
     <row r="4" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="27"/>
-      <c r="C4" s="61" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="65"/>
     </row>
     <row r="5" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="31">
         <f>ROW(C5)-4</f>
         <v>1</v>
       </c>
-      <c r="D5" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="48" t="s">
+      <c r="D5" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="54"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="67"/>
     </row>
     <row r="6" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="27"/>
-      <c r="C6" s="55">
+      <c r="B6" s="20"/>
+      <c r="C6" s="32">
         <f t="shared" ref="C6:C10" si="0">ROW(C6)-4</f>
         <v>2</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="56"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="58"/>
     </row>
     <row r="7" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="27"/>
-      <c r="C7" s="55">
+      <c r="B7" s="20"/>
+      <c r="C7" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="56"/>
-    </row>
-    <row r="8" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="27"/>
-      <c r="C8" s="55">
+      <c r="F7" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="58"/>
+    </row>
+    <row r="8" spans="2:14" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="20"/>
+      <c r="C8" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="56"/>
+      <c r="F8" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="58"/>
     </row>
     <row r="9" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="27"/>
-      <c r="C9" s="55">
+      <c r="B9" s="20"/>
+      <c r="C9" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" s="50" t="s">
+      <c r="D9" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="56"/>
-    </row>
-    <row r="10" spans="2:14" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="27"/>
-      <c r="C10" s="55">
+      <c r="F9" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58"/>
+    </row>
+    <row r="10" spans="2:14" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="20"/>
+      <c r="C10" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="56"/>
+      <c r="F10" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="58"/>
     </row>
     <row r="11" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="59"/>
       <c r="G11" s="59"/>
       <c r="H11" s="59"/>
@@ -4332,301 +4593,337 @@
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>271</v>
+      <c r="D15" s="49"/>
+      <c r="E15" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="40" t="s">
+      <c r="C16" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="E16" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="44" t="s">
-        <v>265</v>
+      <c r="F16" s="25" t="s">
+        <v>257</v>
       </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="33" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C20" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="51"/>
+      <c r="E20" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C24" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C30" s="52"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C31" s="52"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C18" s="32"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="46" t="s">
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="22" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="34"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="35" t="s">
+    <row r="33" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C34" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="51"/>
+      <c r="E34" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C35" s="52"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="22" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C20" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C21" s="32"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="33" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C36" s="52"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="22" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C22" s="32"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="33" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="34"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="35" t="s">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C37" s="52"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="54"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C39" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="D39" s="51"/>
+      <c r="E39" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="F39" s="25" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C24" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="44" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C25" s="32"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="33" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C26" s="32"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="33" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C27" s="32"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="33" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C28" s="32"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="36" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C29" s="32"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C30" s="32"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="33" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C31" s="32"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="33" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C32" s="32"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="33" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C33" s="34"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="35" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C34" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="44" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C35" s="32"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="33" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C40" s="52"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C41" s="52"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C42" s="54"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C43" s="50" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C36" s="32"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="33" t="s">
+      <c r="D43" s="51"/>
+      <c r="E43" s="45" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C37" s="32"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="33" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C38" s="32"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C39" s="34"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="35" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C40" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="F40" s="44" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C41" s="32"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="33" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C42" s="32"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="33" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="34"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="35" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C44" s="2"/>
+      <c r="F43" s="25" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="1"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B45" s="1"/>
-      <c r="F45" s="3"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="22" t="s">
+        <v>292</v>
+      </c>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B46" s="1"/>
-      <c r="F46" s="3"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="22" t="s">
+        <v>301</v>
+      </c>
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B47" s="1"/>
-      <c r="F47" s="3"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="22" t="s">
+        <v>302</v>
+      </c>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B48" s="1"/>
-      <c r="F48" s="3"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="22" t="s">
+        <v>293</v>
+      </c>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7" s="2" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1"/>
-      <c r="F49" s="3"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="23" t="s">
+        <v>258</v>
+      </c>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -4634,16 +4931,16 @@
       <c r="F50" s="3"/>
       <c r="G50" s="4"/>
     </row>
+    <row r="51" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="1"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="4"/>
+    </row>
     <row r="52" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B52" s="1"/>
       <c r="F52" s="3"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="1"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="4"/>
-    </row>
     <row r="54" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B54" s="1"/>
       <c r="F54" s="3"/>
@@ -4689,8 +4986,20 @@
       <c r="F62" s="3"/>
       <c r="G62" s="4"/>
     </row>
+    <row r="63" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="1"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="1"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="C43:D49"/>
+    <mergeCell ref="E43:E49"/>
     <mergeCell ref="F8:N8"/>
     <mergeCell ref="F9:N9"/>
     <mergeCell ref="F11:N11"/>
@@ -4700,20 +5009,20 @@
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="F6:N6"/>
     <mergeCell ref="F7:N7"/>
-    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E39:E42"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D19"/>
     <mergeCell ref="C20:D23"/>
     <mergeCell ref="C24:D33"/>
-    <mergeCell ref="C34:D39"/>
-    <mergeCell ref="C40:D43"/>
+    <mergeCell ref="C34:D38"/>
+    <mergeCell ref="C39:D42"/>
     <mergeCell ref="E24:E28"/>
     <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E34:E38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4723,10 +5032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
@@ -4744,7 +5053,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -4760,7 +5069,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>82</v>
@@ -4774,7 +5083,7 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="10">
@@ -4804,7 +5113,7 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="10">
@@ -4834,7 +5143,7 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="10">
@@ -4864,11 +5173,26 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>206</v>
+      <c r="A5" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -4879,14 +5203,14 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="18" t="s">
-        <v>133</v>
+      <c r="A6" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="B6" s="10">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -4895,13 +5219,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>125</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="7"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -4909,14 +5233,14 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="18" t="s">
-        <v>134</v>
+      <c r="A7" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="B7" s="10">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -4925,13 +5249,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>125</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="16"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -4939,14 +5263,14 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="18" t="s">
-        <v>135</v>
+      <c r="A8" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="B8" s="10">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -4955,13 +5279,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>125</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="16"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="7"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -4969,14 +5293,14 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="18" t="s">
-        <v>176</v>
+      <c r="A9" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="B9" s="10">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -4985,13 +5309,13 @@
         <v>1</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="16"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="7"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -4999,14 +5323,14 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="18" t="s">
-        <v>177</v>
+      <c r="A10" s="17" t="s">
+        <v>179</v>
       </c>
       <c r="B10" s="10">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -5015,13 +5339,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>141</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="16"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="7"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -5029,14 +5353,14 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="18" t="s">
-        <v>179</v>
+      <c r="A11" s="17" t="s">
+        <v>178</v>
       </c>
       <c r="B11" s="10">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -5045,13 +5369,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>141</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="16"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="7"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -5059,14 +5383,14 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="18" t="s">
-        <v>178</v>
+      <c r="A12" s="17" t="s">
+        <v>180</v>
       </c>
       <c r="B12" s="10">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -5075,13 +5399,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>141</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="16"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="7"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -5089,14 +5413,14 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="18" t="s">
-        <v>180</v>
+      <c r="A13" s="17" t="s">
+        <v>181</v>
       </c>
       <c r="B13" s="10">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
@@ -5105,13 +5429,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>141</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="16"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -5119,14 +5443,14 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="18" t="s">
-        <v>181</v>
+      <c r="A14" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="B14" s="10">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="D14" s="10">
         <v>1</v>
@@ -5135,13 +5459,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>193</v>
+        <v>22</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="16"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -5149,14 +5473,14 @@
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="18" t="s">
-        <v>132</v>
+      <c r="A15" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="B15" s="10">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="10">
         <v>1</v>
@@ -5168,10 +5492,10 @@
         <v>22</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="16"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -5179,14 +5503,14 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="18" t="s">
-        <v>131</v>
+      <c r="A16" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="B16" s="10">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="D16" s="10">
         <v>1</v>
@@ -5195,10 +5519,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -5209,14 +5533,14 @@
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="18" t="s">
-        <v>144</v>
+      <c r="A17" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="B17" s="10">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
@@ -5228,7 +5552,7 @@
         <v>196</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -5239,14 +5563,14 @@
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="18" t="s">
-        <v>145</v>
+      <c r="A18" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="B18" s="10">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D18" s="10">
         <v>1</v>
@@ -5255,10 +5579,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -5269,14 +5593,14 @@
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="18" t="s">
-        <v>142</v>
+      <c r="A19" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="B19" s="10">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D19" s="10">
         <v>1</v>
@@ -5288,7 +5612,7 @@
         <v>194</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -5299,14 +5623,14 @@
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="18" t="s">
-        <v>143</v>
+      <c r="A20" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="B20" s="10">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D20" s="10">
         <v>1</v>
@@ -5315,10 +5639,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5329,14 +5653,14 @@
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="18" t="s">
-        <v>174</v>
+      <c r="A21" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="B21" s="10">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D21" s="10">
         <v>1</v>
@@ -5348,7 +5672,7 @@
         <v>195</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -5359,14 +5683,14 @@
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="18" t="s">
-        <v>175</v>
+      <c r="A22" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="B22" s="10">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D22" s="10">
         <v>1</v>
@@ -5375,10 +5699,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -5389,14 +5713,14 @@
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="18" t="s">
-        <v>168</v>
+      <c r="A23" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="B23" s="10">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D23" s="10">
         <v>1</v>
@@ -5405,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>125</v>
@@ -5419,14 +5743,14 @@
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="18" t="s">
-        <v>154</v>
+      <c r="A24" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="B24" s="10">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D24" s="10">
         <v>1</v>
@@ -5438,7 +5762,7 @@
         <v>198</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -5449,14 +5773,14 @@
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="18" t="s">
-        <v>155</v>
+      <c r="A25" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="B25" s="10">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D25" s="10">
         <v>1</v>
@@ -5465,10 +5789,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5479,14 +5803,14 @@
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="18" t="s">
-        <v>156</v>
+      <c r="A26" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="B26" s="10">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D26" s="10">
         <v>1</v>
@@ -5498,7 +5822,7 @@
         <v>199</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -5509,14 +5833,14 @@
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="18" t="s">
-        <v>157</v>
+      <c r="A27" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="B27" s="10">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D27" s="10">
         <v>1</v>
@@ -5525,10 +5849,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5539,14 +5863,14 @@
       <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="18" t="s">
-        <v>146</v>
+      <c r="A28" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="B28" s="10">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D28" s="10">
         <v>1</v>
@@ -5555,7 +5879,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>125</v>
@@ -5569,14 +5893,14 @@
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="18" t="s">
-        <v>147</v>
+      <c r="A29" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="B29" s="10">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
@@ -5585,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>125</v>
@@ -5599,14 +5923,14 @@
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="18" t="s">
-        <v>148</v>
+      <c r="A30" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="B30" s="10">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D30" s="10">
         <v>1</v>
@@ -5615,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>125</v>
@@ -5629,14 +5953,14 @@
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="18" t="s">
-        <v>149</v>
+      <c r="A31" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="B31" s="10">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="D31" s="10">
         <v>1</v>
@@ -5645,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>125</v>
@@ -5659,14 +5983,14 @@
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="18" t="s">
-        <v>210</v>
+      <c r="A32" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="B32" s="10">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="D32" s="10">
         <v>1</v>
@@ -5675,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>125</v>
@@ -5689,14 +6013,14 @@
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="18" t="s">
-        <v>150</v>
+      <c r="A33" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="B33" s="10">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D33" s="10">
         <v>1</v>
@@ -5705,13 +6029,13 @@
         <v>1</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>125</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="7"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
@@ -5719,14 +6043,14 @@
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="18" t="s">
-        <v>151</v>
+      <c r="A34" s="17" t="s">
+        <v>315</v>
       </c>
       <c r="B34" s="10">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>163</v>
+        <v>316</v>
       </c>
       <c r="D34" s="10">
         <v>1</v>
@@ -5735,10 +6059,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="9"/>
@@ -5748,30 +6072,41 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>206</v>
+    <row r="35" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="10">
+        <v>1990</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="8">
+        <v>10</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="9"/>
+      <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="18" t="s">
-        <v>65</v>
+      <c r="A36" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="B36" s="10">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D36" s="10">
         <v>0</v>
@@ -5789,41 +6124,53 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="18" t="s">
-        <v>66</v>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A37" s="17" t="s">
+        <v>206</v>
       </c>
       <c r="B37" s="10">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D37" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E37" s="10">
         <v>1</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="8">
-        <v>10</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>206</v>
+      <c r="A38" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="H38" s="7"/>
-      <c r="I38" s="9"/>
+      <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -5831,14 +6178,14 @@
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A39" s="18" t="s">
-        <v>207</v>
+      <c r="A39" s="17" t="s">
+        <v>214</v>
       </c>
       <c r="B39" s="10">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="D39" s="10">
         <v>2</v>
@@ -5847,21 +6194,28 @@
         <v>1</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>127</v>
       </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A40" s="18" t="s">
-        <v>208</v>
+      <c r="A40" s="17" t="s">
+        <v>216</v>
       </c>
       <c r="B40" s="10">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="D40" s="10">
         <v>2</v>
@@ -5870,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>128</v>
@@ -5884,14 +6238,14 @@
       <c r="N40" s="8"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A41" s="18" t="s">
-        <v>215</v>
+      <c r="A41" s="17" t="s">
+        <v>218</v>
       </c>
       <c r="B41" s="10">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D41" s="10">
         <v>2</v>
@@ -5900,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>127</v>
@@ -5914,14 +6268,14 @@
       <c r="N41" s="8"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A42" s="18" t="s">
-        <v>217</v>
+      <c r="A42" s="17" t="s">
+        <v>219</v>
       </c>
       <c r="B42" s="10">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D42" s="10">
         <v>2</v>
@@ -5930,7 +6284,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>128</v>
@@ -5944,14 +6298,14 @@
       <c r="N42" s="8"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43" s="18" t="s">
-        <v>219</v>
+      <c r="A43" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="B43" s="10">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D43" s="10">
         <v>2</v>
@@ -5960,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>127</v>
@@ -5974,14 +6328,14 @@
       <c r="N43" s="8"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A44" s="18" t="s">
-        <v>220</v>
+      <c r="A44" s="17" t="s">
+        <v>208</v>
       </c>
       <c r="B44" s="10">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D44" s="10">
         <v>2</v>
@@ -5990,10 +6344,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6004,14 +6358,14 @@
       <c r="N44" s="8"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="17" t="s">
         <v>213</v>
       </c>
       <c r="B45" s="10">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D45" s="10">
         <v>2</v>
@@ -6020,10 +6374,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6033,131 +6387,142 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="18" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="B46" s="10">
-        <v>2007</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>224</v>
+        <v>2990</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="D46" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E46" s="10">
         <v>1</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>126</v>
+        <v>80</v>
+      </c>
+      <c r="G46" s="8">
+        <v>10</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A47" s="18" t="s">
-        <v>214</v>
+    </row>
+    <row r="47" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="B47" s="10">
-        <v>2008</v>
+        <v>3000</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c r="D47" s="10">
+        <v>1</v>
+      </c>
+      <c r="E47" s="10">
         <v>2</v>
       </c>
-      <c r="E47" s="10">
-        <v>1</v>
-      </c>
       <c r="F47" s="14" t="s">
-        <v>227</v>
+        <v>63</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A48" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>206</v>
+    </row>
+    <row r="48" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="10">
+        <v>3001</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="10">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10">
+        <v>2</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
     </row>
     <row r="49" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="19" t="s">
-        <v>67</v>
+      <c r="A49" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="B49" s="10">
-        <v>2990</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>97</v>
+        <v>3002</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="D49" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G49" s="8">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A50" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-    </row>
-    <row r="51" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="18" t="s">
-        <v>29</v>
+      <c r="A50" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="10">
+        <v>3003</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="10">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10">
+        <v>2</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A51" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="B51" s="10">
-        <v>3000</v>
+        <v>3004</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D51" s="10">
         <v>1</v>
@@ -6166,24 +6531,21 @@
         <v>2</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="18" t="s">
-        <v>27</v>
+      <c r="A52" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="B52" s="10">
-        <v>3001</v>
+        <v>3005</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D52" s="10">
         <v>1</v>
@@ -6191,8 +6553,8 @@
       <c r="E52" s="10">
         <v>2</v>
       </c>
-      <c r="F52" s="14" t="s">
-        <v>30</v>
+      <c r="F52" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>129</v>
@@ -6202,14 +6564,14 @@
       <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="18" t="s">
-        <v>28</v>
+      <c r="A53" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="B53" s="10">
-        <v>3002</v>
+        <v>3006</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D53" s="10">
         <v>1</v>
@@ -6217,8 +6579,8 @@
       <c r="E53" s="10">
         <v>2</v>
       </c>
-      <c r="F53" s="14" t="s">
-        <v>31</v>
+      <c r="F53" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>129</v>
@@ -6228,69 +6590,79 @@
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A54" s="18" t="s">
-        <v>23</v>
+      <c r="A54" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="B54" s="10">
-        <v>3003</v>
+        <v>4000</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D54" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="10">
         <v>2</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A55" s="18" t="s">
-        <v>25</v>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+    </row>
+    <row r="55" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="B55" s="10">
-        <v>3004</v>
+        <v>4001</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D55" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" s="10">
         <v>2</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="18" t="s">
-        <v>32</v>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A56" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="B56" s="10">
-        <v>3005</v>
+        <v>4002</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D56" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="10">
         <v>2</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>129</v>
@@ -6298,25 +6670,29 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
-    </row>
-    <row r="57" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="18" t="s">
-        <v>33</v>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A57" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="B57" s="10">
-        <v>3006</v>
+        <v>4003</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D57" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="10">
         <v>2</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>129</v>
@@ -6324,13 +6700,32 @@
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A58" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>206</v>
+      <c r="A58" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="10">
+        <v>4004</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="10">
+        <v>2</v>
+      </c>
+      <c r="E58" s="10">
+        <v>2</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -6341,14 +6736,14 @@
       <c r="N58" s="8"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A59" s="18" t="s">
-        <v>60</v>
+      <c r="A59" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="B59" s="10">
-        <v>4000</v>
+        <v>4005</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D59" s="10">
         <v>2</v>
@@ -6356,29 +6751,22 @@
       <c r="E59" s="10">
         <v>2</v>
       </c>
-      <c r="F59" s="14" t="s">
-        <v>62</v>
+      <c r="F59" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="G59" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-    </row>
-    <row r="60" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="18" t="s">
-        <v>61</v>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A60" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="B60" s="10">
-        <v>4001</v>
+        <v>4006</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D60" s="10">
         <v>2</v>
@@ -6386,25 +6774,22 @@
       <c r="E60" s="10">
         <v>2</v>
       </c>
-      <c r="F60" s="14" t="s">
-        <v>64</v>
+      <c r="F60" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A61" s="18" t="s">
-        <v>54</v>
+      <c r="A61" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="B61" s="10">
-        <v>4002</v>
+        <v>4007</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D61" s="10">
         <v>2</v>
@@ -6413,28 +6798,21 @@
         <v>2</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G61" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A62" s="18" t="s">
-        <v>55</v>
+      <c r="A62" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="B62" s="10">
-        <v>4003</v>
+        <v>4008</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D62" s="10">
         <v>2</v>
@@ -6443,28 +6821,21 @@
         <v>2</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="G62" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A63" s="18" t="s">
-        <v>56</v>
+      <c r="A63" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="B63" s="10">
-        <v>4004</v>
+        <v>4009</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D63" s="10">
         <v>2</v>
@@ -6473,28 +6844,21 @@
         <v>2</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A64" s="18" t="s">
-        <v>44</v>
+      <c r="A64" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="B64" s="10">
-        <v>4005</v>
+        <v>4010</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D64" s="10">
         <v>2</v>
@@ -6503,21 +6867,21 @@
         <v>2</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G64" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A65" s="18" t="s">
-        <v>45</v>
+      <c r="A65" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="B65" s="10">
-        <v>4006</v>
+        <v>4011</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D65" s="10">
         <v>2</v>
@@ -6526,21 +6890,21 @@
         <v>2</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G65" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A66" s="18" t="s">
-        <v>46</v>
+      <c r="A66" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="B66" s="10">
-        <v>4007</v>
+        <v>4012</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D66" s="10">
         <v>2</v>
@@ -6549,21 +6913,21 @@
         <v>2</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A67" s="18" t="s">
-        <v>47</v>
+      <c r="A67" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="B67" s="10">
-        <v>4008</v>
+        <v>4013</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D67" s="10">
         <v>2</v>
@@ -6572,21 +6936,21 @@
         <v>2</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A68" s="18" t="s">
-        <v>48</v>
+      <c r="A68" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="B68" s="10">
-        <v>4009</v>
+        <v>4014</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D68" s="10">
         <v>2</v>
@@ -6595,517 +6959,497 @@
         <v>2</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G68" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A69" s="18" t="s">
-        <v>49</v>
+      <c r="A69" s="17" t="s">
+        <v>233</v>
       </c>
       <c r="B69" s="10">
-        <v>4010</v>
+        <v>5000</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>114</v>
+        <v>231</v>
       </c>
       <c r="D69" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E69" s="10">
-        <v>2</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>39</v>
+        <v>3</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A70" s="18" t="s">
-        <v>50</v>
+      <c r="A70" s="17" t="s">
+        <v>227</v>
       </c>
       <c r="B70" s="10">
-        <v>4011</v>
+        <v>5001</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D70" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E70" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A71" s="18" t="s">
-        <v>51</v>
+      <c r="A71" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="B71" s="10">
-        <v>4012</v>
+        <v>5002</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D71" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A72" s="18" t="s">
-        <v>52</v>
+      <c r="A72" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="B72" s="10">
-        <v>4013</v>
+        <v>5003</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D72" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A73" s="18" t="s">
-        <v>53</v>
+      <c r="A73" s="17" t="s">
+        <v>228</v>
       </c>
       <c r="B73" s="10">
-        <v>4014</v>
+        <v>5004</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="D73" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A74" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="A74" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" s="10">
+        <v>5005</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="10">
+        <v>1</v>
+      </c>
+      <c r="E74" s="10">
+        <v>3</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G74" s="14">
+        <v>10</v>
+      </c>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A75" s="18" t="s">
-        <v>234</v>
+      <c r="A75" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="B75" s="10">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="D75" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="10">
         <v>3</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="G75" s="14" t="s">
-        <v>130</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G75" s="14">
+        <v>10</v>
+      </c>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A76" s="18" t="s">
-        <v>228</v>
+      <c r="A76" s="17" t="s">
+        <v>299</v>
       </c>
       <c r="B76" s="10">
-        <v>5001</v>
+        <v>5500</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>120</v>
+        <v>298</v>
       </c>
       <c r="D76" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="10">
         <v>3</v>
       </c>
-      <c r="F76" s="8" t="s">
-        <v>74</v>
+      <c r="F76" s="14" t="s">
+        <v>297</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>130</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A77" s="18" t="s">
-        <v>83</v>
+      <c r="A77" s="17" t="s">
+        <v>282</v>
       </c>
       <c r="B77" s="10">
-        <v>5002</v>
+        <v>5501</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>121</v>
+        <v>283</v>
       </c>
       <c r="D77" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="10">
         <v>3</v>
       </c>
-      <c r="F77" s="8" t="s">
-        <v>84</v>
+      <c r="F77" s="14" t="s">
+        <v>297</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>127</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A78" s="18" t="s">
-        <v>122</v>
+      <c r="A78" s="17" t="s">
+        <v>241</v>
       </c>
       <c r="B78" s="10">
-        <v>5003</v>
+        <v>6000</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="D78" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" s="10">
-        <v>3</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>84</v>
+        <v>4</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A79" s="18" t="s">
-        <v>229</v>
+      <c r="A79" s="17" t="s">
+        <v>242</v>
       </c>
       <c r="B79" s="10">
-        <v>5004</v>
+        <v>6001</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D79" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" s="10">
-        <v>3</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A80" s="18" t="s">
-        <v>68</v>
+      <c r="A80" s="17" t="s">
+        <v>244</v>
       </c>
       <c r="B80" s="10">
-        <v>5005</v>
+        <v>6002</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="D80" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G80" s="14">
-        <v>10</v>
-      </c>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A81" s="18" t="s">
-        <v>69</v>
+        <v>248</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A81" s="17" t="s">
+        <v>237</v>
       </c>
       <c r="B81" s="10">
-        <v>5006</v>
+        <v>7000</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>92</v>
+        <v>281</v>
       </c>
       <c r="D81" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G81" s="14">
-        <v>10</v>
-      </c>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A82" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A83" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A82" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" s="10">
+        <v>7001</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D82" s="10">
+        <v>0</v>
+      </c>
+      <c r="E82" s="10">
+        <v>5</v>
+      </c>
+      <c r="F82" s="14" t="s">
         <v>235</v>
       </c>
+      <c r="G82" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A83" s="17" t="s">
+        <v>306</v>
+      </c>
       <c r="B83" s="10">
-        <v>5900</v>
+        <v>7002</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="D83" s="10">
         <v>0</v>
       </c>
       <c r="E83" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="G83" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A84" s="18" t="s">
-        <v>240</v>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A84" s="17" t="s">
+        <v>236</v>
       </c>
       <c r="B84" s="10">
-        <v>5901</v>
+        <v>7100</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="D84" s="10">
         <v>0</v>
       </c>
       <c r="E84" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>238</v>
+        <v>303</v>
       </c>
       <c r="G84" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A85" s="18" t="s">
-        <v>241</v>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A85" s="17" t="s">
+        <v>309</v>
       </c>
       <c r="B85" s="10">
-        <v>5902</v>
+        <v>7101</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>244</v>
+        <v>310</v>
       </c>
       <c r="D85" s="10">
         <v>0</v>
       </c>
       <c r="E85" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="G85" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A86" s="18" t="s">
-        <v>242</v>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A86" s="17" t="s">
+        <v>312</v>
       </c>
       <c r="B86" s="10">
-        <v>5903</v>
+        <v>7102</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>246</v>
+        <v>313</v>
       </c>
       <c r="D86" s="10">
         <v>0</v>
       </c>
       <c r="E86" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>239</v>
+        <v>314</v>
       </c>
       <c r="G86" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A87" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A88" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="B88" s="10">
-        <v>6000</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D88" s="10">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A87" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B87" s="10">
+        <v>7200</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D87" s="10">
         <v>0</v>
       </c>
-      <c r="E88" s="10">
-        <v>4</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="G88" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A89" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B89" s="10">
-        <v>6001</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="D89" s="10">
-        <v>0</v>
-      </c>
-      <c r="E89" s="10">
-        <v>4</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="G89" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A90" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="B90" s="10">
-        <v>6002</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="D90" s="10">
-        <v>0</v>
-      </c>
-      <c r="E90" s="10">
-        <v>4</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="G90" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A95" s="15"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C100" s="8"/>
-    </row>
-    <row r="124" spans="8:14" x14ac:dyDescent="0.4">
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="8"/>
-    </row>
-    <row r="125" spans="8:14" x14ac:dyDescent="0.4">
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
-      <c r="N125" s="8"/>
+      <c r="E87" s="10">
+        <v>5</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C90" s="8"/>
+    </row>
+    <row r="114" spans="8:14" x14ac:dyDescent="0.4">
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+    </row>
+    <row r="115" spans="8:14" x14ac:dyDescent="0.4">
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
